--- a/Project-KTXForecasting/Result/Forecasting_2DFUTR5_경전선.xlsx
+++ b/Project-KTXForecasting/Result/Forecasting_2DFUTR5_경전선.xlsx
@@ -45,16 +45,13 @@
     <t>NBEATSx</t>
   </si>
   <si>
-    <t>NHITS</t>
-  </si>
-  <si>
     <t>NBEATS</t>
   </si>
   <si>
-    <t>TiDE</t>
+    <t>DilatedRNN</t>
   </si>
   <si>
-    <t>TCN</t>
+    <t>TiDE</t>
   </si>
   <si>
     <t>RNN</t>
@@ -63,25 +60,28 @@
     <t>GRU</t>
   </si>
   <si>
-    <t>DilatedRNN</t>
+    <t>LSTM</t>
   </si>
   <si>
-    <t>LSTM</t>
+    <t>TCN</t>
+  </si>
+  <si>
+    <t>LightGBM</t>
   </si>
   <si>
     <t>RandomForest</t>
   </si>
   <si>
-    <t>LightGBM</t>
+    <t>CatBoost</t>
   </si>
   <si>
     <t>XGBoost</t>
   </si>
   <si>
-    <t>CatBoost</t>
+    <t>MLP</t>
   </si>
   <si>
-    <t>MLP</t>
+    <t>NHITS</t>
   </si>
   <si>
     <t>unique_id</t>
@@ -488,25 +488,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>48630003847.50358</v>
+        <v>48630132247.20541</v>
       </c>
       <c r="C2">
-        <v>220522.1164588794</v>
+        <v>220522.4075852733</v>
       </c>
       <c r="D2">
-        <v>0.02462088846688374</v>
+        <v>0.02462090141535389</v>
       </c>
       <c r="E2">
-        <v>82756.96354166667</v>
+        <v>82756.55729166667</v>
       </c>
       <c r="F2">
-        <v>0.07262319124162085</v>
+        <v>0.07262251570078858</v>
       </c>
       <c r="G2">
-        <v>23272.5</v>
+        <v>23272.34375</v>
       </c>
       <c r="H2">
-        <v>0.03582349185802877</v>
+        <v>0.03582325051419219</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -514,25 +514,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>53268855833.7487</v>
+        <v>46257337432.96484</v>
       </c>
       <c r="C3">
-        <v>230800.4675769715</v>
+        <v>215075.1901846534</v>
       </c>
       <c r="D3">
-        <v>0.02806797378194456</v>
+        <v>0.02567553055884656</v>
       </c>
       <c r="E3">
-        <v>92935.69791666667</v>
+        <v>96545.47916666667</v>
       </c>
       <c r="F3">
-        <v>0.08591028172782599</v>
+        <v>0.09550584918001882</v>
       </c>
       <c r="G3">
-        <v>28326.46875</v>
+        <v>45273.65625</v>
       </c>
       <c r="H3">
-        <v>0.04358769991772524</v>
+        <v>0.06553112948134837</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -540,25 +540,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>46257337432.96484</v>
+        <v>47817281716.04264</v>
       </c>
       <c r="C4">
-        <v>215075.1901846534</v>
+        <v>218671.6298838115</v>
       </c>
       <c r="D4">
-        <v>0.02567553055884656</v>
+        <v>0.02887658673285863</v>
       </c>
       <c r="E4">
-        <v>96545.47916666667</v>
+        <v>108875.359375</v>
       </c>
       <c r="F4">
-        <v>0.09550584918001882</v>
+        <v>0.1129731255825368</v>
       </c>
       <c r="G4">
-        <v>45273.65625</v>
+        <v>42426.46875</v>
       </c>
       <c r="H4">
-        <v>0.06553112948134837</v>
+        <v>0.06344072155848945</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -566,25 +566,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>53490332582.5306</v>
+        <v>52834411215.986</v>
       </c>
       <c r="C5">
-        <v>231279.771235036</v>
+        <v>229857.3714632315</v>
       </c>
       <c r="D5">
-        <v>0.03280001433712553</v>
+        <v>0.03220419816390466</v>
       </c>
       <c r="E5">
-        <v>116274.7916666667</v>
+        <v>114170.0364583333</v>
       </c>
       <c r="F5">
-        <v>0.1207237709307524</v>
+        <v>0.1178366162122873</v>
       </c>
       <c r="G5">
-        <v>67058.90625</v>
+        <v>64813.09375</v>
       </c>
       <c r="H5">
-        <v>0.09943308754257699</v>
+        <v>0.09640053417762623</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -592,25 +592,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>84635738622.79932</v>
+        <v>50507231979.11239</v>
       </c>
       <c r="C6">
-        <v>290922.2209161743</v>
+        <v>224738.1409087304</v>
       </c>
       <c r="D6">
-        <v>0.0879921493568661</v>
+        <v>0.03744948609034456</v>
       </c>
       <c r="E6">
-        <v>227031.7083333333</v>
+        <v>128573.4609375</v>
       </c>
       <c r="F6">
-        <v>0.2807456083803961</v>
+        <v>0.1427394384626549</v>
       </c>
       <c r="G6">
-        <v>176042.171875</v>
+        <v>64864.34375</v>
       </c>
       <c r="H6">
-        <v>0.2666061690672465</v>
+        <v>0.09475823971891167</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -618,25 +618,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>95528302117.06267</v>
+        <v>56051220682.94116</v>
       </c>
       <c r="C7">
-        <v>309076.5311651189</v>
+        <v>236751.3900338098</v>
       </c>
       <c r="D7">
-        <v>0.09268143119061019</v>
+        <v>0.04188252725060174</v>
       </c>
       <c r="E7">
-        <v>233384.1979166667</v>
+        <v>136871.9765625</v>
       </c>
       <c r="F7">
-        <v>0.2851988611554011</v>
+        <v>0.1525624411513007</v>
       </c>
       <c r="G7">
-        <v>179837.75</v>
+        <v>63363.78125</v>
       </c>
       <c r="H7">
-        <v>0.2645972278929271</v>
+        <v>0.09370160238328913</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -644,25 +644,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>96297610194.83887</v>
+        <v>55347280822.61752</v>
       </c>
       <c r="C8">
-        <v>310318.5624400172</v>
+        <v>235260.0281021353</v>
       </c>
       <c r="D8">
-        <v>0.1008110751905349</v>
+        <v>0.03817918914916549</v>
       </c>
       <c r="E8">
-        <v>243680.9375</v>
+        <v>135580.5677083333</v>
       </c>
       <c r="F8">
-        <v>0.3022109584975708</v>
+        <v>0.1501426869963469</v>
       </c>
       <c r="G8">
-        <v>187952.046875</v>
+        <v>71272.9375</v>
       </c>
       <c r="H8">
-        <v>0.2792178572812193</v>
+        <v>0.1018638316168881</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -670,25 +670,25 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>101581432035.1086</v>
+        <v>84561012723.44664</v>
       </c>
       <c r="C9">
-        <v>318718.4212359064</v>
+        <v>290793.7632127736</v>
       </c>
       <c r="D9">
-        <v>0.1074035434012406</v>
+        <v>0.1098967670031455</v>
       </c>
       <c r="E9">
-        <v>251929.9088541667</v>
+        <v>208082.2877604167</v>
       </c>
       <c r="F9">
-        <v>0.3128200485438561</v>
+        <v>0.2594336073146015</v>
       </c>
       <c r="G9">
-        <v>195951.6875</v>
+        <v>101905.3125</v>
       </c>
       <c r="H9">
-        <v>0.2944422923144446</v>
+        <v>0.1488504410548405</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -696,25 +696,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>105725631610.4639</v>
+        <v>118329284004.273</v>
       </c>
       <c r="C10">
-        <v>325154.7810050836</v>
+        <v>343990.238239798</v>
       </c>
       <c r="D10">
-        <v>0.1143854039023852</v>
+        <v>0.1275784480589766</v>
       </c>
       <c r="E10">
-        <v>260023.46875</v>
+        <v>273912.7304603855</v>
       </c>
       <c r="F10">
-        <v>0.3243003653541997</v>
+        <v>0.3412464509973022</v>
       </c>
       <c r="G10">
-        <v>211415.078125</v>
+        <v>216829.8797283825</v>
       </c>
       <c r="H10">
-        <v>0.3016140356229898</v>
+        <v>0.3302046113682965</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -722,25 +722,25 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>109479502589.9997</v>
+        <v>112067911245.0589</v>
       </c>
       <c r="C11">
-        <v>330876.8692278137</v>
+        <v>334765.4570666736</v>
       </c>
       <c r="D11">
-        <v>0.1230350553941892</v>
+        <v>0.1268296072958327</v>
       </c>
       <c r="E11">
-        <v>269010.9901785414</v>
+        <v>271566.5085520134</v>
       </c>
       <c r="F11">
-        <v>0.3374770099900122</v>
+        <v>0.3409647175966923</v>
       </c>
       <c r="G11">
-        <v>226153.624782648</v>
+        <v>223822.9561651127</v>
       </c>
       <c r="H11">
-        <v>0.3188526226827784</v>
+        <v>0.3345480647399802</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -748,25 +748,25 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>115010438369.6241</v>
+        <v>114098705185.0653</v>
       </c>
       <c r="C12">
-        <v>339131.8893434</v>
+        <v>337784.9984606559</v>
       </c>
       <c r="D12">
-        <v>0.1247789668531436</v>
+        <v>0.1318636396765149</v>
       </c>
       <c r="E12">
-        <v>271471.4057886429</v>
+        <v>275585.3734679117</v>
       </c>
       <c r="F12">
-        <v>0.3386478788009565</v>
+        <v>0.3470396509372407</v>
       </c>
       <c r="G12">
-        <v>218867.8794170661</v>
+        <v>226621.1717425784</v>
       </c>
       <c r="H12">
-        <v>0.3211752880784409</v>
+        <v>0.3447091304801825</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -774,25 +774,25 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>112597302236.4886</v>
+        <v>114852611628.3062</v>
       </c>
       <c r="C13">
-        <v>335555.2148849554</v>
+        <v>338899.1171843121</v>
       </c>
       <c r="D13">
-        <v>0.1280096569971414</v>
+        <v>0.1334374641624078</v>
       </c>
       <c r="E13">
-        <v>273924.4010416667</v>
+        <v>276594.8645833333</v>
       </c>
       <c r="F13">
-        <v>0.3441426894201272</v>
+        <v>0.3485804395465824</v>
       </c>
       <c r="G13">
-        <v>224522.21875</v>
+        <v>226919.25</v>
       </c>
       <c r="H13">
-        <v>0.323570306319127</v>
+        <v>0.3451630059656886</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -800,25 +800,25 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>112361872367.5253</v>
+        <v>426979859582.5586</v>
       </c>
       <c r="C14">
-        <v>335204.2248652683</v>
+        <v>653436.9591495101</v>
       </c>
       <c r="D14">
-        <v>0.1282863602684856</v>
+        <v>0.7512936293396212</v>
       </c>
       <c r="E14">
-        <v>274001.6664260345</v>
+        <v>556909.0558268229</v>
       </c>
       <c r="F14">
-        <v>0.3445343632708002</v>
+        <v>0.7490788983516171</v>
       </c>
       <c r="G14">
-        <v>225612.9741247148</v>
+        <v>586624.046875</v>
       </c>
       <c r="H14">
-        <v>0.3241310097135012</v>
+        <v>0.7870429501702974</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -826,25 +826,25 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>3898761812930.152</v>
+        <v>1097473850846.602</v>
       </c>
       <c r="C15">
-        <v>1974528.250729817</v>
+        <v>1047603.861603518</v>
       </c>
       <c r="D15">
-        <v>5.752902846512323</v>
+        <v>2.356166968729867</v>
       </c>
       <c r="E15">
-        <v>1600475.29280599</v>
+        <v>958914.2135416666</v>
       </c>
       <c r="F15">
-        <v>2.075318600426828</v>
+        <v>1.395329585887518</v>
       </c>
       <c r="G15">
-        <v>1218142.375</v>
+        <v>954879.375</v>
       </c>
       <c r="H15">
-        <v>1.820851245576262</v>
+        <v>1.376742086453534</v>
       </c>
     </row>
   </sheetData>
@@ -924,46 +924,46 @@
         <v>688648</v>
       </c>
       <c r="D2">
-        <v>673039.5625</v>
+        <v>673042</v>
       </c>
       <c r="E2">
-        <v>771938.75</v>
+        <v>736484.0625</v>
       </c>
       <c r="F2">
-        <v>736484.0625</v>
+        <v>644118.125</v>
       </c>
       <c r="G2">
-        <v>726551.875</v>
+        <v>719597</v>
       </c>
       <c r="H2">
-        <v>574725.5625</v>
+        <v>671030.4375</v>
       </c>
       <c r="I2">
-        <v>543313.3125</v>
+        <v>662325.6875</v>
       </c>
       <c r="J2">
-        <v>528722.375</v>
+        <v>632414.875</v>
       </c>
       <c r="K2">
-        <v>521608.4375</v>
+        <v>693360.8125</v>
       </c>
       <c r="L2">
-        <v>499130.125</v>
+        <v>484619.8375782663</v>
       </c>
       <c r="M2">
-        <v>492754.232642857</v>
+        <v>502502.6361421357</v>
       </c>
       <c r="N2">
-        <v>474072.1487711122</v>
+        <v>500195.3240577955</v>
       </c>
       <c r="O2">
-        <v>491423.21875</v>
+        <v>500206.03125</v>
       </c>
       <c r="P2">
-        <v>492265.3428989198</v>
+        <v>818041.3125</v>
       </c>
       <c r="Q2">
-        <v>-237672.890625</v>
+        <v>930293.3125</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -977,46 +977,46 @@
         <v>1432442</v>
       </c>
       <c r="D3">
-        <v>673040.5625</v>
+        <v>673039.3125</v>
       </c>
       <c r="E3">
-        <v>642495.375</v>
+        <v>701859.25</v>
       </c>
       <c r="F3">
-        <v>701859.25</v>
+        <v>702327.4375</v>
       </c>
       <c r="G3">
-        <v>663077.3125</v>
+        <v>666948.875</v>
       </c>
       <c r="H3">
-        <v>608986.5625</v>
+        <v>717423.5</v>
       </c>
       <c r="I3">
-        <v>529638.625</v>
+        <v>680720</v>
       </c>
       <c r="J3">
-        <v>554436.4375</v>
+        <v>668917.5</v>
       </c>
       <c r="K3">
-        <v>536905.625</v>
+        <v>711101.4375</v>
       </c>
       <c r="L3">
-        <v>528395</v>
+        <v>474485.7616965534</v>
       </c>
       <c r="M3">
-        <v>531505.2081666668</v>
+        <v>523583.3565000001</v>
       </c>
       <c r="N3">
-        <v>491320.2713260231</v>
+        <v>525985.4958572285</v>
       </c>
       <c r="O3">
-        <v>525369.9375</v>
+        <v>525370.875</v>
       </c>
       <c r="P3">
-        <v>527780.0578476065</v>
+        <v>340913.96875</v>
       </c>
       <c r="Q3">
-        <v>-2952647</v>
+        <v>1183934.25</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1030,46 +1030,46 @@
         <v>668339</v>
       </c>
       <c r="D4">
-        <v>673034.1875</v>
+        <v>673035.1875</v>
       </c>
       <c r="E4">
-        <v>685769.5</v>
+        <v>678896.3125</v>
       </c>
       <c r="F4">
-        <v>678896.3125</v>
+        <v>586184.75</v>
       </c>
       <c r="G4">
-        <v>681221.6875</v>
+        <v>677804.4375</v>
       </c>
       <c r="H4">
-        <v>473336.8125</v>
+        <v>592097.5</v>
       </c>
       <c r="I4">
-        <v>498658.3125</v>
+        <v>584699.125</v>
       </c>
       <c r="J4">
-        <v>480751.34375</v>
+        <v>578063.375</v>
       </c>
       <c r="K4">
-        <v>455683.1875</v>
+        <v>639699.8125</v>
       </c>
       <c r="L4">
-        <v>454944.0625</v>
+        <v>443352.6358144153</v>
       </c>
       <c r="M4">
-        <v>469275.8081904761</v>
+        <v>450876.1125627705</v>
       </c>
       <c r="N4">
-        <v>466578.6720054821</v>
+        <v>460413.8999973573</v>
       </c>
       <c r="O4">
-        <v>454313.4375</v>
+        <v>454283.875</v>
       </c>
       <c r="P4">
-        <v>455694.1158914956</v>
+        <v>-137411.46875</v>
       </c>
       <c r="Q4">
-        <v>-1290723.375</v>
+        <v>1725045</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1083,46 +1083,46 @@
         <v>651454</v>
       </c>
       <c r="D5">
-        <v>673038.8125</v>
+        <v>673038.875</v>
       </c>
       <c r="E5">
-        <v>681585.9375</v>
+        <v>683958.5</v>
       </c>
       <c r="F5">
-        <v>683958.5</v>
+        <v>624973.875</v>
       </c>
       <c r="G5">
-        <v>660273.0625</v>
+        <v>662157.625</v>
       </c>
       <c r="H5">
-        <v>474982.28125</v>
+        <v>611971.5</v>
       </c>
       <c r="I5">
-        <v>493858.875</v>
+        <v>610744.125</v>
       </c>
       <c r="J5">
-        <v>437038.125</v>
+        <v>601060.4375</v>
       </c>
       <c r="K5">
-        <v>455658.8125</v>
+        <v>573386.4375</v>
       </c>
       <c r="L5">
-        <v>432666.375</v>
+        <v>473870.1954064946</v>
       </c>
       <c r="M5">
-        <v>450840.8688095239</v>
+        <v>421270.9751070041</v>
       </c>
       <c r="N5">
-        <v>491176.8719352585</v>
+        <v>408418.5835899569</v>
       </c>
       <c r="O5">
-        <v>447600.34375</v>
+        <v>406705.875</v>
       </c>
       <c r="P5">
-        <v>444502.6732804174</v>
+        <v>10374.966796875</v>
       </c>
       <c r="Q5">
-        <v>16635.595703125</v>
+        <v>1910135.75</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1136,46 +1136,46 @@
         <v>669451</v>
       </c>
       <c r="D6">
-        <v>673039.1875</v>
+        <v>673039.875</v>
       </c>
       <c r="E6">
-        <v>671586.8125</v>
+        <v>683603</v>
       </c>
       <c r="F6">
-        <v>683603</v>
+        <v>593629.375</v>
       </c>
       <c r="G6">
-        <v>603248.125</v>
+        <v>599932</v>
       </c>
       <c r="H6">
-        <v>493838.375</v>
+        <v>624251.875</v>
       </c>
       <c r="I6">
-        <v>481686.0625</v>
+        <v>576063.5</v>
       </c>
       <c r="J6">
-        <v>470978.84375</v>
+        <v>537247.0625</v>
       </c>
       <c r="K6">
-        <v>473342.8125</v>
+        <v>578235.1875</v>
       </c>
       <c r="L6">
-        <v>455877.75</v>
+        <v>435829.6047288198</v>
       </c>
       <c r="M6">
-        <v>439207.2495119045</v>
+        <v>434004.2910646123</v>
       </c>
       <c r="N6">
-        <v>439959.612117082</v>
+        <v>430355.8282574216</v>
       </c>
       <c r="O6">
-        <v>436618.8125</v>
+        <v>430057.75</v>
       </c>
       <c r="P6">
-        <v>437133.2190826302</v>
+        <v>207230.03125</v>
       </c>
       <c r="Q6">
-        <v>1545378</v>
+        <v>1574666.625</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1189,46 +1189,46 @@
         <v>648086</v>
       </c>
       <c r="D7">
-        <v>673046.1875</v>
+        <v>673045.8125</v>
       </c>
       <c r="E7">
-        <v>674607</v>
+        <v>707643.25</v>
       </c>
       <c r="F7">
-        <v>707643.25</v>
+        <v>607762.9375</v>
       </c>
       <c r="G7">
-        <v>654097.5</v>
+        <v>647340.125</v>
       </c>
       <c r="H7">
-        <v>510925.1875</v>
+        <v>593117.75</v>
       </c>
       <c r="I7">
-        <v>505409.0625</v>
+        <v>600945.1875</v>
       </c>
       <c r="J7">
-        <v>501144.4375</v>
+        <v>595137.5</v>
       </c>
       <c r="K7">
-        <v>484081.5</v>
+        <v>571183.9375</v>
       </c>
       <c r="L7">
-        <v>486501</v>
+        <v>490403.2455924833</v>
       </c>
       <c r="M7">
-        <v>515596.1513571428</v>
+        <v>513811.7120000001</v>
       </c>
       <c r="N7">
-        <v>472460.9306654833</v>
+        <v>523430.2140426981</v>
       </c>
       <c r="O7">
-        <v>523303.71875</v>
+        <v>523300.96875</v>
       </c>
       <c r="P7">
-        <v>522539.8662292362</v>
+        <v>226665</v>
       </c>
       <c r="Q7">
-        <v>-1135950.875</v>
+        <v>1448388</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1242,46 +1242,46 @@
         <v>716861</v>
       </c>
       <c r="D8">
-        <v>673044.5625</v>
+        <v>673046.125</v>
       </c>
       <c r="E8">
-        <v>719087.375</v>
+        <v>732002.1875</v>
       </c>
       <c r="F8">
-        <v>732002.1875</v>
+        <v>683278.125</v>
       </c>
       <c r="G8">
-        <v>667923.875</v>
+        <v>665612.125</v>
       </c>
       <c r="H8">
-        <v>504412.875</v>
+        <v>664118.75</v>
       </c>
       <c r="I8">
-        <v>515652.3125</v>
+        <v>657956.75</v>
       </c>
       <c r="J8">
-        <v>505275.34375</v>
+        <v>647317.9375</v>
       </c>
       <c r="K8">
-        <v>479546.15625</v>
+        <v>624147.5</v>
       </c>
       <c r="L8">
-        <v>479552.8125</v>
+        <v>534265.4827156698</v>
       </c>
       <c r="M8">
-        <v>488356.8454682539</v>
+        <v>534541.0688134922</v>
       </c>
       <c r="N8">
-        <v>517789.8788962789</v>
+        <v>539725.1035150284</v>
       </c>
       <c r="O8">
-        <v>451854.53125</v>
+        <v>551939.3125</v>
       </c>
       <c r="P8">
-        <v>470815.2303124135</v>
+        <v>134711.90625</v>
       </c>
       <c r="Q8">
-        <v>-104431.46875</v>
+        <v>1721404.125</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1295,46 +1295,46 @@
         <v>688137</v>
       </c>
       <c r="D9">
-        <v>673040.75</v>
+        <v>673043.3125</v>
       </c>
       <c r="E9">
-        <v>643913.875</v>
+        <v>740693.75</v>
       </c>
       <c r="F9">
-        <v>740693.75</v>
+        <v>657567</v>
       </c>
       <c r="G9">
-        <v>797941.25</v>
+        <v>793293.6875</v>
       </c>
       <c r="H9">
-        <v>517174.625</v>
+        <v>656128.75</v>
       </c>
       <c r="I9">
-        <v>530908.9375</v>
+        <v>646450.375</v>
       </c>
       <c r="J9">
-        <v>510311.625</v>
+        <v>649325.375</v>
       </c>
       <c r="K9">
-        <v>498769.28125</v>
+        <v>577039.875</v>
       </c>
       <c r="L9">
-        <v>500996.875</v>
+        <v>482086.9557240944</v>
       </c>
       <c r="M9">
-        <v>459561.3529325396</v>
+        <v>507739.5357481962</v>
       </c>
       <c r="N9">
-        <v>448535.7885675267</v>
+        <v>507068.4433620722</v>
       </c>
       <c r="O9">
-        <v>458511.5</v>
+        <v>506478.625</v>
       </c>
       <c r="P9">
-        <v>457700.631475641</v>
+        <v>584376.375</v>
       </c>
       <c r="Q9">
-        <v>4176386.5</v>
+        <v>1836439.625</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1348,46 +1348,46 @@
         <v>714043</v>
       </c>
       <c r="D10">
-        <v>673038.9375</v>
+        <v>673039.4375</v>
       </c>
       <c r="E10">
-        <v>690783.25</v>
+        <v>739158.75</v>
       </c>
       <c r="F10">
-        <v>739158.75</v>
+        <v>678520</v>
       </c>
       <c r="G10">
-        <v>827055.9375</v>
+        <v>828721.3125</v>
       </c>
       <c r="H10">
-        <v>503250.53125</v>
+        <v>639282.5625</v>
       </c>
       <c r="I10">
-        <v>527009.25</v>
+        <v>658810.25</v>
       </c>
       <c r="J10">
-        <v>525726.5625</v>
+        <v>637842.375</v>
       </c>
       <c r="K10">
-        <v>502725</v>
+        <v>529673</v>
       </c>
       <c r="L10">
-        <v>496434.46875</v>
+        <v>458238.9069518155</v>
       </c>
       <c r="M10">
-        <v>477886.9049664501</v>
+        <v>437567.6105714286</v>
       </c>
       <c r="N10">
-        <v>473651.6258701002</v>
+        <v>432748.7032116181</v>
       </c>
       <c r="O10">
-        <v>482271.0625</v>
+        <v>431928.5625</v>
       </c>
       <c r="P10">
-        <v>480900.4202749293</v>
+        <v>54596.26953125</v>
       </c>
       <c r="Q10">
-        <v>2321493</v>
+        <v>1547813.5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1401,46 +1401,46 @@
         <v>644503</v>
       </c>
       <c r="D11">
-        <v>673044.1875</v>
+        <v>673042.1875</v>
       </c>
       <c r="E11">
-        <v>681927.4375</v>
+        <v>724497.875</v>
       </c>
       <c r="F11">
-        <v>724497.875</v>
+        <v>617531.5625</v>
       </c>
       <c r="G11">
-        <v>576588.0625</v>
+        <v>580709.8125</v>
       </c>
       <c r="H11">
-        <v>489314.4375</v>
+        <v>563434.875</v>
       </c>
       <c r="I11">
-        <v>471861.25</v>
+        <v>576679.6875</v>
       </c>
       <c r="J11">
-        <v>465293.25</v>
+        <v>571500.1875</v>
       </c>
       <c r="K11">
-        <v>475123.8125</v>
+        <v>350399.125</v>
       </c>
       <c r="L11">
-        <v>468881.15625</v>
+        <v>435829.6047288198</v>
       </c>
       <c r="M11">
-        <v>439207.2495119045</v>
+        <v>434004.2910646123</v>
       </c>
       <c r="N11">
-        <v>439959.612117082</v>
+        <v>430355.8282574216</v>
       </c>
       <c r="O11">
-        <v>436618.8125</v>
+        <v>430057.75</v>
       </c>
       <c r="P11">
-        <v>437133.2190826302</v>
+        <v>1235602</v>
       </c>
       <c r="Q11">
-        <v>-697331.25</v>
+        <v>1455210</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1457,43 +1457,43 @@
         <v>673042.1875</v>
       </c>
       <c r="E12">
-        <v>689369.4375</v>
+        <v>721966.1875</v>
       </c>
       <c r="F12">
-        <v>721966.1875</v>
+        <v>631404.5</v>
       </c>
       <c r="G12">
-        <v>594890.8125</v>
+        <v>596728.6875</v>
       </c>
       <c r="H12">
-        <v>517306.8125</v>
+        <v>544384.8125</v>
       </c>
       <c r="I12">
-        <v>490073.03125</v>
+        <v>534438.625</v>
       </c>
       <c r="J12">
-        <v>494035.0625</v>
+        <v>614894.875</v>
       </c>
       <c r="K12">
-        <v>505282.84375</v>
+        <v>254305.859375</v>
       </c>
       <c r="L12">
-        <v>486920.96875</v>
+        <v>444663.0965861261</v>
       </c>
       <c r="M12">
-        <v>432626.3413333333</v>
+        <v>446569.6972301587</v>
       </c>
       <c r="N12">
-        <v>456023.0923947557</v>
+        <v>404366.3910248426</v>
       </c>
       <c r="O12">
-        <v>425587.75</v>
+        <v>391440.4375</v>
       </c>
       <c r="P12">
-        <v>407451.8062367378</v>
+        <v>636677.875</v>
       </c>
       <c r="Q12">
-        <v>392010.75</v>
+        <v>2062698.125</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1507,46 +1507,46 @@
         <v>701690</v>
       </c>
       <c r="D13">
-        <v>673043.4375</v>
+        <v>673041.875</v>
       </c>
       <c r="E13">
-        <v>653238.375</v>
+        <v>749454.125</v>
       </c>
       <c r="F13">
-        <v>749454.125</v>
+        <v>569035</v>
       </c>
       <c r="G13">
-        <v>631538.625</v>
+        <v>635857</v>
       </c>
       <c r="H13">
-        <v>510202.4375</v>
+        <v>482713.15625</v>
       </c>
       <c r="I13">
-        <v>514157.59375</v>
+        <v>470539.96875</v>
       </c>
       <c r="J13">
-        <v>504952.34375</v>
+        <v>542148.6875</v>
       </c>
       <c r="K13">
-        <v>490950.625</v>
+        <v>312742.1875</v>
       </c>
       <c r="L13">
-        <v>492254.78125</v>
+        <v>458238.9069518155</v>
       </c>
       <c r="M13">
-        <v>477886.9049664501</v>
+        <v>437567.6105714286</v>
       </c>
       <c r="N13">
-        <v>473651.6258701002</v>
+        <v>432748.7032116181</v>
       </c>
       <c r="O13">
-        <v>482271.0625</v>
+        <v>431928.5625</v>
       </c>
       <c r="P13">
-        <v>480900.4202749293</v>
+        <v>-450865.28125</v>
       </c>
       <c r="Q13">
-        <v>1796140.5</v>
+        <v>2516763.75</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1560,46 +1560,46 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>673045.1875</v>
+        <v>673042.25</v>
       </c>
       <c r="E14">
-        <v>693408.875</v>
+        <v>783607.125</v>
       </c>
       <c r="F14">
-        <v>783607.125</v>
+        <v>635577.9375</v>
       </c>
       <c r="G14">
-        <v>633566.3125</v>
+        <v>633289.875</v>
       </c>
       <c r="H14">
-        <v>531826.875</v>
+        <v>498378.96875</v>
       </c>
       <c r="I14">
-        <v>538349.125</v>
+        <v>491994.0625</v>
       </c>
       <c r="J14">
-        <v>512974.53125</v>
+        <v>587126.125</v>
       </c>
       <c r="K14">
-        <v>508993.1875</v>
+        <v>253854.4375</v>
       </c>
       <c r="L14">
-        <v>503865.0625</v>
+        <v>408242.086760533</v>
       </c>
       <c r="M14">
-        <v>353290.6695238096</v>
+        <v>389911.5821725497</v>
       </c>
       <c r="N14">
-        <v>422854.8889529357</v>
+        <v>389295.1213316664</v>
       </c>
       <c r="O14">
-        <v>343132.6875</v>
+        <v>390216.875</v>
       </c>
       <c r="P14">
-        <v>350404.3252262224</v>
+        <v>125951.953125</v>
       </c>
       <c r="Q14">
-        <v>1595602.875</v>
+        <v>2142276</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1613,46 +1613,46 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>673043.25</v>
+        <v>673043.1875</v>
       </c>
       <c r="E15">
-        <v>705931.8125</v>
+        <v>798869.5</v>
       </c>
       <c r="F15">
-        <v>798869.5</v>
+        <v>705284.3125</v>
       </c>
       <c r="G15">
-        <v>574443.875</v>
+        <v>565703.875</v>
       </c>
       <c r="H15">
-        <v>560229.9375</v>
+        <v>575605.75</v>
       </c>
       <c r="I15">
-        <v>571112.125</v>
+        <v>493604.25</v>
       </c>
       <c r="J15">
-        <v>561589.4375</v>
+        <v>672256</v>
       </c>
       <c r="K15">
-        <v>559747.75</v>
+        <v>328403.6875</v>
       </c>
       <c r="L15">
-        <v>555947.4375</v>
+        <v>534265.4827156698</v>
       </c>
       <c r="M15">
-        <v>506064.0107857143</v>
+        <v>555700.1615396827</v>
       </c>
       <c r="N15">
-        <v>517789.8788962789</v>
+        <v>538179.1543448361</v>
       </c>
       <c r="O15">
-        <v>501467.125</v>
+        <v>551820.1875</v>
       </c>
       <c r="P15">
-        <v>506159.7728012356</v>
+        <v>47817.21875</v>
       </c>
       <c r="Q15">
-        <v>1332460.25</v>
+        <v>2602501.5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1666,46 +1666,46 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>673046</v>
+        <v>673042.1875</v>
       </c>
       <c r="E16">
-        <v>671501.5</v>
+        <v>791261</v>
       </c>
       <c r="F16">
-        <v>791261</v>
+        <v>542576.625</v>
       </c>
       <c r="G16">
-        <v>578803.3125</v>
+        <v>581130.1875</v>
       </c>
       <c r="H16">
-        <v>505187.59375</v>
+        <v>425775.5625</v>
       </c>
       <c r="I16">
-        <v>501388.03125</v>
+        <v>436986.15625</v>
       </c>
       <c r="J16">
-        <v>514866.53125</v>
+        <v>523246.0625</v>
       </c>
       <c r="K16">
-        <v>494364.75</v>
+        <v>297096.1875</v>
       </c>
       <c r="L16">
-        <v>491604.90625</v>
+        <v>461136.6733695357</v>
       </c>
       <c r="M16">
-        <v>511258.415690476</v>
+        <v>508919.1967619046</v>
       </c>
       <c r="N16">
-        <v>456546.9027059539</v>
+        <v>512427.2157162123</v>
       </c>
       <c r="O16">
-        <v>514058.0625</v>
+        <v>514065.4375</v>
       </c>
       <c r="P16">
-        <v>510893.0416415477</v>
+        <v>-534142.5625</v>
       </c>
       <c r="Q16">
-        <v>837059.6875</v>
+        <v>11131631</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1719,46 +1719,46 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>673041.75</v>
+        <v>673040.1875</v>
       </c>
       <c r="E17">
-        <v>679426</v>
+        <v>781742.25</v>
       </c>
       <c r="F17">
-        <v>781742.25</v>
+        <v>491973.21875</v>
       </c>
       <c r="G17">
-        <v>593157.5</v>
+        <v>591895.625</v>
       </c>
       <c r="H17">
-        <v>523148.90625</v>
+        <v>445148.9375</v>
       </c>
       <c r="I17">
-        <v>499404.125</v>
+        <v>379187.6875</v>
       </c>
       <c r="J17">
-        <v>473619.21875</v>
+        <v>552397.375</v>
       </c>
       <c r="K17">
-        <v>490793.84375</v>
+        <v>346753.1875</v>
       </c>
       <c r="L17">
-        <v>480011.28125</v>
+        <v>482823.809862848</v>
       </c>
       <c r="M17">
-        <v>508912.3714880953</v>
+        <v>518166.6828374126</v>
       </c>
       <c r="N17">
-        <v>465640.511731673</v>
+        <v>532127.5584688272</v>
       </c>
       <c r="O17">
-        <v>536273</v>
+        <v>536309.8125</v>
       </c>
       <c r="P17">
-        <v>529394.1018403975</v>
+        <v>33534.32421875</v>
       </c>
       <c r="Q17">
-        <v>3835264.75</v>
+        <v>19417708</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1772,46 +1772,46 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>673046.375</v>
+        <v>673041.875</v>
       </c>
       <c r="E18">
-        <v>718980.8125</v>
+        <v>771656.5</v>
       </c>
       <c r="F18">
-        <v>771656.5</v>
+        <v>460575.4375</v>
       </c>
       <c r="G18">
-        <v>493302.3125</v>
+        <v>485764.6875</v>
       </c>
       <c r="H18">
-        <v>581461.625</v>
+        <v>444986.625</v>
       </c>
       <c r="I18">
-        <v>518117.34375</v>
+        <v>441943.8125</v>
       </c>
       <c r="J18">
-        <v>509705.625</v>
+        <v>544485.875</v>
       </c>
       <c r="K18">
-        <v>520112.5625</v>
+        <v>378661.96875</v>
       </c>
       <c r="L18">
-        <v>514529.0625</v>
+        <v>457868.904975687</v>
       </c>
       <c r="M18">
-        <v>476957.8652186148</v>
+        <v>488963.6522812466</v>
       </c>
       <c r="N18">
-        <v>473651.6258701002</v>
+        <v>489948.1113222188</v>
       </c>
       <c r="O18">
-        <v>476330.6875</v>
+        <v>489894.8125</v>
       </c>
       <c r="P18">
-        <v>475798.2036909495</v>
+        <v>227300.171875</v>
       </c>
       <c r="Q18">
-        <v>1964295</v>
+        <v>20168068</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1825,46 +1825,46 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>673046.4375</v>
+        <v>673042.4375</v>
       </c>
       <c r="E19">
-        <v>721585.9375</v>
+        <v>791282.8125</v>
       </c>
       <c r="F19">
-        <v>791282.8125</v>
+        <v>426555.28125</v>
       </c>
       <c r="G19">
-        <v>483550.71875</v>
+        <v>478464.78125</v>
       </c>
       <c r="H19">
-        <v>549310.375</v>
+        <v>466376.1875</v>
       </c>
       <c r="I19">
-        <v>514265.9375</v>
+        <v>403478.40625</v>
       </c>
       <c r="J19">
-        <v>507566.8125</v>
+        <v>530370.875</v>
       </c>
       <c r="K19">
-        <v>513585.75</v>
+        <v>363154.8125</v>
       </c>
       <c r="L19">
-        <v>515165.15625</v>
+        <v>504442.8176052421</v>
       </c>
       <c r="M19">
-        <v>493766.776</v>
+        <v>531509.3658333332</v>
       </c>
       <c r="N19">
-        <v>482492.6999650115</v>
+        <v>537685.8704233209</v>
       </c>
       <c r="O19">
-        <v>487056.28125</v>
+        <v>538237.625</v>
       </c>
       <c r="P19">
-        <v>483854.2274365925</v>
+        <v>-193859.828125</v>
       </c>
       <c r="Q19">
-        <v>-571713.5625</v>
+        <v>20918424</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1878,46 +1878,46 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>673042.4375</v>
+        <v>673040.625</v>
       </c>
       <c r="E20">
-        <v>755132.75</v>
+        <v>821463.875</v>
       </c>
       <c r="F20">
-        <v>821463.875</v>
+        <v>412891.5</v>
       </c>
       <c r="G20">
-        <v>658467.0625</v>
+        <v>657013.375</v>
       </c>
       <c r="H20">
-        <v>586750.5625</v>
+        <v>429999.46875</v>
       </c>
       <c r="I20">
-        <v>504716.6875</v>
+        <v>432522.9375</v>
       </c>
       <c r="J20">
-        <v>518747.3125</v>
+        <v>529954.4375</v>
       </c>
       <c r="K20">
-        <v>526443.5625</v>
+        <v>414262.1875</v>
       </c>
       <c r="L20">
-        <v>526990.1875</v>
+        <v>474485.7616965534</v>
       </c>
       <c r="M20">
-        <v>544559.6354642857</v>
+        <v>546131.8030396826</v>
       </c>
       <c r="N20">
-        <v>491320.2713260231</v>
+        <v>560751.4717867366</v>
       </c>
       <c r="O20">
-        <v>562498.25</v>
+        <v>562508.625</v>
       </c>
       <c r="P20">
-        <v>557493.3158157293</v>
+        <v>156011.90625</v>
       </c>
       <c r="Q20">
-        <v>3560068</v>
+        <v>20240970</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1931,46 +1931,46 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>673042.0625</v>
+        <v>673040.0625</v>
       </c>
       <c r="E21">
-        <v>685252.125</v>
+        <v>843247.75</v>
       </c>
       <c r="F21">
-        <v>843247.75</v>
+        <v>301822.4375</v>
       </c>
       <c r="G21">
-        <v>445936.75</v>
+        <v>445469.84375</v>
       </c>
       <c r="H21">
-        <v>579177.875</v>
+        <v>376339.09375</v>
       </c>
       <c r="I21">
-        <v>514153.40625</v>
+        <v>415430.90625</v>
       </c>
       <c r="J21">
-        <v>521218.78125</v>
+        <v>432117.34375</v>
       </c>
       <c r="K21">
-        <v>539631.0625</v>
+        <v>329930.875</v>
       </c>
       <c r="L21">
-        <v>527330.625</v>
+        <v>484619.8375782663</v>
       </c>
       <c r="M21">
-        <v>492754.232642857</v>
+        <v>502502.6361421357</v>
       </c>
       <c r="N21">
-        <v>474072.1487711122</v>
+        <v>500195.3240577955</v>
       </c>
       <c r="O21">
-        <v>491423.21875</v>
+        <v>500206.03125</v>
       </c>
       <c r="P21">
-        <v>492265.3428989198</v>
+        <v>1209013.5</v>
       </c>
       <c r="Q21">
-        <v>1174765.75</v>
+        <v>19517470</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1984,46 +1984,46 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>673043.1875</v>
+        <v>673042.75</v>
       </c>
       <c r="E22">
-        <v>666624.4375</v>
+        <v>847031.75</v>
       </c>
       <c r="F22">
-        <v>847031.75</v>
+        <v>437287.84375</v>
       </c>
       <c r="G22">
-        <v>718037.1875</v>
+        <v>728677.8125</v>
       </c>
       <c r="H22">
-        <v>574080.625</v>
+        <v>485052.84375</v>
       </c>
       <c r="I22">
-        <v>554446.125</v>
+        <v>481750.40625</v>
       </c>
       <c r="J22">
-        <v>548831.5625</v>
+        <v>509516</v>
       </c>
       <c r="K22">
-        <v>547927.625</v>
+        <v>360273.4375</v>
       </c>
       <c r="L22">
-        <v>558407.125</v>
+        <v>471483.9814730076</v>
       </c>
       <c r="M22">
-        <v>486443.1295833332</v>
+        <v>463560.9990126262</v>
       </c>
       <c r="N22">
-        <v>466429.2196873378</v>
+        <v>458466.6882309798</v>
       </c>
       <c r="O22">
-        <v>486525.65625</v>
+        <v>458362.09375</v>
       </c>
       <c r="P22">
-        <v>485434.8277207214</v>
+        <v>-147448.484375</v>
       </c>
       <c r="Q22">
-        <v>-120388.0390625</v>
+        <v>19980580</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2037,46 +2037,46 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>673046.75</v>
+        <v>673040.875</v>
       </c>
       <c r="E23">
-        <v>682572.625</v>
+        <v>853233.875</v>
       </c>
       <c r="F23">
-        <v>853233.875</v>
+        <v>482260.9375</v>
       </c>
       <c r="G23">
-        <v>533763</v>
+        <v>533624.75</v>
       </c>
       <c r="H23">
-        <v>592452.75</v>
+        <v>505070.84375</v>
       </c>
       <c r="I23">
-        <v>551438.625</v>
+        <v>487938.9375</v>
       </c>
       <c r="J23">
-        <v>555467.75</v>
+        <v>501856.1875</v>
       </c>
       <c r="K23">
-        <v>569188.1875</v>
+        <v>387024.125</v>
       </c>
       <c r="L23">
-        <v>546993.9375</v>
+        <v>534265.4827156698</v>
       </c>
       <c r="M23">
-        <v>514179.0804523809</v>
+        <v>566360.1571111111</v>
       </c>
       <c r="N23">
-        <v>517789.8788962789</v>
+        <v>567127.4697153691</v>
       </c>
       <c r="O23">
-        <v>511848.71875</v>
+        <v>566717.375</v>
       </c>
       <c r="P23">
-        <v>516854.3445779677</v>
+        <v>67139.5703125</v>
       </c>
       <c r="Q23">
-        <v>1221893.875</v>
+        <v>20566432</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2090,46 +2090,46 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>673049.5625</v>
+        <v>673042.0625</v>
       </c>
       <c r="E24">
-        <v>562908.5625</v>
+        <v>867088.8125</v>
       </c>
       <c r="F24">
-        <v>867088.8125</v>
+        <v>247141.796875</v>
       </c>
       <c r="G24">
-        <v>626216.625</v>
+        <v>629500.8125</v>
       </c>
       <c r="H24">
-        <v>498920.3125</v>
+        <v>296175.75</v>
       </c>
       <c r="I24">
-        <v>464316.28125</v>
+        <v>309650.9375</v>
       </c>
       <c r="J24">
-        <v>476619</v>
+        <v>305112.75</v>
       </c>
       <c r="K24">
-        <v>477121.59375</v>
+        <v>299059.6875</v>
       </c>
       <c r="L24">
-        <v>463766.875</v>
+        <v>481534.3505741027</v>
       </c>
       <c r="M24">
-        <v>456509.5444642857</v>
+        <v>530909.5446666667</v>
       </c>
       <c r="N24">
-        <v>465789.9640498172</v>
+        <v>539566.8983142186</v>
       </c>
       <c r="O24">
-        <v>453276.53125</v>
+        <v>539874.5625</v>
       </c>
       <c r="P24">
-        <v>456171.0571419298</v>
+        <v>15944.5849609375</v>
       </c>
       <c r="Q24">
-        <v>2794508.5</v>
+        <v>19903546</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2143,46 +2143,46 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>673047.8125</v>
+        <v>673042.5625</v>
       </c>
       <c r="E25">
-        <v>669302.4375</v>
+        <v>896171.375</v>
       </c>
       <c r="F25">
-        <v>896171.375</v>
+        <v>144100.59375</v>
       </c>
       <c r="G25">
-        <v>752991.1875</v>
+        <v>755823.625</v>
       </c>
       <c r="H25">
-        <v>558909.375</v>
+        <v>210060.046875</v>
       </c>
       <c r="I25">
-        <v>486018.40625</v>
+        <v>235805.703125</v>
       </c>
       <c r="J25">
-        <v>525012.75</v>
+        <v>248503.1875</v>
       </c>
       <c r="K25">
-        <v>521239.5</v>
+        <v>278612.71875</v>
       </c>
       <c r="L25">
-        <v>525000.375</v>
+        <v>506587.7888559366</v>
       </c>
       <c r="M25">
-        <v>437006.9778888889</v>
+        <v>514627.7485000001</v>
       </c>
       <c r="N25">
-        <v>489565.6538296296</v>
+        <v>523824.0824949865</v>
       </c>
       <c r="O25">
-        <v>430223.09375</v>
+        <v>524325.0625</v>
       </c>
       <c r="P25">
-        <v>433361.3172573358</v>
+        <v>-36714.8671875</v>
       </c>
       <c r="Q25">
-        <v>-1659432.5</v>
+        <v>19009440</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2196,46 +2196,46 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>673046.6875</v>
+        <v>673042.75</v>
       </c>
       <c r="E26">
-        <v>721433.0625</v>
+        <v>905652.4375</v>
       </c>
       <c r="F26">
-        <v>905652.4375</v>
+        <v>192882.546875</v>
       </c>
       <c r="G26">
-        <v>674360.125</v>
+        <v>676161.4375</v>
       </c>
       <c r="H26">
-        <v>602053.875</v>
+        <v>245159.875</v>
       </c>
       <c r="I26">
-        <v>477288.375</v>
+        <v>215787.1875</v>
       </c>
       <c r="J26">
-        <v>522601.4375</v>
+        <v>276807.5</v>
       </c>
       <c r="K26">
-        <v>533938.5625</v>
+        <v>296002.6875</v>
       </c>
       <c r="L26">
-        <v>540186.25</v>
+        <v>482086.9557240944</v>
       </c>
       <c r="M26">
-        <v>459561.3529325396</v>
+        <v>507739.5357481962</v>
       </c>
       <c r="N26">
-        <v>448535.7885675267</v>
+        <v>507068.4433620722</v>
       </c>
       <c r="O26">
-        <v>458511.5</v>
+        <v>506478.625</v>
       </c>
       <c r="P26">
-        <v>457700.631475641</v>
+        <v>1387760.75</v>
       </c>
       <c r="Q26">
-        <v>191991.75</v>
+        <v>19606662</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2249,46 +2249,46 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>673043.5625</v>
+        <v>673040.9375</v>
       </c>
       <c r="E27">
-        <v>674509.75</v>
+        <v>909658.5</v>
       </c>
       <c r="F27">
-        <v>909658.5</v>
+        <v>289527.8125</v>
       </c>
       <c r="G27">
-        <v>816378.3125</v>
+        <v>829232.4375</v>
       </c>
       <c r="H27">
-        <v>599691.1875</v>
+        <v>422082.28125</v>
       </c>
       <c r="I27">
-        <v>529075.5</v>
+        <v>381884.59375</v>
       </c>
       <c r="J27">
-        <v>535715.0625</v>
+        <v>377837.75</v>
       </c>
       <c r="K27">
-        <v>553674.375</v>
+        <v>407432.15625</v>
       </c>
       <c r="L27">
-        <v>555160.875</v>
+        <v>506587.7888559366</v>
       </c>
       <c r="M27">
-        <v>458114.5971666666</v>
+        <v>466775.3456666667</v>
       </c>
       <c r="N27">
-        <v>489565.6538296296</v>
+        <v>443492.987141165</v>
       </c>
       <c r="O27">
-        <v>478607.625</v>
+        <v>437499.75</v>
       </c>
       <c r="P27">
-        <v>461630.4752749105</v>
+        <v>2279894.75</v>
       </c>
       <c r="Q27">
-        <v>4463645</v>
+        <v>20621450</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2302,46 +2302,46 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>673045.0625</v>
+        <v>673041.5</v>
       </c>
       <c r="E28">
-        <v>709329</v>
+        <v>929042.5</v>
       </c>
       <c r="F28">
-        <v>929042.5</v>
+        <v>306096.9375</v>
       </c>
       <c r="G28">
-        <v>566088.625</v>
+        <v>565252.4375</v>
       </c>
       <c r="H28">
-        <v>563993.625</v>
+        <v>398538.3125</v>
       </c>
       <c r="I28">
-        <v>499873.5</v>
+        <v>388852.6875</v>
       </c>
       <c r="J28">
-        <v>508847.15625</v>
+        <v>310238.8125</v>
       </c>
       <c r="K28">
-        <v>512311.40625</v>
+        <v>343572.9375</v>
       </c>
       <c r="L28">
-        <v>517802</v>
+        <v>443352.6358144153</v>
       </c>
       <c r="M28">
-        <v>469275.8081904761</v>
+        <v>450876.1125627705</v>
       </c>
       <c r="N28">
-        <v>466578.6720054821</v>
+        <v>460413.8999973573</v>
       </c>
       <c r="O28">
-        <v>454313.4375</v>
+        <v>454283.875</v>
       </c>
       <c r="P28">
-        <v>455694.1158914956</v>
+        <v>998920.875</v>
       </c>
       <c r="Q28">
-        <v>4740989</v>
+        <v>20882714</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2355,46 +2355,46 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>673047.875</v>
+        <v>673042.125</v>
       </c>
       <c r="E29">
-        <v>645834.375</v>
+        <v>907766.1875</v>
       </c>
       <c r="F29">
-        <v>907766.1875</v>
+        <v>411071.8125</v>
       </c>
       <c r="G29">
-        <v>755364.125</v>
+        <v>755780.375</v>
       </c>
       <c r="H29">
-        <v>614391.25</v>
+        <v>441044.625</v>
       </c>
       <c r="I29">
-        <v>523262.4375</v>
+        <v>432504.625</v>
       </c>
       <c r="J29">
-        <v>543215.9375</v>
+        <v>355647.25</v>
       </c>
       <c r="K29">
-        <v>539213</v>
+        <v>439380.65625</v>
       </c>
       <c r="L29">
-        <v>561818.5</v>
+        <v>482823.809862848</v>
       </c>
       <c r="M29">
-        <v>508912.3714880953</v>
+        <v>518166.6828374126</v>
       </c>
       <c r="N29">
-        <v>465640.511731673</v>
+        <v>532127.5584688272</v>
       </c>
       <c r="O29">
-        <v>536273</v>
+        <v>536309.8125</v>
       </c>
       <c r="P29">
-        <v>529394.1018403975</v>
+        <v>2150070.25</v>
       </c>
       <c r="Q29">
-        <v>1209941.25</v>
+        <v>20849006</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2408,46 +2408,46 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>673045.25</v>
+        <v>673043.6875</v>
       </c>
       <c r="E30">
-        <v>626191.1875</v>
+        <v>918895.75</v>
       </c>
       <c r="F30">
-        <v>918895.75</v>
+        <v>367873.9375</v>
       </c>
       <c r="G30">
-        <v>754081.375</v>
+        <v>758323.9375</v>
       </c>
       <c r="H30">
-        <v>595271.4375</v>
+        <v>423749.0625</v>
       </c>
       <c r="I30">
-        <v>497921.03125</v>
+        <v>366817.9375</v>
       </c>
       <c r="J30">
-        <v>548567.375</v>
+        <v>293448.75</v>
       </c>
       <c r="K30">
-        <v>548487.5625</v>
+        <v>388156.875</v>
       </c>
       <c r="L30">
-        <v>537411.625</v>
+        <v>458238.9069518155</v>
       </c>
       <c r="M30">
-        <v>477886.9049664501</v>
+        <v>437567.6105714286</v>
       </c>
       <c r="N30">
-        <v>473651.6258701002</v>
+        <v>432748.7032116181</v>
       </c>
       <c r="O30">
-        <v>482271.0625</v>
+        <v>431928.5625</v>
       </c>
       <c r="P30">
-        <v>480900.4202749293</v>
+        <v>2322319</v>
       </c>
       <c r="Q30">
-        <v>2795137.25</v>
+        <v>20424936</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2461,46 +2461,46 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>673045.0625</v>
+        <v>673041.25</v>
       </c>
       <c r="E31">
-        <v>625539.4375</v>
+        <v>933487.75</v>
       </c>
       <c r="F31">
-        <v>933487.75</v>
+        <v>291370.3125</v>
       </c>
       <c r="G31">
-        <v>579461.8125</v>
+        <v>582078.3125</v>
       </c>
       <c r="H31">
-        <v>585255.6875</v>
+        <v>340579.71875</v>
       </c>
       <c r="I31">
-        <v>485050.625</v>
+        <v>304984.8125</v>
       </c>
       <c r="J31">
-        <v>489841.6875</v>
+        <v>175615.0625</v>
       </c>
       <c r="K31">
-        <v>482973.375</v>
+        <v>339481.6875</v>
       </c>
       <c r="L31">
-        <v>486820.40625</v>
+        <v>482086.9557240944</v>
       </c>
       <c r="M31">
-        <v>459561.3529325396</v>
+        <v>507739.5357481962</v>
       </c>
       <c r="N31">
-        <v>448535.7885675267</v>
+        <v>507068.4433620722</v>
       </c>
       <c r="O31">
-        <v>458511.5</v>
+        <v>506478.625</v>
       </c>
       <c r="P31">
-        <v>457700.631475641</v>
+        <v>4398287</v>
       </c>
       <c r="Q31">
-        <v>-601686</v>
+        <v>19796386</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2514,46 +2514,46 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>673046.1875</v>
+        <v>673042.125</v>
       </c>
       <c r="E32">
-        <v>587074.375</v>
+        <v>927315.625</v>
       </c>
       <c r="F32">
-        <v>927315.625</v>
+        <v>432123.21875</v>
       </c>
       <c r="G32">
-        <v>748833.4375</v>
+        <v>748836.5625</v>
       </c>
       <c r="H32">
-        <v>682422.625</v>
+        <v>464268.28125</v>
       </c>
       <c r="I32">
-        <v>571348.5625</v>
+        <v>439333.8125</v>
       </c>
       <c r="J32">
-        <v>573182.375</v>
+        <v>343998.34375</v>
       </c>
       <c r="K32">
-        <v>605563.1875</v>
+        <v>411694</v>
       </c>
       <c r="L32">
-        <v>605181.375</v>
+        <v>534265.4827156698</v>
       </c>
       <c r="M32">
-        <v>514179.0804523809</v>
+        <v>566360.1571111111</v>
       </c>
       <c r="N32">
-        <v>517789.8788962789</v>
+        <v>567127.4697153691</v>
       </c>
       <c r="O32">
-        <v>511848.71875</v>
+        <v>566717.375</v>
       </c>
       <c r="P32">
-        <v>516854.3445779677</v>
+        <v>4194003</v>
       </c>
       <c r="Q32">
-        <v>1827340</v>
+        <v>19867116</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2567,46 +2567,46 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>673045.0625</v>
+        <v>673042.375</v>
       </c>
       <c r="E33">
-        <v>691324.1875</v>
+        <v>914967.4375</v>
       </c>
       <c r="F33">
-        <v>914967.4375</v>
+        <v>451010.15625</v>
       </c>
       <c r="G33">
-        <v>589112.125</v>
+        <v>589107.1875</v>
       </c>
       <c r="H33">
-        <v>657218.75</v>
+        <v>530616.875</v>
       </c>
       <c r="I33">
-        <v>548112.375</v>
+        <v>513397.375</v>
       </c>
       <c r="J33">
-        <v>555211.0625</v>
+        <v>408388.96875</v>
       </c>
       <c r="K33">
-        <v>559572.3125</v>
+        <v>493980.34375</v>
       </c>
       <c r="L33">
-        <v>581249.5</v>
+        <v>484619.8375782663</v>
       </c>
       <c r="M33">
-        <v>492754.232642857</v>
+        <v>502502.6361421357</v>
       </c>
       <c r="N33">
-        <v>474072.1487711122</v>
+        <v>500195.3240577955</v>
       </c>
       <c r="O33">
-        <v>491423.21875</v>
+        <v>500206.03125</v>
       </c>
       <c r="P33">
-        <v>492265.3428989198</v>
+        <v>6472980</v>
       </c>
       <c r="Q33">
-        <v>2629241</v>
+        <v>20416330</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2620,46 +2620,46 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>673086.9375</v>
+        <v>673042.1875</v>
       </c>
       <c r="E34">
-        <v>643324.75</v>
+        <v>940858.875</v>
       </c>
       <c r="F34">
-        <v>940858.875</v>
+        <v>360837.71875</v>
       </c>
       <c r="G34">
-        <v>561088.25</v>
+        <v>572830.875</v>
       </c>
       <c r="H34">
-        <v>684176.375</v>
+        <v>449562.8125</v>
       </c>
       <c r="I34">
-        <v>509900.625</v>
+        <v>404840.625</v>
       </c>
       <c r="J34">
-        <v>570456.75</v>
+        <v>213246.921875</v>
       </c>
       <c r="K34">
-        <v>543351.875</v>
+        <v>515093.1875</v>
       </c>
       <c r="L34">
-        <v>580655.625</v>
+        <v>435829.6047288198</v>
       </c>
       <c r="M34">
-        <v>439207.2495119045</v>
+        <v>434004.2910646123</v>
       </c>
       <c r="N34">
-        <v>439959.612117082</v>
+        <v>430355.8282574216</v>
       </c>
       <c r="O34">
-        <v>436618.8125</v>
+        <v>430057.75</v>
       </c>
       <c r="P34">
-        <v>437133.2190826302</v>
+        <v>10490070</v>
       </c>
       <c r="Q34">
-        <v>11393834</v>
+        <v>20673768</v>
       </c>
     </row>
   </sheetData>
@@ -2700,28 +2700,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>9266207651.418131</v>
+        <v>9741637815.572205</v>
       </c>
       <c r="C2">
-        <v>96261.14299871019</v>
+        <v>98699.73564084254</v>
       </c>
       <c r="D2">
-        <v>0.02852228730474827</v>
+        <v>0.02604296632590347</v>
       </c>
       <c r="E2">
-        <v>51924.45833333334</v>
+        <v>47520.95442708334</v>
       </c>
       <c r="F2">
-        <v>0.115372865315792</v>
+        <v>0.09752166114290045</v>
       </c>
       <c r="G2">
-        <v>21957.609375</v>
+        <v>20965.1875</v>
       </c>
       <c r="H2">
-        <v>0.06057703717241669</v>
+        <v>0.05620828142536533</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2729,51 +2729,51 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>10094228660.4091</v>
+        <v>9266207651.418131</v>
       </c>
       <c r="C3">
-        <v>100470.0386205216</v>
+        <v>96261.14299871019</v>
       </c>
       <c r="D3">
-        <v>0.02808880634037733</v>
+        <v>0.02852228730474827</v>
       </c>
       <c r="E3">
-        <v>52907.27864583334</v>
+        <v>51924.45833333334</v>
       </c>
       <c r="F3">
-        <v>0.1110047912164827</v>
+        <v>0.115372865315792</v>
       </c>
       <c r="G3">
-        <v>29306.03125</v>
+        <v>21957.609375</v>
       </c>
       <c r="H3">
-        <v>0.09255971155975584</v>
+        <v>0.06057703717241669</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>10566356575.52921</v>
+        <v>10088563383.23966</v>
       </c>
       <c r="C4">
-        <v>102792.7846472174</v>
+        <v>100441.8407997368</v>
       </c>
       <c r="D4">
-        <v>0.03216815722801797</v>
+        <v>0.02691753377424149</v>
       </c>
       <c r="E4">
-        <v>58734.98697916666</v>
+        <v>52136.8984375</v>
       </c>
       <c r="F4">
-        <v>0.1281965999605567</v>
+        <v>0.1092141923647477</v>
       </c>
       <c r="G4">
-        <v>31332.640625</v>
+        <v>24143.953125</v>
       </c>
       <c r="H4">
-        <v>0.09570101250405696</v>
+        <v>0.07293398668098139</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2781,155 +2781,155 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>12412487827.26245</v>
+        <v>10093463823.0568</v>
       </c>
       <c r="C5">
-        <v>111411.3451460957</v>
+        <v>100466.2322527167</v>
       </c>
       <c r="D5">
-        <v>0.03913532117930685</v>
+        <v>0.0280928138213464</v>
       </c>
       <c r="E5">
-        <v>66777.8828125</v>
+        <v>52902.92708333334</v>
       </c>
       <c r="F5">
-        <v>0.1491123118972151</v>
+        <v>0.1110135873257389</v>
       </c>
       <c r="G5">
-        <v>40284.75</v>
+        <v>29425.421875</v>
       </c>
       <c r="H5">
-        <v>0.1170855619202035</v>
+        <v>0.09293675515807746</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B6">
-        <v>23245743087.41453</v>
+        <v>9805054721.171875</v>
       </c>
       <c r="C6">
-        <v>152465.5472144921</v>
+        <v>99020.47627219268</v>
       </c>
       <c r="D6">
-        <v>0.09870793649991134</v>
+        <v>0.0284423965524131</v>
       </c>
       <c r="E6">
-        <v>122359.6888020833</v>
+        <v>52955.72395833334</v>
       </c>
       <c r="F6">
-        <v>0.297037048626537</v>
+        <v>0.1140509492487075</v>
       </c>
       <c r="G6">
-        <v>90436.859375</v>
+        <v>38351.90625</v>
       </c>
       <c r="H6">
-        <v>0.2639732603382391</v>
+        <v>0.1082820259590214</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>23193159339.99463</v>
+        <v>10637545631.36564</v>
       </c>
       <c r="C7">
-        <v>152293.0048951515</v>
+        <v>103138.4779379919</v>
       </c>
       <c r="D7">
-        <v>0.1031299069776962</v>
+        <v>0.03254178888923831</v>
       </c>
       <c r="E7">
-        <v>125099.0598958333</v>
+        <v>59230.9453125</v>
       </c>
       <c r="F7">
-        <v>0.3066219788641107</v>
+        <v>0.1295564211950013</v>
       </c>
       <c r="G7">
-        <v>104329.1953125</v>
+        <v>32385.125</v>
       </c>
       <c r="H7">
-        <v>0.2807126884823111</v>
+        <v>0.09889348530289332</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>22521391791.45998</v>
+        <v>11065706307.95599</v>
       </c>
       <c r="C8">
-        <v>150071.2890311134</v>
+        <v>105193.6609685013</v>
       </c>
       <c r="D8">
-        <v>0.1032155502327888</v>
+        <v>0.03447830204581107</v>
       </c>
       <c r="E8">
-        <v>124874.2643229167</v>
+        <v>61156.94921875</v>
       </c>
       <c r="F8">
-        <v>0.3075209952090542</v>
+        <v>0.1356106056737343</v>
       </c>
       <c r="G8">
-        <v>103057.1953125</v>
+        <v>47475.453125</v>
       </c>
       <c r="H8">
-        <v>0.2838956331749105</v>
+        <v>0.1382738847517262</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>26766205730.76475</v>
+        <v>11519519523.03223</v>
       </c>
       <c r="C9">
-        <v>163603.8072013141</v>
+        <v>107329.0246067308</v>
       </c>
       <c r="D9">
-        <v>0.120607986122464</v>
+        <v>0.03648461231657878</v>
       </c>
       <c r="E9">
-        <v>135221.87890625</v>
+        <v>68772.609375</v>
       </c>
       <c r="F9">
-        <v>0.3322481127887197</v>
+        <v>0.1554741908717037</v>
       </c>
       <c r="G9">
-        <v>111511.0078125</v>
+        <v>45908.265625</v>
       </c>
       <c r="H9">
-        <v>0.3037290594951333</v>
+        <v>0.1359189873390594</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>28842587011.20971</v>
+        <v>14904868884.98114</v>
       </c>
       <c r="C10">
-        <v>169831.0543193138</v>
+        <v>122085.4982583154</v>
       </c>
       <c r="D10">
-        <v>0.1253329235771702</v>
+        <v>0.06667935624893941</v>
       </c>
       <c r="E10">
-        <v>138326.1607595621</v>
+        <v>85912.72005208333</v>
       </c>
       <c r="F10">
-        <v>0.3361768766250448</v>
+        <v>0.2054549520518554</v>
       </c>
       <c r="G10">
-        <v>104460.5821019335</v>
+        <v>54304.4375</v>
       </c>
       <c r="H10">
-        <v>0.307661314361824</v>
+        <v>0.1627184750580566</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2937,129 +2937,129 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>29306386151.58251</v>
+        <v>31561113688.08141</v>
       </c>
       <c r="C11">
-        <v>171191.0808178467</v>
+        <v>177654.4783789066</v>
       </c>
       <c r="D11">
-        <v>0.1273225226048182</v>
+        <v>0.1376035740735295</v>
       </c>
       <c r="E11">
-        <v>139285.4587963602</v>
+        <v>144291.4525667747</v>
       </c>
       <c r="F11">
-        <v>0.3388519324376587</v>
+        <v>0.3510828552672616</v>
       </c>
       <c r="G11">
-        <v>109201.1917619081</v>
+        <v>113091.436191392</v>
       </c>
       <c r="H11">
-        <v>0.3060140656867487</v>
+        <v>0.3051416621048244</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>29477577914.68443</v>
+        <v>30356766800.84566</v>
       </c>
       <c r="C12">
-        <v>171690.3547514665</v>
+        <v>174231.9339295918</v>
       </c>
       <c r="D12">
-        <v>0.1289577478889782</v>
+        <v>0.1358281566532167</v>
       </c>
       <c r="E12">
-        <v>140219.80859375</v>
+        <v>143621.6911642748</v>
       </c>
       <c r="F12">
-        <v>0.3414691058572287</v>
+        <v>0.350899955646376</v>
       </c>
       <c r="G12">
-        <v>110510.078125</v>
+        <v>116274.2655191281</v>
       </c>
       <c r="H12">
-        <v>0.3061255561684103</v>
+        <v>0.3086341770007163</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>30404040273.59639</v>
+        <v>31792249952.18289</v>
       </c>
       <c r="C13">
-        <v>174367.5436358395</v>
+        <v>178303.8136220953</v>
       </c>
       <c r="D13">
-        <v>0.1317546610349994</v>
+        <v>0.1386132059823673</v>
       </c>
       <c r="E13">
-        <v>141425.7773300607</v>
+        <v>145100.0974205675</v>
       </c>
       <c r="F13">
-        <v>0.343997669474009</v>
+        <v>0.3533389048167919</v>
       </c>
       <c r="G13">
-        <v>110135.2504209188</v>
+        <v>117806.9565296519</v>
       </c>
       <c r="H13">
-        <v>0.3046446705057715</v>
+        <v>0.3148017252729943</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>27173187085.50026</v>
+        <v>32967220490.88015</v>
       </c>
       <c r="C14">
-        <v>164842.9163946703</v>
+        <v>181568.7762003152</v>
       </c>
       <c r="D14">
-        <v>0.1250507025276278</v>
+        <v>0.1446173896750442</v>
       </c>
       <c r="E14">
-        <v>137833.4283854167</v>
+        <v>147522.2825520833</v>
       </c>
       <c r="F14">
-        <v>0.3394313837204437</v>
+        <v>0.3595328457586519</v>
       </c>
       <c r="G14">
-        <v>117386.453125</v>
+        <v>116058.3828125</v>
       </c>
       <c r="H14">
-        <v>0.3171674318823937</v>
+        <v>0.3132016207422611</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>688191623663.0709</v>
+        <v>154733909868.3808</v>
       </c>
       <c r="C15">
-        <v>829573.1575111811</v>
+        <v>393362.3137368154</v>
       </c>
       <c r="D15">
-        <v>5.080715451868804</v>
+        <v>0.9999926448229974</v>
       </c>
       <c r="E15">
-        <v>740452.6891276041</v>
+        <v>382024.9048820634</v>
       </c>
       <c r="F15">
-        <v>2.013378858166059</v>
+        <v>0.9999963224041677</v>
       </c>
       <c r="G15">
-        <v>714019.546875</v>
+        <v>356207.655013144</v>
       </c>
       <c r="H15">
-        <v>2.167927119877323</v>
+        <v>0.9999962134577736</v>
       </c>
     </row>
   </sheetData>
@@ -3086,46 +3086,46 @@
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3139,46 +3139,46 @@
         <v>388460</v>
       </c>
       <c r="D2">
+        <v>383548.75</v>
+      </c>
+      <c r="E2">
         <v>365628.8125</v>
       </c>
-      <c r="E2">
-        <v>345926.34375</v>
-      </c>
       <c r="F2">
-        <v>382234.96875</v>
+        <v>357769.375</v>
       </c>
       <c r="G2">
-        <v>388640.65625</v>
+        <v>345928.65625</v>
       </c>
       <c r="H2">
-        <v>303523.96875</v>
+        <v>348832.03125</v>
       </c>
       <c r="I2">
-        <v>293778.28125</v>
+        <v>377809.75</v>
       </c>
       <c r="J2">
-        <v>305316.46875</v>
+        <v>377176.625</v>
       </c>
       <c r="K2">
-        <v>277692.8125</v>
+        <v>362721.1875</v>
       </c>
       <c r="L2">
-        <v>269076.5254444625</v>
+        <v>395237.90625</v>
       </c>
       <c r="M2">
-        <v>269501.3314104302</v>
+        <v>266028.349292957</v>
       </c>
       <c r="N2">
-        <v>269718.5625</v>
+        <v>265661.9775740852</v>
       </c>
       <c r="O2">
-        <v>268008.8517877738</v>
+        <v>263707.7297896523</v>
       </c>
       <c r="P2">
-        <v>268503.875</v>
+        <v>265650.03125</v>
       </c>
       <c r="Q2">
-        <v>-257687.1875</v>
+        <v>1.830281734466553</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3192,46 +3192,46 @@
         <v>673228</v>
       </c>
       <c r="D3">
+        <v>344602.25</v>
+      </c>
+      <c r="E3">
         <v>359793.28125</v>
       </c>
-      <c r="E3">
-        <v>345925.3125</v>
-      </c>
       <c r="F3">
-        <v>346578.1875</v>
+        <v>340299.28125</v>
       </c>
       <c r="G3">
-        <v>322022.4375</v>
+        <v>345922.46875</v>
       </c>
       <c r="H3">
-        <v>253598.984375</v>
+        <v>350481.4375</v>
       </c>
       <c r="I3">
-        <v>263396.5625</v>
+        <v>345876.8125</v>
       </c>
       <c r="J3">
-        <v>278176.09375</v>
+        <v>339427.4375</v>
       </c>
       <c r="K3">
-        <v>236399.6875</v>
+        <v>336018.25</v>
       </c>
       <c r="L3">
-        <v>217592.9810439757</v>
+        <v>361565.125</v>
       </c>
       <c r="M3">
-        <v>211859.4947380953</v>
+        <v>196664.8135528083</v>
       </c>
       <c r="N3">
-        <v>213023.4375</v>
+        <v>215125.6222230956</v>
       </c>
       <c r="O3">
-        <v>201710.328912553</v>
+        <v>192546.6077032165</v>
       </c>
       <c r="P3">
-        <v>241441.0625</v>
+        <v>186149.734375</v>
       </c>
       <c r="Q3">
-        <v>396180.15625</v>
+        <v>2.625623941421509</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3245,46 +3245,46 @@
         <v>345414</v>
       </c>
       <c r="D4">
+        <v>315865.9375</v>
+      </c>
+      <c r="E4">
         <v>366961.09375</v>
       </c>
-      <c r="E4">
-        <v>345921.625</v>
-      </c>
       <c r="F4">
-        <v>357394.78125</v>
+        <v>320275.25</v>
       </c>
       <c r="G4">
-        <v>414432.40625</v>
+        <v>345987.6875</v>
       </c>
       <c r="H4">
-        <v>262132.59375</v>
+        <v>354032.625</v>
       </c>
       <c r="I4">
-        <v>250254.890625</v>
+        <v>358072.875</v>
       </c>
       <c r="J4">
-        <v>251580.234375</v>
+        <v>320723.25</v>
       </c>
       <c r="K4">
-        <v>230793.234375</v>
+        <v>316511.75</v>
       </c>
       <c r="L4">
-        <v>249999.7013726862</v>
+        <v>323452.84375</v>
       </c>
       <c r="M4">
-        <v>250794.8324761838</v>
+        <v>243478.3597842151</v>
       </c>
       <c r="N4">
-        <v>250512.25</v>
+        <v>241864.2774313134</v>
       </c>
       <c r="O4">
-        <v>256013.1702456094</v>
+        <v>249833.4792374797</v>
       </c>
       <c r="P4">
-        <v>224071.5</v>
+        <v>241963.640625</v>
       </c>
       <c r="Q4">
-        <v>-320139.53125</v>
+        <v>1.486679792404175</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3298,46 +3298,46 @@
         <v>361238</v>
       </c>
       <c r="D5">
+        <v>322866.1875</v>
+      </c>
+      <c r="E5">
         <v>348469.71875</v>
       </c>
-      <c r="E5">
-        <v>345928.125</v>
-      </c>
       <c r="F5">
-        <v>352257.59375</v>
+        <v>319682.875</v>
       </c>
       <c r="G5">
-        <v>437860.90625</v>
+        <v>345995.71875</v>
       </c>
       <c r="H5">
-        <v>268933.53125</v>
+        <v>355395.53125</v>
       </c>
       <c r="I5">
-        <v>251394.15625</v>
+        <v>355169.71875</v>
       </c>
       <c r="J5">
-        <v>259185.078125</v>
+        <v>309296.46875</v>
       </c>
       <c r="K5">
-        <v>232769.484375</v>
+        <v>311180.15625</v>
       </c>
       <c r="L5">
-        <v>269076.5254444625</v>
+        <v>323072.15625</v>
       </c>
       <c r="M5">
-        <v>269501.3314104302</v>
+        <v>266028.349292957</v>
       </c>
       <c r="N5">
-        <v>269718.5625</v>
+        <v>265661.9775740852</v>
       </c>
       <c r="O5">
-        <v>268008.8517877738</v>
+        <v>263707.7297896523</v>
       </c>
       <c r="P5">
-        <v>224348.578125</v>
+        <v>265650.03125</v>
       </c>
       <c r="Q5">
-        <v>-518728.28125</v>
+        <v>1.860063314437866</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3351,46 +3351,46 @@
         <v>316512</v>
       </c>
       <c r="D6">
+        <v>256201.015625</v>
+      </c>
+      <c r="E6">
         <v>338880.125</v>
       </c>
-      <c r="E6">
-        <v>345926.21875</v>
-      </c>
       <c r="F6">
-        <v>278310.71875</v>
+        <v>268844.5</v>
       </c>
       <c r="G6">
-        <v>348257.71875</v>
+        <v>346010.21875</v>
       </c>
       <c r="H6">
-        <v>227942.75</v>
+        <v>353587.84375</v>
       </c>
       <c r="I6">
-        <v>214665.265625</v>
+        <v>277192.375</v>
       </c>
       <c r="J6">
-        <v>212450.53125</v>
+        <v>257699.453125</v>
       </c>
       <c r="K6">
-        <v>204257.171875</v>
+        <v>259385.59375</v>
       </c>
       <c r="L6">
-        <v>225140.7566741932</v>
+        <v>264672.3125</v>
       </c>
       <c r="M6">
-        <v>224996.4768436272</v>
+        <v>223233.6671974093</v>
       </c>
       <c r="N6">
-        <v>224853.75</v>
+        <v>223818.210810105</v>
       </c>
       <c r="O6">
-        <v>221806.5927983366</v>
+        <v>222046.616382478</v>
       </c>
       <c r="P6">
-        <v>202980.09375</v>
+        <v>223807.90625</v>
       </c>
       <c r="Q6">
-        <v>-445973.5625</v>
+        <v>1.01456880569458</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3404,46 +3404,46 @@
         <v>345989</v>
       </c>
       <c r="D7">
+        <v>348122.53125</v>
+      </c>
+      <c r="E7">
         <v>357670.3125</v>
       </c>
-      <c r="E7">
-        <v>345924.15625</v>
-      </c>
       <c r="F7">
-        <v>370453</v>
+        <v>334035.34375</v>
       </c>
       <c r="G7">
-        <v>379545.15625</v>
+        <v>346017.4375</v>
       </c>
       <c r="H7">
-        <v>261449.875</v>
+        <v>353200.5</v>
       </c>
       <c r="I7">
-        <v>269307.59375</v>
+        <v>371439.625</v>
       </c>
       <c r="J7">
-        <v>274333.3125</v>
+        <v>348904.09375</v>
       </c>
       <c r="K7">
-        <v>266611.4375</v>
+        <v>322442.1875</v>
       </c>
       <c r="L7">
-        <v>258826.279723022</v>
+        <v>312483.3125</v>
       </c>
       <c r="M7">
-        <v>252826.5778571428</v>
+        <v>247619.2591666667</v>
       </c>
       <c r="N7">
-        <v>251161.5625</v>
+        <v>223268.8620538969</v>
       </c>
       <c r="O7">
-        <v>251156.6699823079</v>
+        <v>250545.8092777032</v>
       </c>
       <c r="P7">
-        <v>264500.625</v>
+        <v>238643.3125</v>
       </c>
       <c r="Q7">
-        <v>-832810</v>
+        <v>1.27082896232605</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3457,46 +3457,46 @@
         <v>361270</v>
       </c>
       <c r="D8">
+        <v>382140.5</v>
+      </c>
+      <c r="E8">
         <v>377411.75</v>
       </c>
-      <c r="E8">
-        <v>345929.59375</v>
-      </c>
       <c r="F8">
-        <v>348753.59375</v>
+        <v>350269.28125</v>
       </c>
       <c r="G8">
-        <v>386346</v>
+        <v>346009.46875</v>
       </c>
       <c r="H8">
-        <v>264774.59375</v>
+        <v>355462.0625</v>
       </c>
       <c r="I8">
-        <v>254458.34375</v>
+        <v>351376.21875</v>
       </c>
       <c r="J8">
-        <v>244271.953125</v>
+        <v>360500.46875</v>
       </c>
       <c r="K8">
-        <v>258573.453125</v>
+        <v>318069.28125</v>
       </c>
       <c r="L8">
-        <v>249999.7013726862</v>
+        <v>343632.28125</v>
       </c>
       <c r="M8">
-        <v>250794.8324761838</v>
+        <v>243478.3597842151</v>
       </c>
       <c r="N8">
-        <v>250512.25</v>
+        <v>241864.2774313134</v>
       </c>
       <c r="O8">
-        <v>256013.1702456094</v>
+        <v>249833.4792374797</v>
       </c>
       <c r="P8">
-        <v>250197.46875</v>
+        <v>241963.640625</v>
       </c>
       <c r="Q8">
-        <v>-45460.44140625</v>
+        <v>1.139099717140198</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3510,46 +3510,46 @@
         <v>351180</v>
       </c>
       <c r="D9">
+        <v>356931.125</v>
+      </c>
+      <c r="E9">
         <v>387737.78125</v>
       </c>
-      <c r="E9">
-        <v>345926.9375</v>
-      </c>
       <c r="F9">
-        <v>426656.375</v>
+        <v>335904.4375</v>
       </c>
       <c r="G9">
-        <v>398193.34375</v>
+        <v>346003.5625</v>
       </c>
       <c r="H9">
-        <v>237995.359375</v>
+        <v>357862.8125</v>
       </c>
       <c r="I9">
-        <v>237971.53125</v>
+        <v>427051.59375</v>
       </c>
       <c r="J9">
-        <v>235663.140625</v>
+        <v>332167.875</v>
       </c>
       <c r="K9">
-        <v>240735.03125</v>
+        <v>302564.1875</v>
       </c>
       <c r="L9">
-        <v>225140.7566741932</v>
+        <v>294410.8125</v>
       </c>
       <c r="M9">
-        <v>224996.4768436272</v>
+        <v>223233.6671974093</v>
       </c>
       <c r="N9">
-        <v>224853.75</v>
+        <v>223818.210810105</v>
       </c>
       <c r="O9">
-        <v>221806.5927983366</v>
+        <v>222046.616382478</v>
       </c>
       <c r="P9">
-        <v>236363.21875</v>
+        <v>223807.90625</v>
       </c>
       <c r="Q9">
-        <v>-785692.125</v>
+        <v>0.8299103975296021</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3563,46 +3563,46 @@
         <v>407266</v>
       </c>
       <c r="D10">
+        <v>386206.125</v>
+      </c>
+      <c r="E10">
         <v>394494.6875</v>
       </c>
-      <c r="E10">
-        <v>345927.84375</v>
-      </c>
       <c r="F10">
-        <v>470419.75</v>
+        <v>384332.4375</v>
       </c>
       <c r="G10">
-        <v>431034.4375</v>
+        <v>346017.0625</v>
       </c>
       <c r="H10">
-        <v>286924.5625</v>
+        <v>360613.25</v>
       </c>
       <c r="I10">
-        <v>294178.4375</v>
+        <v>472652.75</v>
       </c>
       <c r="J10">
-        <v>293675.65625</v>
+        <v>353197.28125</v>
       </c>
       <c r="K10">
-        <v>283246.375</v>
+        <v>334006.125</v>
       </c>
       <c r="L10">
-        <v>265339.1956912755</v>
+        <v>317736.5</v>
       </c>
       <c r="M10">
-        <v>271477.0915919497</v>
+        <v>292353.2815457875</v>
       </c>
       <c r="N10">
-        <v>263978.59375</v>
+        <v>294123.1915304305</v>
       </c>
       <c r="O10">
-        <v>268008.8517877738</v>
+        <v>263707.7297896523</v>
       </c>
       <c r="P10">
-        <v>287039.53125</v>
+        <v>294455.59375</v>
       </c>
       <c r="Q10">
-        <v>-944780.5</v>
+        <v>1.222635507583618</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3616,46 +3616,46 @@
         <v>304207</v>
       </c>
       <c r="D11">
+        <v>303850.46875</v>
+      </c>
+      <c r="E11">
         <v>380981.25</v>
       </c>
-      <c r="E11">
-        <v>345925.15625</v>
-      </c>
       <c r="F11">
-        <v>288739.59375</v>
+        <v>295799.0625</v>
       </c>
       <c r="G11">
-        <v>351464.46875</v>
+        <v>346077.4375</v>
       </c>
       <c r="H11">
-        <v>228321.109375</v>
+        <v>362333.5625</v>
       </c>
       <c r="I11">
-        <v>225460.734375</v>
+        <v>287163.5625</v>
       </c>
       <c r="J11">
-        <v>225242.59375</v>
+        <v>255110.46875</v>
       </c>
       <c r="K11">
-        <v>212050.34375</v>
+        <v>263625.0625</v>
       </c>
       <c r="L11">
-        <v>225140.7566741932</v>
+        <v>225033.609375</v>
       </c>
       <c r="M11">
-        <v>224996.4768436272</v>
+        <v>223233.6671974093</v>
       </c>
       <c r="N11">
-        <v>224853.75</v>
+        <v>223818.210810105</v>
       </c>
       <c r="O11">
-        <v>221806.5927983366</v>
+        <v>222046.616382478</v>
       </c>
       <c r="P11">
-        <v>216421.09375</v>
+        <v>223807.90625</v>
       </c>
       <c r="Q11">
-        <v>145761.234375</v>
+        <v>0.4494853019714355</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3669,46 +3669,46 @@
         <v>316724</v>
       </c>
       <c r="D12">
+        <v>299416.0625</v>
+      </c>
+      <c r="E12">
         <v>372280.28125</v>
       </c>
-      <c r="E12">
-        <v>345921.84375</v>
-      </c>
       <c r="F12">
-        <v>267880.6875</v>
+        <v>293574.84375</v>
       </c>
       <c r="G12">
-        <v>304843.90625</v>
+        <v>346076.625</v>
       </c>
       <c r="H12">
-        <v>234107.8125</v>
+        <v>360545.46875</v>
       </c>
       <c r="I12">
-        <v>232573.609375</v>
+        <v>267079.96875</v>
       </c>
       <c r="J12">
-        <v>226368.203125</v>
+        <v>270869.625</v>
       </c>
       <c r="K12">
-        <v>229613.921875</v>
+        <v>287587.65625</v>
       </c>
       <c r="L12">
-        <v>219073.1344234468</v>
+        <v>207894.9375</v>
       </c>
       <c r="M12">
-        <v>208796.784</v>
+        <v>205453.8460714286</v>
       </c>
       <c r="N12">
-        <v>206461.59375</v>
+        <v>221341.4965673899</v>
       </c>
       <c r="O12">
-        <v>201710.328912553</v>
+        <v>192546.6077032165</v>
       </c>
       <c r="P12">
-        <v>236010.0625</v>
+        <v>187843.078125</v>
       </c>
       <c r="Q12">
-        <v>-37125.21875</v>
+        <v>1.26038134098053</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3722,46 +3722,46 @@
         <v>412828</v>
       </c>
       <c r="D13">
+        <v>371823.90625</v>
+      </c>
+      <c r="E13">
         <v>392166.59375</v>
       </c>
-      <c r="E13">
-        <v>345921.1875</v>
-      </c>
       <c r="F13">
-        <v>339966.71875</v>
+        <v>357886.53125</v>
       </c>
       <c r="G13">
-        <v>328818.15625</v>
+        <v>346081.34375</v>
       </c>
       <c r="H13">
-        <v>286294.59375</v>
+        <v>359573.8125</v>
       </c>
       <c r="I13">
-        <v>295687.875</v>
+        <v>341395.09375</v>
       </c>
       <c r="J13">
-        <v>279561.5625</v>
+        <v>331189.75</v>
       </c>
       <c r="K13">
-        <v>288910.5</v>
+        <v>344933.25</v>
       </c>
       <c r="L13">
-        <v>249995.7563466582</v>
+        <v>197727.375</v>
       </c>
       <c r="M13">
-        <v>252348.787952381</v>
+        <v>222012.9491154401</v>
       </c>
       <c r="N13">
-        <v>252030.234375</v>
+        <v>220489.3912127776</v>
       </c>
       <c r="O13">
-        <v>251156.6699823079</v>
+        <v>250545.8092777032</v>
       </c>
       <c r="P13">
-        <v>278437.75</v>
+        <v>220305.828125</v>
       </c>
       <c r="Q13">
-        <v>-654660.8125</v>
+        <v>2.151856422424316</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3775,46 +3775,46 @@
         <v>0</v>
       </c>
       <c r="D14">
+        <v>331675.8125</v>
+      </c>
+      <c r="E14">
         <v>397983.21875</v>
       </c>
-      <c r="E14">
-        <v>345922.3125</v>
-      </c>
       <c r="F14">
-        <v>351587.3125</v>
+        <v>328366.25</v>
       </c>
       <c r="G14">
-        <v>399355.75</v>
+        <v>346075.96875</v>
       </c>
       <c r="H14">
-        <v>244989.3125</v>
+        <v>362881.8125</v>
       </c>
       <c r="I14">
-        <v>256267.984375</v>
+        <v>351227.6875</v>
       </c>
       <c r="J14">
-        <v>246344.125</v>
+        <v>278186.21875</v>
       </c>
       <c r="K14">
-        <v>250467.671875</v>
+        <v>250563.4375</v>
       </c>
       <c r="L14">
-        <v>225140.7566741932</v>
+        <v>124352.34375</v>
       </c>
       <c r="M14">
-        <v>224996.4768436272</v>
+        <v>223233.6671974093</v>
       </c>
       <c r="N14">
-        <v>224853.75</v>
+        <v>223818.210810105</v>
       </c>
       <c r="O14">
-        <v>221806.5927983366</v>
+        <v>222046.616382478</v>
       </c>
       <c r="P14">
-        <v>240202.984375</v>
+        <v>223807.90625</v>
       </c>
       <c r="Q14">
-        <v>369655.09375</v>
+        <v>1.497841835021973</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -3828,46 +3828,46 @@
         <v>0</v>
       </c>
       <c r="D15">
+        <v>323070.96875</v>
+      </c>
+      <c r="E15">
         <v>419213.5625</v>
       </c>
-      <c r="E15">
-        <v>345925.15625</v>
-      </c>
       <c r="F15">
-        <v>300878.46875</v>
+        <v>311237.09375</v>
       </c>
       <c r="G15">
-        <v>350781.8125</v>
+        <v>346073.90625</v>
       </c>
       <c r="H15">
-        <v>268905.53125</v>
+        <v>366102.6875</v>
       </c>
       <c r="I15">
-        <v>266437.53125</v>
+        <v>301151.125</v>
       </c>
       <c r="J15">
-        <v>267993.53125</v>
+        <v>197685.296875</v>
       </c>
       <c r="K15">
-        <v>280203.21875</v>
+        <v>247357.40625</v>
       </c>
       <c r="L15">
-        <v>216003.6216563118</v>
+        <v>114528.9921875</v>
       </c>
       <c r="M15">
-        <v>209125.3040555555</v>
+        <v>179011.2313095238</v>
       </c>
       <c r="N15">
-        <v>197913.671875</v>
+        <v>172552.4904334924</v>
       </c>
       <c r="O15">
-        <v>235660.831656053</v>
+        <v>237145.0816073501</v>
       </c>
       <c r="P15">
-        <v>267172.28125</v>
+        <v>172125.53125</v>
       </c>
       <c r="Q15">
-        <v>-382892.34375</v>
+        <v>0.5564308166503906</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -3881,46 +3881,46 @@
         <v>0</v>
       </c>
       <c r="D16">
+        <v>302604.5625</v>
+      </c>
+      <c r="E16">
         <v>425513.40625</v>
       </c>
-      <c r="E16">
-        <v>345924.1875</v>
-      </c>
       <c r="F16">
-        <v>310487.65625</v>
+        <v>276659.78125</v>
       </c>
       <c r="G16">
-        <v>402812.625</v>
+        <v>346074.40625</v>
       </c>
       <c r="H16">
-        <v>262417.125</v>
+        <v>367843.34375</v>
       </c>
       <c r="I16">
-        <v>263669.34375</v>
+        <v>308800.6875</v>
       </c>
       <c r="J16">
-        <v>254873.0625</v>
+        <v>223976.828125</v>
       </c>
       <c r="K16">
-        <v>262436.84375</v>
+        <v>192180.96875</v>
       </c>
       <c r="L16">
-        <v>269076.5254444625</v>
+        <v>176761.21875</v>
       </c>
       <c r="M16">
-        <v>269501.3314104302</v>
+        <v>266028.349292957</v>
       </c>
       <c r="N16">
-        <v>269718.5625</v>
+        <v>265661.9775740852</v>
       </c>
       <c r="O16">
-        <v>268008.8517877738</v>
+        <v>263707.7297896523</v>
       </c>
       <c r="P16">
-        <v>246257.984375</v>
+        <v>265650.03125</v>
       </c>
       <c r="Q16">
-        <v>650076.9375</v>
+        <v>1.669612288475037</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -3934,46 +3934,46 @@
         <v>0</v>
       </c>
       <c r="D17">
+        <v>262556.25</v>
+      </c>
+      <c r="E17">
         <v>412672.65625</v>
       </c>
-      <c r="E17">
-        <v>345930</v>
-      </c>
       <c r="F17">
-        <v>277683.46875</v>
+        <v>251892.0625</v>
       </c>
       <c r="G17">
-        <v>309860.875</v>
+        <v>346078.625</v>
       </c>
       <c r="H17">
-        <v>229429.3125</v>
+        <v>369508.125</v>
       </c>
       <c r="I17">
-        <v>227341.3125</v>
+        <v>278785.84375</v>
       </c>
       <c r="J17">
-        <v>237277.34375</v>
+        <v>176776.953125</v>
       </c>
       <c r="K17">
-        <v>230785.4375</v>
+        <v>153884.453125</v>
       </c>
       <c r="L17">
-        <v>225140.7566741932</v>
+        <v>146102.4375</v>
       </c>
       <c r="M17">
-        <v>224996.4768436272</v>
+        <v>223233.6671974093</v>
       </c>
       <c r="N17">
-        <v>224853.75</v>
+        <v>223818.210810105</v>
       </c>
       <c r="O17">
-        <v>221806.5927983366</v>
+        <v>222046.616382478</v>
       </c>
       <c r="P17">
-        <v>224805.921875</v>
+        <v>223807.90625</v>
       </c>
       <c r="Q17">
-        <v>63031.99609375</v>
+        <v>1.996146559715271</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -3987,46 +3987,46 @@
         <v>0</v>
       </c>
       <c r="D18">
+        <v>320479.09375</v>
+      </c>
+      <c r="E18">
         <v>405053</v>
       </c>
-      <c r="E18">
-        <v>345920.25</v>
-      </c>
       <c r="F18">
-        <v>213938.015625</v>
+        <v>285856.875</v>
       </c>
       <c r="G18">
-        <v>417680.125</v>
+        <v>346074.0625</v>
       </c>
       <c r="H18">
-        <v>266152.1875</v>
+        <v>369729.84375</v>
       </c>
       <c r="I18">
-        <v>257317.53125</v>
+        <v>212473.671875</v>
       </c>
       <c r="J18">
-        <v>266444.0625</v>
+        <v>191488.96875</v>
       </c>
       <c r="K18">
-        <v>269801.8125</v>
+        <v>195269.4375</v>
       </c>
       <c r="L18">
-        <v>269076.5254444625</v>
+        <v>189987.984375</v>
       </c>
       <c r="M18">
-        <v>269501.3314104302</v>
+        <v>266028.349292957</v>
       </c>
       <c r="N18">
-        <v>269718.5625</v>
+        <v>265661.9775740852</v>
       </c>
       <c r="O18">
-        <v>268008.8517877738</v>
+        <v>263707.7297896523</v>
       </c>
       <c r="P18">
-        <v>274207.65625</v>
+        <v>265650.03125</v>
       </c>
       <c r="Q18">
-        <v>-15276.6943359375</v>
+        <v>1.529350280761719</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4040,46 +4040,46 @@
         <v>0</v>
       </c>
       <c r="D19">
+        <v>280625.03125</v>
+      </c>
+      <c r="E19">
         <v>415028.03125</v>
       </c>
-      <c r="E19">
-        <v>345926.875</v>
-      </c>
       <c r="F19">
-        <v>247953.828125</v>
+        <v>280093.53125</v>
       </c>
       <c r="G19">
-        <v>322566.25</v>
+        <v>346075.375</v>
       </c>
       <c r="H19">
-        <v>239394.296875</v>
+        <v>369916.34375</v>
       </c>
       <c r="I19">
-        <v>264931</v>
+        <v>248837.671875</v>
       </c>
       <c r="J19">
-        <v>253904.6875</v>
+        <v>186371.046875</v>
       </c>
       <c r="K19">
-        <v>254969.125</v>
+        <v>162802.78125</v>
       </c>
       <c r="L19">
-        <v>249999.7013726862</v>
+        <v>150752.96875</v>
       </c>
       <c r="M19">
-        <v>250794.8324761838</v>
+        <v>243478.3597842151</v>
       </c>
       <c r="N19">
-        <v>250512.25</v>
+        <v>241864.2774313134</v>
       </c>
       <c r="O19">
-        <v>256013.1702456094</v>
+        <v>249833.4792374797</v>
       </c>
       <c r="P19">
-        <v>254653.015625</v>
+        <v>241963.640625</v>
       </c>
       <c r="Q19">
-        <v>585043.875</v>
+        <v>1.761868238449097</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4093,46 +4093,46 @@
         <v>0</v>
       </c>
       <c r="D20">
+        <v>260022.640625</v>
+      </c>
+      <c r="E20">
         <v>426171.78125</v>
       </c>
-      <c r="E20">
-        <v>345923.40625</v>
-      </c>
       <c r="F20">
-        <v>300864.6875</v>
+        <v>251189.671875</v>
       </c>
       <c r="G20">
-        <v>287778.3125</v>
+        <v>346079.5625</v>
       </c>
       <c r="H20">
-        <v>211712.71875</v>
+        <v>372155.8125</v>
       </c>
       <c r="I20">
-        <v>225910.828125</v>
+        <v>299450.8125</v>
       </c>
       <c r="J20">
-        <v>232933.90625</v>
+        <v>168164.15625</v>
       </c>
       <c r="K20">
-        <v>243677.90625</v>
+        <v>168315.75</v>
       </c>
       <c r="L20">
-        <v>225140.7566741932</v>
+        <v>152697.515625</v>
       </c>
       <c r="M20">
-        <v>224996.4768436272</v>
+        <v>223233.6671974093</v>
       </c>
       <c r="N20">
-        <v>224853.75</v>
+        <v>223818.210810105</v>
       </c>
       <c r="O20">
-        <v>221806.5927983366</v>
+        <v>222046.616382478</v>
       </c>
       <c r="P20">
-        <v>242210.984375</v>
+        <v>223807.90625</v>
       </c>
       <c r="Q20">
-        <v>-169845.140625</v>
+        <v>0.5458574295043945</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4146,46 +4146,46 @@
         <v>0</v>
       </c>
       <c r="D21">
+        <v>347016.46875</v>
+      </c>
+      <c r="E21">
         <v>445933.40625</v>
       </c>
-      <c r="E21">
-        <v>345924.625</v>
-      </c>
       <c r="F21">
-        <v>243338.765625</v>
+        <v>304250.0625</v>
       </c>
       <c r="G21">
-        <v>376898.21875</v>
+        <v>346067.6875</v>
       </c>
       <c r="H21">
-        <v>261705.046875</v>
+        <v>374457.15625</v>
       </c>
       <c r="I21">
-        <v>285008.9375</v>
+        <v>242367.046875</v>
       </c>
       <c r="J21">
-        <v>287693.96875</v>
+        <v>208529.890625</v>
       </c>
       <c r="K21">
-        <v>296534.5</v>
+        <v>217841.6875</v>
       </c>
       <c r="L21">
-        <v>269076.5254444625</v>
+        <v>195675</v>
       </c>
       <c r="M21">
-        <v>269501.3314104302</v>
+        <v>266028.349292957</v>
       </c>
       <c r="N21">
-        <v>269718.5625</v>
+        <v>265661.9775740852</v>
       </c>
       <c r="O21">
-        <v>268008.8517877738</v>
+        <v>263707.7297896523</v>
       </c>
       <c r="P21">
-        <v>301026.9375</v>
+        <v>265650.03125</v>
       </c>
       <c r="Q21">
-        <v>365269.75</v>
+        <v>2.940791845321655</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4199,46 +4199,46 @@
         <v>0</v>
       </c>
       <c r="D22">
+        <v>308594.8125</v>
+      </c>
+      <c r="E22">
         <v>457654.5625</v>
       </c>
-      <c r="E22">
-        <v>345925.25</v>
-      </c>
       <c r="F22">
-        <v>377557.25</v>
+        <v>299622.6875</v>
       </c>
       <c r="G22">
-        <v>435754.59375</v>
+        <v>346081.5625</v>
       </c>
       <c r="H22">
-        <v>258980.359375</v>
+        <v>376836.8125</v>
       </c>
       <c r="I22">
-        <v>275815.25</v>
+        <v>375915.8125</v>
       </c>
       <c r="J22">
-        <v>275769.65625</v>
+        <v>211381.9375</v>
       </c>
       <c r="K22">
-        <v>284551.3125</v>
+        <v>189858.8125</v>
       </c>
       <c r="L22">
-        <v>249999.7013726862</v>
+        <v>167107.015625</v>
       </c>
       <c r="M22">
-        <v>250794.8324761838</v>
+        <v>243478.3597842151</v>
       </c>
       <c r="N22">
-        <v>250512.25</v>
+        <v>241864.2774313134</v>
       </c>
       <c r="O22">
-        <v>256013.1702456094</v>
+        <v>249833.4792374797</v>
       </c>
       <c r="P22">
-        <v>280858.5</v>
+        <v>241963.640625</v>
       </c>
       <c r="Q22">
-        <v>1211495.5</v>
+        <v>1.641404151916504</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4252,46 +4252,46 @@
         <v>0</v>
       </c>
       <c r="D23">
+        <v>234918.140625</v>
+      </c>
+      <c r="E23">
         <v>449305.125</v>
       </c>
-      <c r="E23">
-        <v>345920.9375</v>
-      </c>
       <c r="F23">
-        <v>251955.59375</v>
+        <v>191123.234375</v>
       </c>
       <c r="G23">
-        <v>400864.25</v>
+        <v>346079.21875</v>
       </c>
       <c r="H23">
-        <v>252211.671875</v>
+        <v>379251.875</v>
       </c>
       <c r="I23">
-        <v>252708.4375</v>
+        <v>251445.109375</v>
       </c>
       <c r="J23">
-        <v>239733.328125</v>
+        <v>154245.3125</v>
       </c>
       <c r="K23">
-        <v>253228.90625</v>
+        <v>136164.078125</v>
       </c>
       <c r="L23">
-        <v>249999.7013726862</v>
+        <v>170927.171875</v>
       </c>
       <c r="M23">
-        <v>250794.8324761838</v>
+        <v>243478.3597842151</v>
       </c>
       <c r="N23">
-        <v>250512.25</v>
+        <v>241864.2774313134</v>
       </c>
       <c r="O23">
-        <v>256013.1702456094</v>
+        <v>249833.4792374797</v>
       </c>
       <c r="P23">
-        <v>236929.484375</v>
+        <v>241963.640625</v>
       </c>
       <c r="Q23">
-        <v>189127.015625</v>
+        <v>0.3833122253417969</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4305,46 +4305,46 @@
         <v>0</v>
       </c>
       <c r="D24">
+        <v>182446.75</v>
+      </c>
+      <c r="E24">
         <v>453446.28125</v>
       </c>
-      <c r="E24">
-        <v>345927.1875</v>
-      </c>
       <c r="F24">
-        <v>343098.6875</v>
+        <v>162604.34375</v>
       </c>
       <c r="G24">
-        <v>348464.75</v>
+        <v>346078.21875</v>
       </c>
       <c r="H24">
-        <v>224880.25</v>
+        <v>378770.1875</v>
       </c>
       <c r="I24">
-        <v>221616.375</v>
+        <v>343380.53125</v>
       </c>
       <c r="J24">
-        <v>218302.46875</v>
+        <v>146177.15625</v>
       </c>
       <c r="K24">
-        <v>233368.640625</v>
+        <v>91610.34375</v>
       </c>
       <c r="L24">
-        <v>225140.7566741932</v>
+        <v>180552.78125</v>
       </c>
       <c r="M24">
-        <v>224996.4768436272</v>
+        <v>223233.6671974093</v>
       </c>
       <c r="N24">
-        <v>224853.75</v>
+        <v>223818.210810105</v>
       </c>
       <c r="O24">
-        <v>221806.5927983366</v>
+        <v>222046.616382478</v>
       </c>
       <c r="P24">
-        <v>231582.359375</v>
+        <v>223807.90625</v>
       </c>
       <c r="Q24">
-        <v>-518254.15625</v>
+        <v>2.440515518188477</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4358,46 +4358,46 @@
         <v>0</v>
       </c>
       <c r="D25">
+        <v>232150</v>
+      </c>
+      <c r="E25">
         <v>458085.8125</v>
       </c>
-      <c r="E25">
-        <v>345942.8125</v>
-      </c>
       <c r="F25">
-        <v>362600.15625</v>
+        <v>172560.25</v>
       </c>
       <c r="G25">
-        <v>365845.375</v>
+        <v>346081.15625</v>
       </c>
       <c r="H25">
-        <v>266633.96875</v>
+        <v>377772.90625</v>
       </c>
       <c r="I25">
-        <v>269636.71875</v>
+        <v>357470.1875</v>
       </c>
       <c r="J25">
-        <v>271961.8125</v>
+        <v>148812.609375</v>
       </c>
       <c r="K25">
-        <v>283509.5</v>
+        <v>125540.421875</v>
       </c>
       <c r="L25">
-        <v>240109.1843315729</v>
+        <v>179473.640625</v>
       </c>
       <c r="M25">
-        <v>238409.8973095238</v>
+        <v>264534.4663993785</v>
       </c>
       <c r="N25">
-        <v>237979.734375</v>
+        <v>264113.5497269701</v>
       </c>
       <c r="O25">
-        <v>251156.6699823079</v>
+        <v>250545.8092777032</v>
       </c>
       <c r="P25">
-        <v>272128.65625</v>
+        <v>264125.71875</v>
       </c>
       <c r="Q25">
-        <v>-130421.578125</v>
+        <v>1.855769038200378</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4411,46 +4411,46 @@
         <v>0</v>
       </c>
       <c r="D26">
+        <v>269586.21875</v>
+      </c>
+      <c r="E26">
         <v>467337.125</v>
       </c>
-      <c r="E26">
-        <v>345956.53125</v>
-      </c>
       <c r="F26">
-        <v>345281.6875</v>
+        <v>199888.46875</v>
       </c>
       <c r="G26">
-        <v>341561.09375</v>
+        <v>346073.78125</v>
       </c>
       <c r="H26">
-        <v>230137.5</v>
+        <v>378322.5</v>
       </c>
       <c r="I26">
-        <v>254246.40625</v>
+        <v>344638.09375</v>
       </c>
       <c r="J26">
-        <v>244420.890625</v>
+        <v>166385.34375</v>
       </c>
       <c r="K26">
-        <v>259433.5</v>
+        <v>149043.71875</v>
       </c>
       <c r="L26">
-        <v>225140.7566741932</v>
+        <v>215415.78125</v>
       </c>
       <c r="M26">
-        <v>224996.4768436272</v>
+        <v>223233.6671974093</v>
       </c>
       <c r="N26">
-        <v>224853.75</v>
+        <v>223818.210810105</v>
       </c>
       <c r="O26">
-        <v>221806.5927983366</v>
+        <v>222046.616382478</v>
       </c>
       <c r="P26">
-        <v>263802.78125</v>
+        <v>223807.90625</v>
       </c>
       <c r="Q26">
-        <v>731563</v>
+        <v>1.012062788009644</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4464,46 +4464,46 @@
         <v>0</v>
       </c>
       <c r="D27">
+        <v>289512.34375</v>
+      </c>
+      <c r="E27">
         <v>483639.34375</v>
       </c>
-      <c r="E27">
-        <v>345956.78125</v>
-      </c>
       <c r="F27">
-        <v>426259.375</v>
+        <v>247641.5625</v>
       </c>
       <c r="G27">
-        <v>283380.03125</v>
+        <v>346081.0625</v>
       </c>
       <c r="H27">
-        <v>254639.09375</v>
+        <v>379310.625</v>
       </c>
       <c r="I27">
-        <v>270091.78125</v>
+        <v>430319.28125</v>
       </c>
       <c r="J27">
-        <v>277614.25</v>
+        <v>222550.71875</v>
       </c>
       <c r="K27">
-        <v>296444.5625</v>
+        <v>225632.609375</v>
       </c>
       <c r="L27">
-        <v>269076.5254444625</v>
+        <v>230837.234375</v>
       </c>
       <c r="M27">
-        <v>269501.3314104302</v>
+        <v>266028.349292957</v>
       </c>
       <c r="N27">
-        <v>269718.5625</v>
+        <v>265661.9775740852</v>
       </c>
       <c r="O27">
-        <v>268008.8517877738</v>
+        <v>263707.7297896523</v>
       </c>
       <c r="P27">
-        <v>294140.09375</v>
+        <v>265650.03125</v>
       </c>
       <c r="Q27">
-        <v>255034.453125</v>
+        <v>5.39445161819458</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4517,46 +4517,46 @@
         <v>0</v>
       </c>
       <c r="D28">
+        <v>253006.9375</v>
+      </c>
+      <c r="E28">
         <v>483007.375</v>
       </c>
-      <c r="E28">
-        <v>345963.3125</v>
-      </c>
       <c r="F28">
-        <v>286193.34375</v>
+        <v>218311.671875</v>
       </c>
       <c r="G28">
-        <v>342284.5625</v>
+        <v>346083.71875</v>
       </c>
       <c r="H28">
-        <v>241374.703125</v>
+        <v>383039.71875</v>
       </c>
       <c r="I28">
-        <v>260253.40625</v>
+        <v>283096.28125</v>
       </c>
       <c r="J28">
-        <v>257696.03125</v>
+        <v>223560.90625</v>
       </c>
       <c r="K28">
-        <v>274664.0625</v>
+        <v>194248.90625</v>
       </c>
       <c r="L28">
-        <v>216003.6216563118</v>
+        <v>251708.078125</v>
       </c>
       <c r="M28">
-        <v>209125.3040555555</v>
+        <v>179011.2313095238</v>
       </c>
       <c r="N28">
-        <v>197913.671875</v>
+        <v>172552.4904334924</v>
       </c>
       <c r="O28">
-        <v>235660.831656053</v>
+        <v>237145.0816073501</v>
       </c>
       <c r="P28">
-        <v>274770.46875</v>
+        <v>172125.53125</v>
       </c>
       <c r="Q28">
-        <v>-213763.484375</v>
+        <v>5.9512939453125</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4570,46 +4570,46 @@
         <v>0</v>
       </c>
       <c r="D29">
+        <v>199286.734375</v>
+      </c>
+      <c r="E29">
         <v>475186.0625</v>
       </c>
-      <c r="E29">
-        <v>346061.75</v>
-      </c>
       <c r="F29">
-        <v>385274.4375</v>
+        <v>164521.75</v>
       </c>
       <c r="G29">
-        <v>315541</v>
+        <v>346083.0625</v>
       </c>
       <c r="H29">
-        <v>237287.171875</v>
+        <v>387820.9375</v>
       </c>
       <c r="I29">
-        <v>251112.21875</v>
+        <v>380469.875</v>
       </c>
       <c r="J29">
-        <v>246398.90625</v>
+        <v>198954.21875</v>
       </c>
       <c r="K29">
-        <v>263617.625</v>
+        <v>196598.25</v>
       </c>
       <c r="L29">
-        <v>225140.7566741932</v>
+        <v>239606.234375</v>
       </c>
       <c r="M29">
-        <v>224996.4768436272</v>
+        <v>223233.6671974093</v>
       </c>
       <c r="N29">
-        <v>224853.75</v>
+        <v>223818.210810105</v>
       </c>
       <c r="O29">
-        <v>221806.5927983366</v>
+        <v>222046.616382478</v>
       </c>
       <c r="P29">
-        <v>263576.03125</v>
+        <v>223807.90625</v>
       </c>
       <c r="Q29">
-        <v>934816.0625</v>
+        <v>7.955775260925293</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4623,46 +4623,46 @@
         <v>0</v>
       </c>
       <c r="D30">
+        <v>251894.9375</v>
+      </c>
+      <c r="E30">
         <v>481966.34375</v>
       </c>
-      <c r="E30">
-        <v>346062.125</v>
-      </c>
       <c r="F30">
-        <v>398479.6875</v>
+        <v>215921.96875</v>
       </c>
       <c r="G30">
-        <v>253258.828125</v>
+        <v>346082.75</v>
       </c>
       <c r="H30">
-        <v>278708.46875</v>
+        <v>388310.90625</v>
       </c>
       <c r="I30">
-        <v>286280.28125</v>
+        <v>400501.8125</v>
       </c>
       <c r="J30">
-        <v>288095.03125</v>
+        <v>245431.09375</v>
       </c>
       <c r="K30">
-        <v>296233.65625</v>
+        <v>227908.5625</v>
       </c>
       <c r="L30">
-        <v>249995.7563466582</v>
+        <v>248619.265625</v>
       </c>
       <c r="M30">
-        <v>252348.787952381</v>
+        <v>222012.9491154401</v>
       </c>
       <c r="N30">
-        <v>252030.234375</v>
+        <v>220489.3912127776</v>
       </c>
       <c r="O30">
-        <v>251156.6699823079</v>
+        <v>250545.8092777032</v>
       </c>
       <c r="P30">
-        <v>308709.5625</v>
+        <v>220305.828125</v>
       </c>
       <c r="Q30">
-        <v>-1122029.25</v>
+        <v>10.57774066925049</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4676,46 +4676,46 @@
         <v>0</v>
       </c>
       <c r="D31">
+        <v>112048.4453125</v>
+      </c>
+      <c r="E31">
         <v>483679.21875</v>
       </c>
-      <c r="E31">
-        <v>346074</v>
-      </c>
       <c r="F31">
-        <v>260903.828125</v>
+        <v>110742.1796875</v>
       </c>
       <c r="G31">
-        <v>292382.15625</v>
+        <v>346078.59375</v>
       </c>
       <c r="H31">
-        <v>225419.375</v>
+        <v>386558.9375</v>
       </c>
       <c r="I31">
-        <v>218303.5</v>
+        <v>260248.234375</v>
       </c>
       <c r="J31">
-        <v>226222.453125</v>
+        <v>148117.296875</v>
       </c>
       <c r="K31">
-        <v>229144.046875</v>
+        <v>153357.75</v>
       </c>
       <c r="L31">
-        <v>225140.7566741932</v>
+        <v>220489.703125</v>
       </c>
       <c r="M31">
-        <v>224996.4768436272</v>
+        <v>223233.6671974093</v>
       </c>
       <c r="N31">
-        <v>224853.75</v>
+        <v>223818.210810105</v>
       </c>
       <c r="O31">
-        <v>221806.5927983366</v>
+        <v>222046.616382478</v>
       </c>
       <c r="P31">
-        <v>230693.5625</v>
+        <v>223807.90625</v>
       </c>
       <c r="Q31">
-        <v>-269391.75</v>
+        <v>11.77068710327148</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4729,46 +4729,46 @@
         <v>0</v>
       </c>
       <c r="D32">
+        <v>197409.375</v>
+      </c>
+      <c r="E32">
         <v>491309.96875</v>
       </c>
-      <c r="E32">
-        <v>346073.4375</v>
-      </c>
       <c r="F32">
-        <v>360267.8125</v>
+        <v>195791.75</v>
       </c>
       <c r="G32">
-        <v>276642.5</v>
+        <v>346074.875</v>
       </c>
       <c r="H32">
-        <v>246204.5</v>
+        <v>388655.9375</v>
       </c>
       <c r="I32">
-        <v>261831.921875</v>
+        <v>363715.65625</v>
       </c>
       <c r="J32">
-        <v>255494.890625</v>
+        <v>231961.609375</v>
       </c>
       <c r="K32">
-        <v>276841.8125</v>
+        <v>218053.84375</v>
       </c>
       <c r="L32">
-        <v>254966.6804541716</v>
+        <v>261064.625</v>
       </c>
       <c r="M32">
-        <v>250651.943</v>
+        <v>282665.5711071429</v>
       </c>
       <c r="N32">
-        <v>259578.46875</v>
+        <v>278833.1603784073</v>
       </c>
       <c r="O32">
-        <v>235660.831656053</v>
+        <v>237145.0816073501</v>
       </c>
       <c r="P32">
-        <v>274364.59375</v>
+        <v>279698.5625</v>
       </c>
       <c r="Q32">
-        <v>131251.9375</v>
+        <v>14.98306179046631</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4782,46 +4782,46 @@
         <v>0</v>
       </c>
       <c r="D33">
+        <v>230112.921875</v>
+      </c>
+      <c r="E33">
         <v>489890.03125</v>
       </c>
-      <c r="E33">
-        <v>346068.3125</v>
-      </c>
       <c r="F33">
-        <v>309515.75</v>
+        <v>239666.78125</v>
       </c>
       <c r="G33">
-        <v>290730.4375</v>
+        <v>346076.46875</v>
       </c>
       <c r="H33">
-        <v>287763.9375</v>
+        <v>393341.0625</v>
       </c>
       <c r="I33">
-        <v>297678.34375</v>
+        <v>309125.96875</v>
       </c>
       <c r="J33">
-        <v>293690.09375</v>
+        <v>289280.4375</v>
       </c>
       <c r="K33">
-        <v>314984.375</v>
+        <v>263201.78125</v>
       </c>
       <c r="L33">
-        <v>269076.5254444625</v>
+        <v>299522.3125</v>
       </c>
       <c r="M33">
-        <v>269501.3314104302</v>
+        <v>266028.349292957</v>
       </c>
       <c r="N33">
-        <v>269718.5625</v>
+        <v>265661.9775740852</v>
       </c>
       <c r="O33">
-        <v>268008.8517877738</v>
+        <v>263707.7297896523</v>
       </c>
       <c r="P33">
-        <v>327273.0625</v>
+        <v>265650.03125</v>
       </c>
       <c r="Q33">
-        <v>401941.5625</v>
+        <v>31.12874221801758</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -4835,46 +4835,46 @@
         <v>0</v>
       </c>
       <c r="D34">
+        <v>157945.765625</v>
+      </c>
+      <c r="E34">
         <v>499760.78125</v>
       </c>
-      <c r="E34">
-        <v>346068.6875</v>
-      </c>
       <c r="F34">
-        <v>291067.71875</v>
+        <v>184892.40625</v>
       </c>
       <c r="G34">
-        <v>350707.15625</v>
+        <v>346173.5625</v>
       </c>
       <c r="H34">
-        <v>241962.796875</v>
+        <v>395597.46875</v>
       </c>
       <c r="I34">
-        <v>260368.296875</v>
+        <v>293895.15625</v>
       </c>
       <c r="J34">
-        <v>255413.71875</v>
+        <v>250134.84375</v>
       </c>
       <c r="K34">
-        <v>288025.21875</v>
+        <v>232568.4375</v>
       </c>
       <c r="L34">
-        <v>225140.7566741932</v>
+        <v>307376.40625</v>
       </c>
       <c r="M34">
-        <v>224996.4768436272</v>
+        <v>223233.6671974093</v>
       </c>
       <c r="N34">
-        <v>224853.75</v>
+        <v>223818.210810105</v>
       </c>
       <c r="O34">
-        <v>221806.5927983366</v>
+        <v>222046.616382478</v>
       </c>
       <c r="P34">
-        <v>284810.75</v>
+        <v>223807.90625</v>
       </c>
       <c r="Q34">
-        <v>9051775</v>
+        <v>82.98126983642578</v>
       </c>
     </row>
   </sheetData>
@@ -4918,311 +4918,311 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>16667025821.99512</v>
+        <v>14257291326.24701</v>
       </c>
       <c r="C2">
-        <v>129100.8358686927</v>
+        <v>119403.8999624678</v>
       </c>
       <c r="D2">
-        <v>0.03784867901182235</v>
+        <v>0.02978186060121943</v>
       </c>
       <c r="E2">
-        <v>58953.29166666666</v>
+        <v>53533.98307291666</v>
       </c>
       <c r="F2">
-        <v>0.1222171835710149</v>
+        <v>0.1061664762840846</v>
       </c>
       <c r="G2">
-        <v>23210.703125</v>
+        <v>20560.03125</v>
       </c>
       <c r="H2">
-        <v>0.07435256386158945</v>
+        <v>0.05803735786157981</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>16192780541.76497</v>
+        <v>13986373508.47603</v>
       </c>
       <c r="C3">
-        <v>127250.8567427543</v>
+        <v>118263.9992071807</v>
       </c>
       <c r="D3">
-        <v>0.03339329656721503</v>
+        <v>0.03081422992416933</v>
       </c>
       <c r="E3">
-        <v>58032.484375</v>
+        <v>56635.13541666666</v>
       </c>
       <c r="F3">
-        <v>0.1166000700160792</v>
+        <v>0.1163634899113805</v>
       </c>
       <c r="G3">
-        <v>26375.484375</v>
+        <v>25079.15625</v>
       </c>
       <c r="H3">
-        <v>0.08144722681866573</v>
+        <v>0.07075126224612274</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>17787509045.66016</v>
+        <v>16667025821.99512</v>
       </c>
       <c r="C4">
-        <v>133369.8205954412</v>
+        <v>129100.8358686927</v>
       </c>
       <c r="D4">
-        <v>0.04115046238403786</v>
+        <v>0.03784867901182235</v>
       </c>
       <c r="E4">
-        <v>67210.265625</v>
+        <v>58953.29166666666</v>
       </c>
       <c r="F4">
-        <v>0.140140154943635</v>
+        <v>0.1222171835710149</v>
       </c>
       <c r="G4">
-        <v>37009.390625</v>
+        <v>23210.703125</v>
       </c>
       <c r="H4">
-        <v>0.1130949273836395</v>
+        <v>0.07435256386158945</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>22628619716.59705</v>
+        <v>16191723411.60579</v>
       </c>
       <c r="C5">
-        <v>150428.1214287975</v>
+        <v>127246.7029498438</v>
       </c>
       <c r="D5">
-        <v>0.07794958981705356</v>
+        <v>0.03339429276986251</v>
       </c>
       <c r="E5">
-        <v>105799.4765625</v>
+        <v>58017.203125</v>
       </c>
       <c r="F5">
-        <v>0.2577408750184461</v>
+        <v>0.1165700678482408</v>
       </c>
       <c r="G5">
-        <v>71909.5625</v>
+        <v>26365.03125</v>
       </c>
       <c r="H5">
-        <v>0.2226093564610711</v>
+        <v>0.08132240224954185</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>24040207007.16376</v>
+        <v>13608558877.40806</v>
       </c>
       <c r="C6">
-        <v>155049.0471017599</v>
+        <v>116655.7280094212</v>
       </c>
       <c r="D6">
-        <v>0.08700629234310682</v>
+        <v>0.03276688187129719</v>
       </c>
       <c r="E6">
-        <v>111992.3294270833</v>
+        <v>58254.34505208334</v>
       </c>
       <c r="F6">
-        <v>0.276148920301935</v>
+        <v>0.1225565179367704</v>
       </c>
       <c r="G6">
-        <v>80097.53125</v>
+        <v>24239.71875</v>
       </c>
       <c r="H6">
-        <v>0.242637302439911</v>
+        <v>0.07990673233970172</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>25131101654.41494</v>
+        <v>17965548969.52262</v>
       </c>
       <c r="C7">
-        <v>158527.9207408428</v>
+        <v>134035.6257474953</v>
       </c>
       <c r="D7">
-        <v>0.09351814292485709</v>
+        <v>0.04133509020382066</v>
       </c>
       <c r="E7">
-        <v>115963.0481770833</v>
+        <v>67488.34375</v>
       </c>
       <c r="F7">
-        <v>0.2875989524884797</v>
+        <v>0.1406291783961377</v>
       </c>
       <c r="G7">
-        <v>82269.921875</v>
+        <v>36233.921875</v>
       </c>
       <c r="H7">
-        <v>0.2530410567113223</v>
+        <v>0.1101121868351106</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>26722565950.24886</v>
+        <v>16133971311.44751</v>
       </c>
       <c r="C8">
-        <v>163470.3824863968</v>
+        <v>127019.5705844084</v>
       </c>
       <c r="D8">
-        <v>0.1018118721378792</v>
+        <v>0.0396399726945661</v>
       </c>
       <c r="E8">
-        <v>121178.28125</v>
+        <v>68697.24739583333</v>
       </c>
       <c r="F8">
-        <v>0.3019002892780547</v>
+        <v>0.1499659553350826</v>
       </c>
       <c r="G8">
-        <v>87616.4921875</v>
+        <v>39300.453125</v>
       </c>
       <c r="H8">
-        <v>0.2672038232641201</v>
+        <v>0.1172902657027459</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>29538724522.34319</v>
+        <v>21876359370.14728</v>
       </c>
       <c r="C9">
-        <v>171868.334844855</v>
+        <v>147906.5900159532</v>
       </c>
       <c r="D9">
-        <v>0.1096491342163013</v>
+        <v>0.1012965074935683</v>
       </c>
       <c r="E9">
-        <v>124877.6462883973</v>
+        <v>110161.1028645833</v>
       </c>
       <c r="F9">
-        <v>0.309482838302441</v>
+        <v>0.2783440457153226</v>
       </c>
       <c r="G9">
-        <v>93841.28611249787</v>
+        <v>80922.6015625</v>
       </c>
       <c r="H9">
-        <v>0.2806423476495845</v>
+        <v>0.2444875682348798</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>29538905616.55379</v>
+        <v>29225901856.13674</v>
       </c>
       <c r="C10">
-        <v>171868.8616839996</v>
+        <v>170955.8476804369</v>
       </c>
       <c r="D10">
-        <v>0.1128415032070568</v>
+        <v>0.1116901310690557</v>
       </c>
       <c r="E10">
-        <v>127372.1783235584</v>
+        <v>126623.4813257758</v>
       </c>
       <c r="F10">
-        <v>0.3174979292169581</v>
+        <v>0.315438154459811</v>
       </c>
       <c r="G10">
-        <v>90070.33564586611</v>
+        <v>89602.19305495163</v>
       </c>
       <c r="H10">
-        <v>0.2810085489547047</v>
+        <v>0.2807568088809922</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>30176655747.9543</v>
+        <v>29869502460.62517</v>
       </c>
       <c r="C11">
-        <v>173714.2934474717</v>
+        <v>172827.9562473189</v>
       </c>
       <c r="D11">
-        <v>0.1109609766650653</v>
+        <v>0.1130563675262416</v>
       </c>
       <c r="E11">
-        <v>125115.7682291667</v>
+        <v>127433.7498154411</v>
       </c>
       <c r="F11">
-        <v>0.3092613355967164</v>
+        <v>0.3170976413704724</v>
       </c>
       <c r="G11">
-        <v>92125.703125</v>
+        <v>91660.50048316388</v>
       </c>
       <c r="H11">
-        <v>0.2922133494849292</v>
+        <v>0.2819671818490973</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>30534292450.49829</v>
+        <v>30289826855.35545</v>
       </c>
       <c r="C12">
-        <v>174740.6433846983</v>
+        <v>174039.7278076343</v>
       </c>
       <c r="D12">
-        <v>0.1144377162180635</v>
+        <v>0.1154181925970402</v>
       </c>
       <c r="E12">
-        <v>127536.3593973146</v>
+        <v>128779.1263020833</v>
       </c>
       <c r="F12">
-        <v>0.3161305410515834</v>
+        <v>0.3207549050287484</v>
       </c>
       <c r="G12">
-        <v>97051.33098265619</v>
+        <v>93658.3828125</v>
       </c>
       <c r="H12">
-        <v>0.2997407303932252</v>
+        <v>0.2926346257409405</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>31054015191.47725</v>
+        <v>30378625626.8037</v>
       </c>
       <c r="C13">
-        <v>176221.4946919849</v>
+        <v>174294.6517446926</v>
       </c>
       <c r="D13">
-        <v>0.1283314551155677</v>
+        <v>0.1161443491391933</v>
       </c>
       <c r="E13">
-        <v>135529.8411458333</v>
+        <v>129247.929977819</v>
       </c>
       <c r="F13">
-        <v>0.3430332033742409</v>
+        <v>0.3220774436784985</v>
       </c>
       <c r="G13">
-        <v>106781.5234375</v>
+        <v>93620.52974917072</v>
       </c>
       <c r="H13">
-        <v>0.3212147801298885</v>
+        <v>0.2926043126743852</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -5230,51 +5230,51 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>1573654268350.403</v>
+        <v>33361792172.60736</v>
       </c>
       <c r="C14">
-        <v>1254453.772902933</v>
+        <v>182652.1069481744</v>
       </c>
       <c r="D14">
-        <v>12.32187203826498</v>
+        <v>0.1799504864124754</v>
       </c>
       <c r="E14">
-        <v>1096879.584147135</v>
+        <v>132501.04296875</v>
       </c>
       <c r="F14">
-        <v>3.088561650131189</v>
+        <v>0.3450794674262814</v>
       </c>
       <c r="G14">
-        <v>887048.59375</v>
+        <v>88280.6484375</v>
       </c>
       <c r="H14">
-        <v>2.734611725308968</v>
+        <v>0.277178721025957</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>37080634240838.29</v>
+        <v>255113569410.4734</v>
       </c>
       <c r="C15">
-        <v>6089387.016838253</v>
+        <v>505087.6848731053</v>
       </c>
       <c r="D15">
-        <v>345.1127878938096</v>
+        <v>2.414888371297498</v>
       </c>
       <c r="E15">
-        <v>6031466.666666667</v>
+        <v>447127.3255208333</v>
       </c>
       <c r="F15">
-        <v>18.04001067056007</v>
+        <v>1.32596013991492</v>
       </c>
       <c r="G15">
-        <v>6000154</v>
+        <v>406413.11328125</v>
       </c>
       <c r="H15">
-        <v>18.89174787138501</v>
+        <v>1.168557366478693</v>
       </c>
     </row>
   </sheetData>
@@ -5304,43 +5304,43 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -5354,46 +5354,46 @@
         <v>300188</v>
       </c>
       <c r="D2">
+        <v>255066.8125</v>
+      </c>
+      <c r="E2">
+        <v>258204.984375</v>
+      </c>
+      <c r="F2">
         <v>336350.46875</v>
       </c>
-      <c r="E2">
-        <v>327116.03125</v>
-      </c>
-      <c r="F2">
-        <v>334931.5</v>
-      </c>
       <c r="G2">
-        <v>241529.0625</v>
+        <v>327124.875</v>
       </c>
       <c r="H2">
-        <v>230914.734375</v>
+        <v>275237.28125</v>
       </c>
       <c r="I2">
-        <v>224139.015625</v>
+        <v>331841.28125</v>
       </c>
       <c r="J2">
-        <v>218153.96875</v>
+        <v>245462.25</v>
       </c>
       <c r="K2">
-        <v>206605.5523825948</v>
+        <v>260958.734375</v>
       </c>
       <c r="L2">
-        <v>208740.5287281458</v>
+        <v>215382.3491335835</v>
       </c>
       <c r="M2">
-        <v>206030.15625</v>
+        <v>214188.6755549273</v>
       </c>
       <c r="N2">
-        <v>206010.1296036187</v>
+        <v>214523.15625</v>
       </c>
       <c r="O2">
-        <v>194163.34375</v>
+        <v>214514.6294047169</v>
       </c>
       <c r="P2">
-        <v>-637728.5625</v>
+        <v>210430.640625</v>
       </c>
       <c r="Q2">
-        <v>5234932.5</v>
+        <v>394213.09375</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -5407,46 +5407,46 @@
         <v>759214</v>
       </c>
       <c r="D3">
+        <v>354381.5625</v>
+      </c>
+      <c r="E3">
+        <v>361644.875</v>
+      </c>
+      <c r="F3">
         <v>324614.84375</v>
       </c>
-      <c r="E3">
-        <v>327115.90625</v>
-      </c>
-      <c r="F3">
-        <v>315867.84375</v>
-      </c>
       <c r="G3">
-        <v>301762.8125</v>
+        <v>327125.71875</v>
       </c>
       <c r="H3">
-        <v>293940.5</v>
+        <v>373303.15625</v>
       </c>
       <c r="I3">
-        <v>287373.8125</v>
+        <v>313247.3125</v>
       </c>
       <c r="J3">
-        <v>276891.78125</v>
+        <v>340019.0625</v>
       </c>
       <c r="K3">
-        <v>246195.8753924094</v>
+        <v>361149.46875</v>
       </c>
       <c r="L3">
-        <v>252475.7159441512</v>
+        <v>255582.4786912849</v>
       </c>
       <c r="M3">
-        <v>238998.59375</v>
+        <v>247692.2515082695</v>
       </c>
       <c r="N3">
-        <v>240371.208431069</v>
+        <v>245551.265625</v>
       </c>
       <c r="O3">
-        <v>253899.609375</v>
+        <v>245601.1954657663</v>
       </c>
       <c r="P3">
-        <v>-1195369.25</v>
+        <v>284321.4375</v>
       </c>
       <c r="Q3">
-        <v>5409557</v>
+        <v>266168.03125</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -5460,46 +5460,46 @@
         <v>322925</v>
       </c>
       <c r="D4">
+        <v>282878.3125</v>
+      </c>
+      <c r="E4">
+        <v>281499.53125</v>
+      </c>
+      <c r="F4">
         <v>322657.03125</v>
       </c>
-      <c r="E4">
-        <v>327116.09375</v>
-      </c>
-      <c r="F4">
-        <v>310465.125</v>
-      </c>
       <c r="G4">
-        <v>256123.015625</v>
+        <v>327143.46875</v>
       </c>
       <c r="H4">
-        <v>238328.765625</v>
+        <v>283075.6875</v>
       </c>
       <c r="I4">
-        <v>224777.3125</v>
+        <v>310320.40625</v>
       </c>
       <c r="J4">
-        <v>224092.6875</v>
+        <v>258252.5</v>
       </c>
       <c r="K4">
-        <v>225073.7919642617</v>
+        <v>275902.8125</v>
       </c>
       <c r="L4">
-        <v>234231.799980122</v>
+        <v>232419.5567606252</v>
       </c>
       <c r="M4">
-        <v>223030.078125</v>
+        <v>234779.5311215729</v>
       </c>
       <c r="N4">
-        <v>221976.8969816017</v>
+        <v>237476.171875</v>
       </c>
       <c r="O4">
-        <v>208387.4375</v>
+        <v>237469.1976780728</v>
       </c>
       <c r="P4">
-        <v>2358057.75</v>
+        <v>441955.90625</v>
       </c>
       <c r="Q4">
-        <v>5594878.5</v>
+        <v>-270002.5625</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -5513,46 +5513,46 @@
         <v>290216</v>
       </c>
       <c r="D5">
+        <v>290052.5</v>
+      </c>
+      <c r="E5">
+        <v>304253.1875</v>
+      </c>
+      <c r="F5">
         <v>331815.15625</v>
       </c>
-      <c r="E5">
-        <v>327115.96875</v>
-      </c>
-      <c r="F5">
-        <v>316182.21875</v>
-      </c>
       <c r="G5">
-        <v>236073.28125</v>
+        <v>327139.90625</v>
       </c>
       <c r="H5">
-        <v>225720.296875</v>
+        <v>293235.5625</v>
       </c>
       <c r="I5">
-        <v>221664.453125</v>
+        <v>314504.53125</v>
       </c>
       <c r="J5">
-        <v>216436.84375</v>
+        <v>283332.40625</v>
       </c>
       <c r="K5">
-        <v>214838.7594792851</v>
+        <v>276384.96875</v>
       </c>
       <c r="L5">
-        <v>215243.8463127145</v>
+        <v>223471.9748003703</v>
       </c>
       <c r="M5">
-        <v>216493.46875</v>
+        <v>223259.5449853126</v>
       </c>
       <c r="N5">
-        <v>216755.2480394328</v>
+        <v>224373.4375</v>
       </c>
       <c r="O5">
-        <v>200391.078125</v>
+        <v>224373.5672948709</v>
       </c>
       <c r="P5">
-        <v>657569.75</v>
+        <v>507873.25</v>
       </c>
       <c r="Q5">
-        <v>5790886</v>
+        <v>-689488.3125</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -5566,46 +5566,46 @@
         <v>352939</v>
       </c>
       <c r="D6">
+        <v>332302.75</v>
+      </c>
+      <c r="E6">
+        <v>331817</v>
+      </c>
+      <c r="F6">
         <v>339548.71875</v>
       </c>
-      <c r="E6">
-        <v>327116.0625</v>
-      </c>
-      <c r="F6">
-        <v>301825.15625</v>
-      </c>
       <c r="G6">
-        <v>269315.21875</v>
+        <v>327145.8125</v>
       </c>
       <c r="H6">
-        <v>263349.21875</v>
+        <v>345423.40625</v>
       </c>
       <c r="I6">
-        <v>265935.28125</v>
+        <v>303904.8125</v>
       </c>
       <c r="J6">
-        <v>251585.3125</v>
+        <v>318391.96875</v>
       </c>
       <c r="K6">
-        <v>246195.8753924094</v>
+        <v>306178.125</v>
       </c>
       <c r="L6">
-        <v>252475.7159441512</v>
+        <v>255582.4786912849</v>
       </c>
       <c r="M6">
-        <v>238998.59375</v>
+        <v>247692.2515082695</v>
       </c>
       <c r="N6">
-        <v>240371.208431069</v>
+        <v>245551.265625</v>
       </c>
       <c r="O6">
-        <v>238839.53125</v>
+        <v>245601.1954657663</v>
       </c>
       <c r="P6">
-        <v>829447.5625</v>
+        <v>439742.9375</v>
       </c>
       <c r="Q6">
-        <v>5997581</v>
+        <v>-416272.78125</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -5619,46 +5619,46 @@
         <v>302097</v>
       </c>
       <c r="D7">
+        <v>295059.75</v>
+      </c>
+      <c r="E7">
+        <v>303008.84375</v>
+      </c>
+      <c r="F7">
         <v>334038.40625</v>
       </c>
-      <c r="E7">
-        <v>327116.09375</v>
-      </c>
-      <c r="F7">
-        <v>301549.59375</v>
-      </c>
       <c r="G7">
-        <v>235941.21875</v>
+        <v>327141.90625</v>
       </c>
       <c r="H7">
-        <v>236850.515625</v>
+        <v>297383.46875</v>
       </c>
       <c r="I7">
-        <v>227050.21875</v>
+        <v>297320.5625</v>
       </c>
       <c r="J7">
-        <v>227212.09375</v>
+        <v>277685.375</v>
       </c>
       <c r="K7">
-        <v>251075.2591145778</v>
+        <v>236411.5</v>
       </c>
       <c r="L7">
-        <v>226905.9721477449</v>
+        <v>218078.0571294716</v>
       </c>
       <c r="M7">
-        <v>253412.15625</v>
+        <v>218280.3446190477</v>
       </c>
       <c r="N7">
-        <v>254632.3162619048</v>
+        <v>211498.53125</v>
       </c>
       <c r="O7">
-        <v>206813.171875</v>
+        <v>211525.4272933951</v>
       </c>
       <c r="P7">
-        <v>-16519.259765625</v>
+        <v>379238.5625</v>
       </c>
       <c r="Q7">
-        <v>6214959.5</v>
+        <v>-86025.0703125</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -5672,46 +5672,46 @@
         <v>355591</v>
       </c>
       <c r="D8">
+        <v>335107.1875</v>
+      </c>
+      <c r="E8">
+        <v>326554.6875</v>
+      </c>
+      <c r="F8">
         <v>343469.6875</v>
       </c>
-      <c r="E8">
-        <v>327116.5625</v>
-      </c>
-      <c r="F8">
-        <v>316315.71875</v>
-      </c>
       <c r="G8">
-        <v>260900.21875</v>
+        <v>327235.71875</v>
       </c>
       <c r="H8">
-        <v>257360.265625</v>
+        <v>334559.875</v>
       </c>
       <c r="I8">
-        <v>254366.59375</v>
+        <v>314776.4375</v>
       </c>
       <c r="J8">
-        <v>247958.75</v>
+        <v>308770.875</v>
       </c>
       <c r="K8">
-        <v>257552.6561345471</v>
+        <v>285244.21875</v>
       </c>
       <c r="L8">
-        <v>252475.7159441512</v>
+        <v>255582.4786912849</v>
       </c>
       <c r="M8">
-        <v>265497.4375</v>
+        <v>264873.7475254027</v>
       </c>
       <c r="N8">
-        <v>246836.8155674603</v>
+        <v>260086.609375</v>
       </c>
       <c r="O8">
-        <v>229820.828125</v>
+        <v>254287.3304891611</v>
       </c>
       <c r="P8">
-        <v>-1375266.625</v>
+        <v>333294.125</v>
       </c>
       <c r="Q8">
-        <v>6443036.5</v>
+        <v>-51622.453125</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -5725,46 +5725,46 @@
         <v>336957</v>
       </c>
       <c r="D9">
+        <v>319145.40625</v>
+      </c>
+      <c r="E9">
+        <v>316885.875</v>
+      </c>
+      <c r="F9">
         <v>351437</v>
       </c>
-      <c r="E9">
-        <v>327116.78125</v>
-      </c>
-      <c r="F9">
-        <v>361156.71875</v>
-      </c>
       <c r="G9">
-        <v>262854.375</v>
+        <v>327230.5625</v>
       </c>
       <c r="H9">
-        <v>256161.140625</v>
+        <v>330117.78125</v>
       </c>
       <c r="I9">
-        <v>247252.203125</v>
+        <v>362533.09375</v>
       </c>
       <c r="J9">
-        <v>250586.234375</v>
+        <v>302280.0625</v>
       </c>
       <c r="K9">
-        <v>221033.1178238934</v>
+        <v>245458.578125</v>
       </c>
       <c r="L9">
-        <v>225151.5483159544</v>
+        <v>221477.4084778201</v>
       </c>
       <c r="M9">
-        <v>217316.75</v>
+        <v>220348.8742818095</v>
       </c>
       <c r="N9">
-        <v>217729.7177901111</v>
+        <v>220269.015625</v>
       </c>
       <c r="O9">
-        <v>229418.609375</v>
+        <v>220288.3724800288</v>
       </c>
       <c r="P9">
-        <v>1963298</v>
+        <v>341620.34375</v>
       </c>
       <c r="Q9">
-        <v>6681785</v>
+        <v>609338.25</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -5778,46 +5778,46 @@
         <v>306777</v>
       </c>
       <c r="D10">
+        <v>315837.90625</v>
+      </c>
+      <c r="E10">
+        <v>299612.625</v>
+      </c>
+      <c r="F10">
         <v>345921.875</v>
       </c>
-      <c r="E10">
-        <v>327116.84375</v>
-      </c>
-      <c r="F10">
-        <v>371578.625</v>
-      </c>
       <c r="G10">
-        <v>237060.5</v>
+        <v>327233.8125</v>
       </c>
       <c r="H10">
-        <v>235904.828125</v>
+        <v>283248.28125</v>
       </c>
       <c r="I10">
-        <v>229240.875</v>
+        <v>373408.90625</v>
       </c>
       <c r="J10">
-        <v>226878.265625</v>
+        <v>293414.75</v>
       </c>
       <c r="K10">
-        <v>225898.602114362</v>
+        <v>212529.125</v>
       </c>
       <c r="L10">
-        <v>226905.9721477449</v>
+        <v>218078.0571294716</v>
       </c>
       <c r="M10">
-        <v>228585.640625</v>
+        <v>214165.7515869408</v>
       </c>
       <c r="N10">
-        <v>228137.7746785714</v>
+        <v>214204.96875</v>
       </c>
       <c r="O10">
-        <v>227110.703125</v>
+        <v>214230.7450358922</v>
       </c>
       <c r="P10">
-        <v>1815324.75</v>
+        <v>488634.375</v>
       </c>
       <c r="Q10">
-        <v>6931236</v>
+        <v>52669.921875</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -5831,46 +5831,46 @@
         <v>340296</v>
       </c>
       <c r="D11">
+        <v>315231.28125</v>
+      </c>
+      <c r="E11">
+        <v>324628.125</v>
+      </c>
+      <c r="F11">
         <v>345709.875</v>
       </c>
-      <c r="E11">
-        <v>327117.0625</v>
-      </c>
-      <c r="F11">
-        <v>297610.34375</v>
-      </c>
       <c r="G11">
-        <v>263626.78125</v>
+        <v>327232.59375</v>
       </c>
       <c r="H11">
-        <v>260896.796875</v>
+        <v>281246.8125</v>
       </c>
       <c r="I11">
-        <v>264241.84375</v>
+        <v>299010.65625</v>
       </c>
       <c r="J11">
-        <v>251433.78125</v>
+        <v>293638.5625</v>
       </c>
       <c r="K11">
-        <v>246195.8753924094</v>
+        <v>171589.859375</v>
       </c>
       <c r="L11">
-        <v>252475.7159441512</v>
+        <v>255582.4786912849</v>
       </c>
       <c r="M11">
-        <v>238998.59375</v>
+        <v>247692.2515082695</v>
       </c>
       <c r="N11">
-        <v>240371.208431069</v>
+        <v>245551.265625</v>
       </c>
       <c r="O11">
-        <v>245405.1875</v>
+        <v>245601.1954657663</v>
       </c>
       <c r="P11">
-        <v>917038.375</v>
+        <v>571793.1875</v>
       </c>
       <c r="Q11">
-        <v>7191371.5</v>
+        <v>-65316.7734375</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -5884,46 +5884,46 @@
         <v>362459</v>
       </c>
       <c r="D12">
+        <v>348135.1875</v>
+      </c>
+      <c r="E12">
+        <v>318293.78125</v>
+      </c>
+      <c r="F12">
         <v>354161.15625</v>
       </c>
-      <c r="E12">
-        <v>327117.3125</v>
-      </c>
-      <c r="F12">
-        <v>298559.59375</v>
-      </c>
       <c r="G12">
-        <v>258176.84375</v>
+        <v>327231.21875</v>
       </c>
       <c r="H12">
-        <v>257237.78125</v>
+        <v>297469.6875</v>
       </c>
       <c r="I12">
-        <v>254726.90625</v>
+        <v>298858.875</v>
       </c>
       <c r="J12">
-        <v>250813.953125</v>
+        <v>327968.1875</v>
       </c>
       <c r="K12">
-        <v>272718.3269658876</v>
+        <v>188361.4375</v>
       </c>
       <c r="L12">
-        <v>234231.799980122</v>
+        <v>232419.5567606252</v>
       </c>
       <c r="M12">
-        <v>283740.15625</v>
+        <v>242154.1024599568</v>
       </c>
       <c r="N12">
-        <v>268882.0334126984</v>
+        <v>239562.640625</v>
       </c>
       <c r="O12">
-        <v>239847.875</v>
+        <v>239538.3547880178</v>
       </c>
       <c r="P12">
-        <v>1156233.5</v>
+        <v>426898.625</v>
       </c>
       <c r="Q12">
-        <v>7462193</v>
+        <v>140434.8125</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -5937,46 +5937,46 @@
         <v>288862</v>
       </c>
       <c r="D13">
+        <v>251036.359375</v>
+      </c>
+      <c r="E13">
+        <v>242393.921875</v>
+      </c>
+      <c r="F13">
         <v>358883.15625</v>
       </c>
-      <c r="E13">
-        <v>327117.46875</v>
-      </c>
-      <c r="F13">
-        <v>285377.5</v>
-      </c>
       <c r="G13">
-        <v>225563.953125</v>
+        <v>327233.09375</v>
       </c>
       <c r="H13">
-        <v>217948.203125</v>
+        <v>231206.984375</v>
       </c>
       <c r="I13">
-        <v>226195.90625</v>
+        <v>285233.625</v>
       </c>
       <c r="J13">
-        <v>222337.953125</v>
+        <v>244938.03125</v>
       </c>
       <c r="K13">
-        <v>206605.5523825948</v>
+        <v>176418.9375</v>
       </c>
       <c r="L13">
-        <v>208740.5287281458</v>
+        <v>215382.3491335835</v>
       </c>
       <c r="M13">
-        <v>206030.15625</v>
+        <v>214188.6755549273</v>
       </c>
       <c r="N13">
-        <v>206010.1296036187</v>
+        <v>214523.15625</v>
       </c>
       <c r="O13">
-        <v>218065.53125</v>
+        <v>214514.6294047169</v>
       </c>
       <c r="P13">
-        <v>1125042.625</v>
+        <v>308836.53125</v>
       </c>
       <c r="Q13">
-        <v>7743704.5</v>
+        <v>-198290.375</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -5990,46 +5990,46 @@
         <v>0</v>
       </c>
       <c r="D14">
+        <v>277795.78125</v>
+      </c>
+      <c r="E14">
+        <v>200219.40625</v>
+      </c>
+      <c r="F14">
         <v>370131.65625</v>
       </c>
-      <c r="E14">
-        <v>327116.90625</v>
-      </c>
-      <c r="F14">
-        <v>281432.375</v>
-      </c>
       <c r="G14">
-        <v>263174.53125</v>
+        <v>327234.25</v>
       </c>
       <c r="H14">
-        <v>254499.90625</v>
+        <v>213544.46875</v>
       </c>
       <c r="I14">
-        <v>252479.140625</v>
+        <v>276973.15625</v>
       </c>
       <c r="J14">
-        <v>253345.265625</v>
+        <v>253516.109375</v>
       </c>
       <c r="K14">
-        <v>239978.2323801836</v>
+        <v>123302.2421875</v>
       </c>
       <c r="L14">
-        <v>252475.7159441512</v>
+        <v>255582.4786912849</v>
       </c>
       <c r="M14">
-        <v>244747.234375</v>
+        <v>263948.4768241873</v>
       </c>
       <c r="N14">
-        <v>246009.3385822511</v>
+        <v>260799.0625</v>
       </c>
       <c r="O14">
-        <v>252090.75</v>
+        <v>260739.4373479016</v>
       </c>
       <c r="P14">
-        <v>1877433.75</v>
+        <v>335665.4375</v>
       </c>
       <c r="Q14">
-        <v>8035899</v>
+        <v>161212.234375</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -6043,46 +6043,46 @@
         <v>0</v>
       </c>
       <c r="D15">
+        <v>301101.625</v>
+      </c>
+      <c r="E15">
+        <v>249440.359375</v>
+      </c>
+      <c r="F15">
         <v>380230.09375</v>
       </c>
-      <c r="E15">
-        <v>327116.625</v>
-      </c>
-      <c r="F15">
-        <v>263854</v>
-      </c>
       <c r="G15">
-        <v>267396.34375</v>
+        <v>327233.90625</v>
       </c>
       <c r="H15">
-        <v>257064.28125</v>
+        <v>263205.25</v>
       </c>
       <c r="I15">
-        <v>262444.90625</v>
+        <v>263396.15625</v>
       </c>
       <c r="J15">
-        <v>262669.5</v>
+        <v>319326.375</v>
       </c>
       <c r="K15">
-        <v>260501.0062897386</v>
+        <v>218544.5625</v>
       </c>
       <c r="L15">
-        <v>252475.7159441512</v>
+        <v>255582.4786912849</v>
       </c>
       <c r="M15">
-        <v>267539.96875</v>
+        <v>261465.8198638975</v>
       </c>
       <c r="N15">
-        <v>256318.385734127</v>
+        <v>252333.734375</v>
       </c>
       <c r="O15">
-        <v>262443.53125</v>
+        <v>249783.8680517107</v>
       </c>
       <c r="P15">
-        <v>-332881.90625</v>
+        <v>365557.625</v>
       </c>
       <c r="Q15">
-        <v>8338790</v>
+        <v>-725125.375</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -6096,46 +6096,46 @@
         <v>0</v>
       </c>
       <c r="D16">
+        <v>244656.03125</v>
+      </c>
+      <c r="E16">
+        <v>200112.125</v>
+      </c>
+      <c r="F16">
         <v>374693.40625</v>
       </c>
-      <c r="E16">
-        <v>327117.40625</v>
-      </c>
-      <c r="F16">
-        <v>299736.34375</v>
-      </c>
       <c r="G16">
-        <v>221464.78125</v>
+        <v>327257.625</v>
       </c>
       <c r="H16">
-        <v>212481.078125</v>
+        <v>228576.265625</v>
       </c>
       <c r="I16">
-        <v>215600.96875</v>
+        <v>297400.34375</v>
       </c>
       <c r="J16">
-        <v>215812.203125</v>
+        <v>250293.609375</v>
       </c>
       <c r="K16">
-        <v>225898.602114362</v>
+        <v>187542.40625</v>
       </c>
       <c r="L16">
-        <v>226905.9721477449</v>
+        <v>218078.0571294716</v>
       </c>
       <c r="M16">
-        <v>228585.640625</v>
+        <v>214165.7515869408</v>
       </c>
       <c r="N16">
-        <v>228137.7746785714</v>
+        <v>214204.96875</v>
       </c>
       <c r="O16">
-        <v>220456.125</v>
+        <v>214230.7450358922</v>
       </c>
       <c r="P16">
-        <v>647240.1875</v>
+        <v>425059.28125</v>
       </c>
       <c r="Q16">
-        <v>8652368</v>
+        <v>-631818.8125</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -6149,46 +6149,46 @@
         <v>0</v>
       </c>
       <c r="D17">
+        <v>247698.8125</v>
+      </c>
+      <c r="E17">
+        <v>230529.53125</v>
+      </c>
+      <c r="F17">
         <v>380195.09375</v>
       </c>
-      <c r="E17">
-        <v>327117.9375</v>
-      </c>
-      <c r="F17">
-        <v>312878.34375</v>
-      </c>
       <c r="G17">
-        <v>260093.40625</v>
+        <v>327260.78125</v>
       </c>
       <c r="H17">
-        <v>254756.765625</v>
+        <v>224739.515625</v>
       </c>
       <c r="I17">
-        <v>247329.875</v>
+        <v>311828.65625</v>
       </c>
       <c r="J17">
-        <v>251727.453125</v>
+        <v>286816.78125</v>
       </c>
       <c r="K17">
-        <v>246210.6508179509</v>
+        <v>217714.421875</v>
       </c>
       <c r="L17">
-        <v>225151.5483159544</v>
+        <v>221477.4084778201</v>
       </c>
       <c r="M17">
-        <v>260990.171875</v>
+        <v>231168.989551948</v>
       </c>
       <c r="N17">
-        <v>259807.5210292208</v>
+        <v>228131.015625</v>
       </c>
       <c r="O17">
-        <v>255651.140625</v>
+        <v>228110.536704896</v>
       </c>
       <c r="P17">
-        <v>1509350.75</v>
+        <v>479227.5625</v>
       </c>
       <c r="Q17">
-        <v>8976630</v>
+        <v>-33274.08984375</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -6202,46 +6202,46 @@
         <v>0</v>
       </c>
       <c r="D18">
+        <v>219069.859375</v>
+      </c>
+      <c r="E18">
+        <v>215909.703125</v>
+      </c>
+      <c r="F18">
         <v>387047.4375</v>
       </c>
-      <c r="E18">
-        <v>327117.40625</v>
-      </c>
-      <c r="F18">
-        <v>249459</v>
-      </c>
       <c r="G18">
-        <v>253162.421875</v>
+        <v>327256.78125</v>
       </c>
       <c r="H18">
-        <v>250423.734375</v>
+        <v>233769.375</v>
       </c>
       <c r="I18">
-        <v>234748.765625</v>
+        <v>251710.6875</v>
       </c>
       <c r="J18">
-        <v>245298.421875</v>
+        <v>272474.125</v>
       </c>
       <c r="K18">
-        <v>225073.7919642617</v>
+        <v>204451.875</v>
       </c>
       <c r="L18">
-        <v>234231.799980122</v>
+        <v>232419.5567606252</v>
       </c>
       <c r="M18">
-        <v>223030.078125</v>
+        <v>234779.5311215729</v>
       </c>
       <c r="N18">
-        <v>221976.8969816017</v>
+        <v>237476.171875</v>
       </c>
       <c r="O18">
-        <v>241054.484375</v>
+        <v>237469.1976780728</v>
       </c>
       <c r="P18">
-        <v>545011.5625</v>
+        <v>368173.78125</v>
       </c>
       <c r="Q18">
-        <v>9311583</v>
+        <v>421163.8125</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -6255,46 +6255,46 @@
         <v>0</v>
       </c>
       <c r="D19">
+        <v>270956.71875</v>
+      </c>
+      <c r="E19">
+        <v>228843.25</v>
+      </c>
+      <c r="F19">
         <v>386568.625</v>
       </c>
-      <c r="E19">
-        <v>327116.84375</v>
-      </c>
-      <c r="F19">
-        <v>266658.3125</v>
-      </c>
       <c r="G19">
-        <v>253331.15625</v>
+        <v>327261.3125</v>
       </c>
       <c r="H19">
-        <v>261429</v>
+        <v>231979.96875</v>
       </c>
       <c r="I19">
-        <v>256926.078125</v>
+        <v>268882.84375</v>
       </c>
       <c r="J19">
-        <v>270353.46875</v>
+        <v>295830.6875</v>
       </c>
       <c r="K19">
-        <v>265568.1820133118</v>
+        <v>222173.953125</v>
       </c>
       <c r="L19">
-        <v>234231.799980122</v>
+        <v>232419.5567606252</v>
       </c>
       <c r="M19">
-        <v>265684.34375</v>
+        <v>250291.0705</v>
       </c>
       <c r="N19">
-        <v>254820.7162222222</v>
+        <v>266750.25</v>
       </c>
       <c r="O19">
-        <v>267867.34375</v>
+        <v>245275.8437042174</v>
       </c>
       <c r="P19">
-        <v>-1414879.875</v>
+        <v>257119.609375</v>
       </c>
       <c r="Q19">
-        <v>9657220</v>
+        <v>-389351.75</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -6308,46 +6308,46 @@
         <v>0</v>
       </c>
       <c r="D20">
+        <v>243508.171875</v>
+      </c>
+      <c r="E20">
+        <v>212671.296875</v>
+      </c>
+      <c r="F20">
         <v>396086.03125</v>
       </c>
-      <c r="E20">
-        <v>327116.75</v>
-      </c>
-      <c r="F20">
-        <v>327796.3125</v>
-      </c>
       <c r="G20">
-        <v>261889.984375</v>
+        <v>327257.78125</v>
       </c>
       <c r="H20">
-        <v>256426.4375</v>
+        <v>200952.765625</v>
       </c>
       <c r="I20">
-        <v>260993.28125</v>
+        <v>326543.90625</v>
       </c>
       <c r="J20">
-        <v>264758.34375</v>
+        <v>254815.546875</v>
       </c>
       <c r="K20">
-        <v>280101.0727064078</v>
+        <v>222901.5625</v>
       </c>
       <c r="L20">
-        <v>252475.7159441512</v>
+        <v>255582.4786912849</v>
       </c>
       <c r="M20">
-        <v>280478.53125</v>
+        <v>280896.349</v>
       </c>
       <c r="N20">
-        <v>280710.0556666667</v>
+        <v>280480.9375</v>
       </c>
       <c r="O20">
-        <v>265531.1875</v>
+        <v>280466.0854404019</v>
       </c>
       <c r="P20">
-        <v>1360995.375</v>
+        <v>302988.0625</v>
       </c>
       <c r="Q20">
-        <v>10013546</v>
+        <v>204605.125</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -6361,46 +6361,46 @@
         <v>0</v>
       </c>
       <c r="D21">
+        <v>211302.875</v>
+      </c>
+      <c r="E21">
+        <v>191792.203125</v>
+      </c>
+      <c r="F21">
         <v>403376.875</v>
       </c>
-      <c r="E21">
-        <v>327116.96875</v>
-      </c>
-      <c r="F21">
-        <v>235234.40625</v>
-      </c>
       <c r="G21">
-        <v>235833.1875</v>
+        <v>327257.3125</v>
       </c>
       <c r="H21">
-        <v>216878.03125</v>
+        <v>172184.5</v>
       </c>
       <c r="I21">
-        <v>205398.21875</v>
+        <v>232344.8125</v>
       </c>
       <c r="J21">
-        <v>216938.453125</v>
+        <v>191975.765625</v>
       </c>
       <c r="K21">
-        <v>206605.5523825948</v>
+        <v>176743.015625</v>
       </c>
       <c r="L21">
-        <v>208740.5287281458</v>
+        <v>215382.3491335835</v>
       </c>
       <c r="M21">
-        <v>206030.15625</v>
+        <v>214188.6755549273</v>
       </c>
       <c r="N21">
-        <v>206010.1296036187</v>
+        <v>214523.15625</v>
       </c>
       <c r="O21">
-        <v>224202.578125</v>
+        <v>214514.6294047169</v>
       </c>
       <c r="P21">
-        <v>3151025.5</v>
+        <v>353919.53125</v>
       </c>
       <c r="Q21">
-        <v>10380562</v>
+        <v>494228.03125</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -6414,46 +6414,46 @@
         <v>0</v>
       </c>
       <c r="D22">
+        <v>263638.5625</v>
+      </c>
+      <c r="E22">
+        <v>216837.359375</v>
+      </c>
+      <c r="F22">
         <v>403439.53125</v>
       </c>
-      <c r="E22">
-        <v>327116.90625</v>
-      </c>
-      <c r="F22">
-        <v>355818.78125</v>
-      </c>
       <c r="G22">
-        <v>250587.421875</v>
+        <v>327259.21875</v>
       </c>
       <c r="H22">
-        <v>262465.75</v>
+        <v>228443.390625</v>
       </c>
       <c r="I22">
-        <v>251813.359375</v>
+        <v>353310.90625</v>
       </c>
       <c r="J22">
-        <v>263588.75</v>
+        <v>266359.4375</v>
       </c>
       <c r="K22">
-        <v>239978.2323801836</v>
+        <v>209661.078125</v>
       </c>
       <c r="L22">
-        <v>252475.7159441512</v>
+        <v>255582.4786912849</v>
       </c>
       <c r="M22">
-        <v>244747.234375</v>
+        <v>263948.4768241873</v>
       </c>
       <c r="N22">
-        <v>246009.3385822511</v>
+        <v>260799.0625</v>
       </c>
       <c r="O22">
-        <v>260592.25</v>
+        <v>260739.4373479016</v>
       </c>
       <c r="P22">
-        <v>-1089711.375</v>
+        <v>328142.5625</v>
       </c>
       <c r="Q22">
-        <v>10758267</v>
+        <v>139876.421875</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -6467,46 +6467,46 @@
         <v>0</v>
       </c>
       <c r="D23">
+        <v>302473.8125</v>
+      </c>
+      <c r="E23">
+        <v>237527.90625</v>
+      </c>
+      <c r="F23">
         <v>411771.84375</v>
       </c>
-      <c r="E23">
-        <v>327116.875</v>
-      </c>
-      <c r="F23">
-        <v>266272.21875</v>
-      </c>
       <c r="G23">
-        <v>287652.0625</v>
+        <v>327259.3125</v>
       </c>
       <c r="H23">
-        <v>302603.4375</v>
+        <v>253942.75</v>
       </c>
       <c r="I23">
-        <v>296049.8125</v>
+        <v>270804.78125</v>
       </c>
       <c r="J23">
-        <v>310696.0625</v>
+        <v>291035.375</v>
       </c>
       <c r="K23">
-        <v>263441.9102398402</v>
+        <v>229970.671875</v>
       </c>
       <c r="L23">
-        <v>252475.7159441512</v>
+        <v>255582.4786912849</v>
       </c>
       <c r="M23">
-        <v>263421.90625</v>
+        <v>258178.8825</v>
       </c>
       <c r="N23">
-        <v>261133.5003333334</v>
+        <v>263422.90625</v>
       </c>
       <c r="O23">
-        <v>301604.6875</v>
+        <v>263343.3470500244</v>
       </c>
       <c r="P23">
-        <v>171424.71875</v>
+        <v>294430.1875</v>
       </c>
       <c r="Q23">
-        <v>11146659</v>
+        <v>-357290.28125</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -6520,46 +6520,46 @@
         <v>0</v>
       </c>
       <c r="D24">
+        <v>188801.59375</v>
+      </c>
+      <c r="E24">
+        <v>174208.546875</v>
+      </c>
+      <c r="F24">
         <v>422131.625</v>
       </c>
-      <c r="E24">
-        <v>327116.9375</v>
-      </c>
-      <c r="F24">
-        <v>294877.8125</v>
-      </c>
       <c r="G24">
-        <v>218210.796875</v>
+        <v>327258.15625</v>
       </c>
       <c r="H24">
-        <v>221268.484375</v>
+        <v>192990.1875</v>
       </c>
       <c r="I24">
-        <v>224160.0625</v>
+        <v>299778.1875</v>
       </c>
       <c r="J24">
-        <v>229333.609375</v>
+        <v>188278.9375</v>
       </c>
       <c r="K24">
-        <v>206605.5523825948</v>
+        <v>199990.703125</v>
       </c>
       <c r="L24">
-        <v>208740.5287281458</v>
+        <v>215382.3491335835</v>
       </c>
       <c r="M24">
-        <v>206030.15625</v>
+        <v>214188.6755549273</v>
       </c>
       <c r="N24">
-        <v>206010.1296036187</v>
+        <v>214523.15625</v>
       </c>
       <c r="O24">
-        <v>232391.578125</v>
+        <v>214514.6294047169</v>
       </c>
       <c r="P24">
-        <v>7737115</v>
+        <v>249993.046875</v>
       </c>
       <c r="Q24">
-        <v>11545735</v>
+        <v>-2872.349365234375</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -6573,46 +6573,46 @@
         <v>0</v>
       </c>
       <c r="D25">
+        <v>198284.5</v>
+      </c>
+      <c r="E25">
+        <v>197128.078125</v>
+      </c>
+      <c r="F25">
         <v>424277.75</v>
       </c>
-      <c r="E25">
-        <v>327117.0625</v>
-      </c>
-      <c r="F25">
-        <v>373556.0625</v>
-      </c>
       <c r="G25">
-        <v>225384</v>
+        <v>327263.65625</v>
       </c>
       <c r="H25">
-        <v>233357.34375</v>
+        <v>195755.359375</v>
       </c>
       <c r="I25">
-        <v>218800.40625</v>
+        <v>375258.9375</v>
       </c>
       <c r="J25">
-        <v>237451.328125</v>
+        <v>203101.03125</v>
       </c>
       <c r="K25">
-        <v>225073.7919642617</v>
+        <v>218689.671875</v>
       </c>
       <c r="L25">
-        <v>234231.799980122</v>
+        <v>232419.5567606252</v>
       </c>
       <c r="M25">
-        <v>223030.078125</v>
+        <v>234779.5311215729</v>
       </c>
       <c r="N25">
-        <v>221976.8969816017</v>
+        <v>237476.171875</v>
       </c>
       <c r="O25">
-        <v>247392.953125</v>
+        <v>237469.1976780728</v>
       </c>
       <c r="P25">
-        <v>7801420.5</v>
+        <v>203569.765625</v>
       </c>
       <c r="Q25">
-        <v>11955523</v>
+        <v>-339664.84375</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -6626,46 +6626,46 @@
         <v>0</v>
       </c>
       <c r="D26">
+        <v>250196.1875</v>
+      </c>
+      <c r="E26">
+        <v>198181.984375</v>
+      </c>
+      <c r="F26">
         <v>427843.28125</v>
       </c>
-      <c r="E26">
-        <v>327116.78125</v>
-      </c>
-      <c r="F26">
-        <v>327049.75</v>
-      </c>
       <c r="G26">
-        <v>262304.4375</v>
+        <v>327257.15625</v>
       </c>
       <c r="H26">
-        <v>276122.1875</v>
+        <v>243601.703125</v>
       </c>
       <c r="I26">
-        <v>270275.0625</v>
+        <v>327355.75</v>
       </c>
       <c r="J26">
-        <v>285015</v>
+        <v>244203.109375</v>
       </c>
       <c r="K26">
-        <v>221033.1178238934</v>
+        <v>237341.546875</v>
       </c>
       <c r="L26">
-        <v>225151.5483159544</v>
+        <v>221477.4084778201</v>
       </c>
       <c r="M26">
-        <v>217316.75</v>
+        <v>220348.8742818095</v>
       </c>
       <c r="N26">
-        <v>217729.7177901111</v>
+        <v>220269.015625</v>
       </c>
       <c r="O26">
-        <v>292356.3125</v>
+        <v>220288.3724800288</v>
       </c>
       <c r="P26">
-        <v>7933727.5</v>
+        <v>280693.5625</v>
       </c>
       <c r="Q26">
-        <v>12375974</v>
+        <v>272849.0625</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -6679,46 +6679,46 @@
         <v>0</v>
       </c>
       <c r="D27">
+        <v>226595.265625</v>
+      </c>
+      <c r="E27">
+        <v>217851.359375</v>
+      </c>
+      <c r="F27">
         <v>433416.65625</v>
       </c>
-      <c r="E27">
-        <v>327116.34375</v>
-      </c>
-      <c r="F27">
-        <v>417700.0625</v>
-      </c>
       <c r="G27">
-        <v>242154.609375</v>
+        <v>327254</v>
       </c>
       <c r="H27">
-        <v>244877.59375</v>
+        <v>236383.5</v>
       </c>
       <c r="I27">
-        <v>248079.8125</v>
+        <v>414368.5</v>
       </c>
       <c r="J27">
-        <v>258680</v>
+        <v>226462.859375</v>
       </c>
       <c r="K27">
-        <v>234989.8639785646</v>
+        <v>232591.578125</v>
       </c>
       <c r="L27">
-        <v>234231.799980122</v>
+        <v>232419.5567606252</v>
       </c>
       <c r="M27">
-        <v>214692.828125</v>
+        <v>229058.7313051948</v>
       </c>
       <c r="N27">
-        <v>221085.1921323953</v>
+        <v>266750.25</v>
       </c>
       <c r="O27">
-        <v>265501.5</v>
+        <v>214338.9814397684</v>
       </c>
       <c r="P27">
-        <v>6153244</v>
+        <v>392410.5625</v>
       </c>
       <c r="Q27">
-        <v>12807121</v>
+        <v>1562039.125</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -6732,46 +6732,46 @@
         <v>0</v>
       </c>
       <c r="D28">
+        <v>163924.890625</v>
+      </c>
+      <c r="E28">
+        <v>178817.421875</v>
+      </c>
+      <c r="F28">
         <v>439008.03125</v>
       </c>
-      <c r="E28">
-        <v>327116.65625</v>
-      </c>
-      <c r="F28">
-        <v>297527.46875</v>
-      </c>
       <c r="G28">
-        <v>225930.359375</v>
+        <v>327265.53125</v>
       </c>
       <c r="H28">
-        <v>232190.765625</v>
+        <v>209529.546875</v>
       </c>
       <c r="I28">
-        <v>233318.75</v>
+        <v>300376.875</v>
       </c>
       <c r="J28">
-        <v>242262.421875</v>
+        <v>161123.3125</v>
       </c>
       <c r="K28">
-        <v>214838.7594792851</v>
+        <v>209955.375</v>
       </c>
       <c r="L28">
-        <v>215243.8463127145</v>
+        <v>223471.9748003703</v>
       </c>
       <c r="M28">
-        <v>216493.46875</v>
+        <v>223259.5449853126</v>
       </c>
       <c r="N28">
-        <v>216755.2480394328</v>
+        <v>224373.4375</v>
       </c>
       <c r="O28">
-        <v>246253.765625</v>
+        <v>224373.5672948709</v>
       </c>
       <c r="P28">
-        <v>11934420</v>
+        <v>370418.40625</v>
       </c>
       <c r="Q28">
-        <v>13248950</v>
+        <v>1330063.25</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -6785,46 +6785,46 @@
         <v>0</v>
       </c>
       <c r="D29">
+        <v>241504.15625</v>
+      </c>
+      <c r="E29">
+        <v>247850.328125</v>
+      </c>
+      <c r="F29">
         <v>439256.5625</v>
       </c>
-      <c r="E29">
-        <v>327117.09375</v>
-      </c>
-      <c r="F29">
-        <v>358908.6875</v>
-      </c>
       <c r="G29">
-        <v>285411.3125</v>
+        <v>327258.625</v>
       </c>
       <c r="H29">
-        <v>281435.34375</v>
+        <v>241960.53125</v>
       </c>
       <c r="I29">
-        <v>279822.34375</v>
+        <v>365478.1875</v>
       </c>
       <c r="J29">
-        <v>300757.5625</v>
+        <v>201357.03125</v>
       </c>
       <c r="K29">
-        <v>246210.6508179509</v>
+        <v>263720.9375</v>
       </c>
       <c r="L29">
-        <v>225151.5483159544</v>
+        <v>221477.4084778201</v>
       </c>
       <c r="M29">
-        <v>260990.171875</v>
+        <v>231168.989551948</v>
       </c>
       <c r="N29">
-        <v>259807.5210292208</v>
+        <v>228131.015625</v>
       </c>
       <c r="O29">
-        <v>305732.3125</v>
+        <v>228110.536704896</v>
       </c>
       <c r="P29">
-        <v>12386418</v>
+        <v>296105</v>
       </c>
       <c r="Q29">
-        <v>13701469</v>
+        <v>3047780.25</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -6838,46 +6838,46 @@
         <v>0</v>
       </c>
       <c r="D30">
+        <v>224357.125</v>
+      </c>
+      <c r="E30">
+        <v>223950</v>
+      </c>
+      <c r="F30">
         <v>444300.9375</v>
       </c>
-      <c r="E30">
-        <v>327117.03125</v>
-      </c>
-      <c r="F30">
-        <v>356685.3125</v>
-      </c>
       <c r="G30">
-        <v>235365.96875</v>
+        <v>327267.09375</v>
       </c>
       <c r="H30">
-        <v>232771.5</v>
+        <v>245514.15625</v>
       </c>
       <c r="I30">
-        <v>234399.65625</v>
+        <v>357572.59375</v>
       </c>
       <c r="J30">
-        <v>247292.03125</v>
+        <v>170577.40625</v>
       </c>
       <c r="K30">
-        <v>206605.5523825948</v>
+        <v>251538.125</v>
       </c>
       <c r="L30">
-        <v>208740.5287281458</v>
+        <v>215382.3491335835</v>
       </c>
       <c r="M30">
-        <v>206030.15625</v>
+        <v>214188.6755549273</v>
       </c>
       <c r="N30">
-        <v>206010.1296036187</v>
+        <v>214523.15625</v>
       </c>
       <c r="O30">
-        <v>253413.609375</v>
+        <v>214514.6294047169</v>
       </c>
       <c r="P30">
-        <v>17206606</v>
+        <v>286985.6875</v>
       </c>
       <c r="Q30">
-        <v>14164701</v>
+        <v>3104006</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -6891,46 +6891,46 @@
         <v>0</v>
       </c>
       <c r="D31">
+        <v>270188.375</v>
+      </c>
+      <c r="E31">
+        <v>266250.65625</v>
+      </c>
+      <c r="F31">
         <v>446321.21875</v>
       </c>
-      <c r="E31">
-        <v>327116.8125</v>
-      </c>
-      <c r="F31">
-        <v>311850.46875</v>
-      </c>
       <c r="G31">
-        <v>264491.34375</v>
+        <v>327261.625</v>
       </c>
       <c r="H31">
-        <v>262006.546875</v>
+        <v>291809.03125</v>
       </c>
       <c r="I31">
-        <v>257460.4375</v>
+        <v>310132.03125</v>
       </c>
       <c r="J31">
-        <v>261654.90625</v>
+        <v>203588.9375</v>
       </c>
       <c r="K31">
-        <v>221033.1178238934</v>
+        <v>306661.625</v>
       </c>
       <c r="L31">
-        <v>225151.5483159544</v>
+        <v>221477.4084778201</v>
       </c>
       <c r="M31">
-        <v>217316.75</v>
+        <v>220348.8742818095</v>
       </c>
       <c r="N31">
-        <v>217729.7177901111</v>
+        <v>220269.015625</v>
       </c>
       <c r="O31">
-        <v>287864.6875</v>
+        <v>220288.3724800288</v>
       </c>
       <c r="P31">
-        <v>16441187</v>
+        <v>312015.75</v>
       </c>
       <c r="Q31">
-        <v>14638595</v>
+        <v>4818665.5</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -6944,46 +6944,46 @@
         <v>0</v>
       </c>
       <c r="D32">
+        <v>225869.65625</v>
+      </c>
+      <c r="E32">
+        <v>243981.328125</v>
+      </c>
+      <c r="F32">
         <v>449819.3125</v>
       </c>
-      <c r="E32">
-        <v>327116.59375</v>
-      </c>
-      <c r="F32">
-        <v>350773.90625</v>
-      </c>
       <c r="G32">
-        <v>267608.21875</v>
+        <v>327258.625</v>
       </c>
       <c r="H32">
-        <v>287579.3125</v>
+        <v>259894.78125</v>
       </c>
       <c r="I32">
-        <v>277425.1875</v>
+        <v>350776.21875</v>
       </c>
       <c r="J32">
-        <v>294532.21875</v>
+        <v>189923.984375</v>
       </c>
       <c r="K32">
-        <v>249328.7873968566</v>
+        <v>254273.34375</v>
       </c>
       <c r="L32">
-        <v>252475.7159441512</v>
+        <v>255582.4786912849</v>
       </c>
       <c r="M32">
-        <v>253886.8125</v>
+        <v>238973.9033452381</v>
       </c>
       <c r="N32">
-        <v>247876.7588333334</v>
+        <v>231716.046875</v>
       </c>
       <c r="O32">
-        <v>292277.6875</v>
+        <v>236422.0000128433</v>
       </c>
       <c r="P32">
-        <v>16383573</v>
+        <v>330616.84375</v>
       </c>
       <c r="Q32">
-        <v>15123180</v>
+        <v>8267716</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -6997,46 +6997,46 @@
         <v>0</v>
       </c>
       <c r="D33">
+        <v>223002.078125</v>
+      </c>
+      <c r="E33">
+        <v>232177.625</v>
+      </c>
+      <c r="F33">
         <v>449343.875</v>
       </c>
-      <c r="E33">
-        <v>327116.46875</v>
-      </c>
-      <c r="F33">
-        <v>277393.8125</v>
-      </c>
       <c r="G33">
-        <v>224543.125</v>
+        <v>327263.75</v>
       </c>
       <c r="H33">
-        <v>228573.203125</v>
+        <v>228474.796875</v>
       </c>
       <c r="I33">
-        <v>229098.984375</v>
+        <v>276230.3125</v>
       </c>
       <c r="J33">
-        <v>237484.21875</v>
+        <v>200929.03125</v>
       </c>
       <c r="K33">
-        <v>206605.5523825948</v>
+        <v>256140.59375</v>
       </c>
       <c r="L33">
-        <v>208740.5287281458</v>
+        <v>215382.3491335835</v>
       </c>
       <c r="M33">
-        <v>206030.15625</v>
+        <v>214188.6755549273</v>
       </c>
       <c r="N33">
-        <v>206010.1296036187</v>
+        <v>214523.15625</v>
       </c>
       <c r="O33">
-        <v>230518.859375</v>
+        <v>214514.6294047169</v>
       </c>
       <c r="P33">
-        <v>35745560</v>
+        <v>344818.84375</v>
       </c>
       <c r="Q33">
-        <v>15618454</v>
+        <v>10414168</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -7050,46 +7050,46 @@
         <v>0</v>
       </c>
       <c r="D34">
+        <v>310751.125</v>
+      </c>
+      <c r="E34">
+        <v>322976.75</v>
+      </c>
+      <c r="F34">
         <v>456865.0625</v>
       </c>
-      <c r="E34">
-        <v>327116.5</v>
-      </c>
-      <c r="F34">
-        <v>281028.65625</v>
-      </c>
       <c r="G34">
-        <v>280175.25</v>
+        <v>327263.1875</v>
       </c>
       <c r="H34">
-        <v>284414.625</v>
+        <v>346005.1875</v>
       </c>
       <c r="I34">
-        <v>284503.75</v>
+        <v>281029.75</v>
       </c>
       <c r="J34">
-        <v>291427.53125</v>
+        <v>274796.8125</v>
       </c>
       <c r="K34">
-        <v>246195.8753924094</v>
+        <v>334966.375</v>
       </c>
       <c r="L34">
-        <v>252475.7159441512</v>
+        <v>255582.4786912849</v>
       </c>
       <c r="M34">
-        <v>238998.59375</v>
+        <v>247692.2515082695</v>
       </c>
       <c r="N34">
-        <v>240371.208431069</v>
+        <v>245551.265625</v>
       </c>
       <c r="O34">
-        <v>313832.1875</v>
+        <v>245601.1954657663</v>
       </c>
       <c r="P34">
-        <v>59879672</v>
+        <v>351475.8125</v>
       </c>
       <c r="Q34">
-        <v>16124415</v>
+        <v>13293556</v>
       </c>
     </row>
   </sheetData>

--- a/Project-KTXForecasting/Result/Forecasting_2DFUTR5_경전선.xlsx
+++ b/Project-KTXForecasting/Result/Forecasting_2DFUTR5_경전선.xlsx
@@ -826,25 +826,25 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>1097473850846.602</v>
+        <v>3450791107246.971</v>
       </c>
       <c r="C15">
-        <v>1047603.861603518</v>
+        <v>1857630.508806036</v>
       </c>
       <c r="D15">
-        <v>2.356166968729867</v>
+        <v>7.362555652785853</v>
       </c>
       <c r="E15">
-        <v>958914.2135416666</v>
+        <v>1441669.473958333</v>
       </c>
       <c r="F15">
-        <v>1.395329585887518</v>
+        <v>2.087179911413858</v>
       </c>
       <c r="G15">
-        <v>954879.375</v>
+        <v>1088256.1875</v>
       </c>
       <c r="H15">
-        <v>1.376742086453534</v>
+        <v>1.550819748546635</v>
       </c>
     </row>
   </sheetData>
@@ -963,7 +963,7 @@
         <v>818041.3125</v>
       </c>
       <c r="Q2">
-        <v>930293.3125</v>
+        <v>1104419.5</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1016,7 +1016,7 @@
         <v>340913.96875</v>
       </c>
       <c r="Q3">
-        <v>1183934.25</v>
+        <v>997801.3125</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1069,7 +1069,7 @@
         <v>-137411.46875</v>
       </c>
       <c r="Q4">
-        <v>1725045</v>
+        <v>770370.5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1122,7 +1122,7 @@
         <v>10374.966796875</v>
       </c>
       <c r="Q5">
-        <v>1910135.75</v>
+        <v>923875.625</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1175,7 +1175,7 @@
         <v>207230.03125</v>
       </c>
       <c r="Q6">
-        <v>1574666.625</v>
+        <v>1633907.375</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1228,7 +1228,7 @@
         <v>226665</v>
       </c>
       <c r="Q7">
-        <v>1448388</v>
+        <v>2015249.625</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1281,7 +1281,7 @@
         <v>134711.90625</v>
       </c>
       <c r="Q8">
-        <v>1721404.125</v>
+        <v>1769029.375</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1334,7 +1334,7 @@
         <v>584376.375</v>
       </c>
       <c r="Q9">
-        <v>1836439.625</v>
+        <v>1812481</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1387,7 +1387,7 @@
         <v>54596.26953125</v>
       </c>
       <c r="Q10">
-        <v>1547813.5</v>
+        <v>2596270.5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1440,7 +1440,7 @@
         <v>1235602</v>
       </c>
       <c r="Q11">
-        <v>1455210</v>
+        <v>3297084.25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1493,7 +1493,7 @@
         <v>636677.875</v>
       </c>
       <c r="Q12">
-        <v>2062698.125</v>
+        <v>3701589.75</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1546,7 +1546,7 @@
         <v>-450865.28125</v>
       </c>
       <c r="Q13">
-        <v>2516763.75</v>
+        <v>4711510.5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1599,7 +1599,7 @@
         <v>125951.953125</v>
       </c>
       <c r="Q14">
-        <v>2142276</v>
+        <v>8990599</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1652,7 +1652,7 @@
         <v>47817.21875</v>
       </c>
       <c r="Q15">
-        <v>2602501.5</v>
+        <v>13379442</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1705,7 +1705,7 @@
         <v>-534142.5625</v>
       </c>
       <c r="Q16">
-        <v>11131631</v>
+        <v>18829248</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1758,7 +1758,7 @@
         <v>33534.32421875</v>
       </c>
       <c r="Q17">
-        <v>19417708</v>
+        <v>24106782</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1811,7 +1811,7 @@
         <v>227300.171875</v>
       </c>
       <c r="Q18">
-        <v>20168068</v>
+        <v>24043102</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1864,7 +1864,7 @@
         <v>-193859.828125</v>
       </c>
       <c r="Q19">
-        <v>20918424</v>
+        <v>23979412</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1917,7 +1917,7 @@
         <v>156011.90625</v>
       </c>
       <c r="Q20">
-        <v>20240970</v>
+        <v>23982324</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1970,7 +1970,7 @@
         <v>1209013.5</v>
       </c>
       <c r="Q21">
-        <v>19517470</v>
+        <v>23987398</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2023,7 +2023,7 @@
         <v>-147448.484375</v>
       </c>
       <c r="Q22">
-        <v>19980580</v>
+        <v>24720046</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2076,7 +2076,7 @@
         <v>67139.5703125</v>
       </c>
       <c r="Q23">
-        <v>20566432</v>
+        <v>25527950</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2129,7 +2129,7 @@
         <v>15944.5849609375</v>
       </c>
       <c r="Q24">
-        <v>19903546</v>
+        <v>24862652</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2182,7 +2182,7 @@
         <v>-36714.8671875</v>
       </c>
       <c r="Q25">
-        <v>19009440</v>
+        <v>23924560</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2235,7 +2235,7 @@
         <v>1387760.75</v>
       </c>
       <c r="Q26">
-        <v>19606662</v>
+        <v>24283838</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2288,7 +2288,7 @@
         <v>2279894.75</v>
       </c>
       <c r="Q27">
-        <v>20621450</v>
+        <v>25006360</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2341,7 +2341,7 @@
         <v>998920.875</v>
       </c>
       <c r="Q28">
-        <v>20882714</v>
+        <v>24971696</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2394,7 +2394,7 @@
         <v>2150070.25</v>
       </c>
       <c r="Q29">
-        <v>20849006</v>
+        <v>24640632</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2447,7 +2447,7 @@
         <v>2322319</v>
       </c>
       <c r="Q30">
-        <v>20424936</v>
+        <v>24458112</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2500,7 +2500,7 @@
         <v>4398287</v>
       </c>
       <c r="Q31">
-        <v>19796386</v>
+        <v>24353388</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2553,7 +2553,7 @@
         <v>4194003</v>
       </c>
       <c r="Q32">
-        <v>19867116</v>
+        <v>24048288</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2606,7 +2606,7 @@
         <v>6472980</v>
       </c>
       <c r="Q33">
-        <v>20416330</v>
+        <v>23606128</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2659,7 +2659,7 @@
         <v>10490070</v>
       </c>
       <c r="Q34">
-        <v>20673768</v>
+        <v>23398860</v>
       </c>
     </row>
   </sheetData>
@@ -2778,54 +2778,54 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B5">
-        <v>10093463823.0568</v>
+        <v>10094816568.46362</v>
       </c>
       <c r="C5">
-        <v>100466.2322527167</v>
+        <v>100472.9643658612</v>
       </c>
       <c r="D5">
-        <v>0.0280928138213464</v>
+        <v>0.02809187700236212</v>
       </c>
       <c r="E5">
-        <v>52902.92708333334</v>
+        <v>52910.7265625</v>
       </c>
       <c r="F5">
-        <v>0.1110135873257389</v>
+        <v>0.1110175580773406</v>
       </c>
       <c r="G5">
-        <v>29425.421875</v>
+        <v>29324.921875</v>
       </c>
       <c r="H5">
-        <v>0.09293675515807746</v>
+        <v>0.09261935110375219</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>9805054721.171875</v>
+        <v>10093463823.0568</v>
       </c>
       <c r="C6">
-        <v>99020.47627219268</v>
+        <v>100466.2322527167</v>
       </c>
       <c r="D6">
-        <v>0.0284423965524131</v>
+        <v>0.0280928138213464</v>
       </c>
       <c r="E6">
-        <v>52955.72395833334</v>
+        <v>52902.92708333334</v>
       </c>
       <c r="F6">
-        <v>0.1140509492487075</v>
+        <v>0.1110135873257389</v>
       </c>
       <c r="G6">
-        <v>38351.90625</v>
+        <v>29425.421875</v>
       </c>
       <c r="H6">
-        <v>0.1082820259590214</v>
+        <v>0.09293675515807746</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3095,10 +3095,10 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>10</v>
@@ -3148,10 +3148,10 @@
         <v>357769.375</v>
       </c>
       <c r="G2">
+        <v>345921.96875</v>
+      </c>
+      <c r="H2">
         <v>345928.65625</v>
-      </c>
-      <c r="H2">
-        <v>348832.03125</v>
       </c>
       <c r="I2">
         <v>377809.75</v>
@@ -3201,10 +3201,10 @@
         <v>340299.28125</v>
       </c>
       <c r="G3">
+        <v>345912.125</v>
+      </c>
+      <c r="H3">
         <v>345922.46875</v>
-      </c>
-      <c r="H3">
-        <v>350481.4375</v>
       </c>
       <c r="I3">
         <v>345876.8125</v>
@@ -3254,10 +3254,10 @@
         <v>320275.25</v>
       </c>
       <c r="G4">
+        <v>345922.25</v>
+      </c>
+      <c r="H4">
         <v>345987.6875</v>
-      </c>
-      <c r="H4">
-        <v>354032.625</v>
       </c>
       <c r="I4">
         <v>358072.875</v>
@@ -3307,10 +3307,10 @@
         <v>319682.875</v>
       </c>
       <c r="G5">
+        <v>345924.8125</v>
+      </c>
+      <c r="H5">
         <v>345995.71875</v>
-      </c>
-      <c r="H5">
-        <v>355395.53125</v>
       </c>
       <c r="I5">
         <v>355169.71875</v>
@@ -3360,10 +3360,10 @@
         <v>268844.5</v>
       </c>
       <c r="G6">
+        <v>345922.1875</v>
+      </c>
+      <c r="H6">
         <v>346010.21875</v>
-      </c>
-      <c r="H6">
-        <v>353587.84375</v>
       </c>
       <c r="I6">
         <v>277192.375</v>
@@ -3413,10 +3413,10 @@
         <v>334035.34375</v>
       </c>
       <c r="G7">
+        <v>345929.28125</v>
+      </c>
+      <c r="H7">
         <v>346017.4375</v>
-      </c>
-      <c r="H7">
-        <v>353200.5</v>
       </c>
       <c r="I7">
         <v>371439.625</v>
@@ -3466,10 +3466,10 @@
         <v>350269.28125</v>
       </c>
       <c r="G8">
+        <v>345925</v>
+      </c>
+      <c r="H8">
         <v>346009.46875</v>
-      </c>
-      <c r="H8">
-        <v>355462.0625</v>
       </c>
       <c r="I8">
         <v>351376.21875</v>
@@ -3519,10 +3519,10 @@
         <v>335904.4375</v>
       </c>
       <c r="G9">
+        <v>345927.03125</v>
+      </c>
+      <c r="H9">
         <v>346003.5625</v>
-      </c>
-      <c r="H9">
-        <v>357862.8125</v>
       </c>
       <c r="I9">
         <v>427051.59375</v>
@@ -3572,10 +3572,10 @@
         <v>384332.4375</v>
       </c>
       <c r="G10">
+        <v>345930.5625</v>
+      </c>
+      <c r="H10">
         <v>346017.0625</v>
-      </c>
-      <c r="H10">
-        <v>360613.25</v>
       </c>
       <c r="I10">
         <v>472652.75</v>
@@ -3625,10 +3625,10 @@
         <v>295799.0625</v>
       </c>
       <c r="G11">
+        <v>345967.25</v>
+      </c>
+      <c r="H11">
         <v>346077.4375</v>
-      </c>
-      <c r="H11">
-        <v>362333.5625</v>
       </c>
       <c r="I11">
         <v>287163.5625</v>
@@ -3678,10 +3678,10 @@
         <v>293574.84375</v>
       </c>
       <c r="G12">
+        <v>345963.65625</v>
+      </c>
+      <c r="H12">
         <v>346076.625</v>
-      </c>
-      <c r="H12">
-        <v>360545.46875</v>
       </c>
       <c r="I12">
         <v>267079.96875</v>
@@ -3731,10 +3731,10 @@
         <v>357886.53125</v>
       </c>
       <c r="G13">
+        <v>345977.84375</v>
+      </c>
+      <c r="H13">
         <v>346081.34375</v>
-      </c>
-      <c r="H13">
-        <v>359573.8125</v>
       </c>
       <c r="I13">
         <v>341395.09375</v>
@@ -3784,10 +3784,10 @@
         <v>328366.25</v>
       </c>
       <c r="G14">
+        <v>345969.03125</v>
+      </c>
+      <c r="H14">
         <v>346075.96875</v>
-      </c>
-      <c r="H14">
-        <v>362881.8125</v>
       </c>
       <c r="I14">
         <v>351227.6875</v>
@@ -3837,10 +3837,10 @@
         <v>311237.09375</v>
       </c>
       <c r="G15">
+        <v>346018.25</v>
+      </c>
+      <c r="H15">
         <v>346073.90625</v>
-      </c>
-      <c r="H15">
-        <v>366102.6875</v>
       </c>
       <c r="I15">
         <v>301151.125</v>
@@ -3890,10 +3890,10 @@
         <v>276659.78125</v>
       </c>
       <c r="G16">
+        <v>346018.3125</v>
+      </c>
+      <c r="H16">
         <v>346074.40625</v>
-      </c>
-      <c r="H16">
-        <v>367843.34375</v>
       </c>
       <c r="I16">
         <v>308800.6875</v>
@@ -3943,10 +3943,10 @@
         <v>251892.0625</v>
       </c>
       <c r="G17">
+        <v>346020.8125</v>
+      </c>
+      <c r="H17">
         <v>346078.625</v>
-      </c>
-      <c r="H17">
-        <v>369508.125</v>
       </c>
       <c r="I17">
         <v>278785.84375</v>
@@ -3996,10 +3996,10 @@
         <v>285856.875</v>
       </c>
       <c r="G18">
+        <v>346070.78125</v>
+      </c>
+      <c r="H18">
         <v>346074.0625</v>
-      </c>
-      <c r="H18">
-        <v>369729.84375</v>
       </c>
       <c r="I18">
         <v>212473.671875</v>
@@ -4049,10 +4049,10 @@
         <v>280093.53125</v>
       </c>
       <c r="G19">
+        <v>346075.78125</v>
+      </c>
+      <c r="H19">
         <v>346075.375</v>
-      </c>
-      <c r="H19">
-        <v>369916.34375</v>
       </c>
       <c r="I19">
         <v>248837.671875</v>
@@ -4102,10 +4102,10 @@
         <v>251189.671875</v>
       </c>
       <c r="G20">
+        <v>346072.8125</v>
+      </c>
+      <c r="H20">
         <v>346079.5625</v>
-      </c>
-      <c r="H20">
-        <v>372155.8125</v>
       </c>
       <c r="I20">
         <v>299450.8125</v>
@@ -4155,10 +4155,10 @@
         <v>304250.0625</v>
       </c>
       <c r="G21">
+        <v>346075.75</v>
+      </c>
+      <c r="H21">
         <v>346067.6875</v>
-      </c>
-      <c r="H21">
-        <v>374457.15625</v>
       </c>
       <c r="I21">
         <v>242367.046875</v>
@@ -4208,10 +4208,10 @@
         <v>299622.6875</v>
       </c>
       <c r="G22">
+        <v>346069.9375</v>
+      </c>
+      <c r="H22">
         <v>346081.5625</v>
-      </c>
-      <c r="H22">
-        <v>376836.8125</v>
       </c>
       <c r="I22">
         <v>375915.8125</v>
@@ -4261,10 +4261,10 @@
         <v>191123.234375</v>
       </c>
       <c r="G23">
+        <v>346065</v>
+      </c>
+      <c r="H23">
         <v>346079.21875</v>
-      </c>
-      <c r="H23">
-        <v>379251.875</v>
       </c>
       <c r="I23">
         <v>251445.109375</v>
@@ -4314,10 +4314,10 @@
         <v>162604.34375</v>
       </c>
       <c r="G24">
+        <v>346062.34375</v>
+      </c>
+      <c r="H24">
         <v>346078.21875</v>
-      </c>
-      <c r="H24">
-        <v>378770.1875</v>
       </c>
       <c r="I24">
         <v>343380.53125</v>
@@ -4367,10 +4367,10 @@
         <v>172560.25</v>
       </c>
       <c r="G25">
+        <v>346063.875</v>
+      </c>
+      <c r="H25">
         <v>346081.15625</v>
-      </c>
-      <c r="H25">
-        <v>377772.90625</v>
       </c>
       <c r="I25">
         <v>357470.1875</v>
@@ -4420,10 +4420,10 @@
         <v>199888.46875</v>
       </c>
       <c r="G26">
+        <v>346059.96875</v>
+      </c>
+      <c r="H26">
         <v>346073.78125</v>
-      </c>
-      <c r="H26">
-        <v>378322.5</v>
       </c>
       <c r="I26">
         <v>344638.09375</v>
@@ -4473,10 +4473,10 @@
         <v>247641.5625</v>
       </c>
       <c r="G27">
+        <v>346073.28125</v>
+      </c>
+      <c r="H27">
         <v>346081.0625</v>
-      </c>
-      <c r="H27">
-        <v>379310.625</v>
       </c>
       <c r="I27">
         <v>430319.28125</v>
@@ -4526,10 +4526,10 @@
         <v>218311.671875</v>
       </c>
       <c r="G28">
+        <v>346080.75</v>
+      </c>
+      <c r="H28">
         <v>346083.71875</v>
-      </c>
-      <c r="H28">
-        <v>383039.71875</v>
       </c>
       <c r="I28">
         <v>283096.28125</v>
@@ -4579,10 +4579,10 @@
         <v>164521.75</v>
       </c>
       <c r="G29">
+        <v>346124.03125</v>
+      </c>
+      <c r="H29">
         <v>346083.0625</v>
-      </c>
-      <c r="H29">
-        <v>387820.9375</v>
       </c>
       <c r="I29">
         <v>380469.875</v>
@@ -4632,10 +4632,10 @@
         <v>215921.96875</v>
       </c>
       <c r="G30">
+        <v>346124.625</v>
+      </c>
+      <c r="H30">
         <v>346082.75</v>
-      </c>
-      <c r="H30">
-        <v>388310.90625</v>
       </c>
       <c r="I30">
         <v>400501.8125</v>
@@ -4685,10 +4685,10 @@
         <v>110742.1796875</v>
       </c>
       <c r="G31">
+        <v>346133.1875</v>
+      </c>
+      <c r="H31">
         <v>346078.59375</v>
-      </c>
-      <c r="H31">
-        <v>386558.9375</v>
       </c>
       <c r="I31">
         <v>260248.234375</v>
@@ -4738,10 +4738,10 @@
         <v>195791.75</v>
       </c>
       <c r="G32">
+        <v>346132.34375</v>
+      </c>
+      <c r="H32">
         <v>346074.875</v>
-      </c>
-      <c r="H32">
-        <v>388655.9375</v>
       </c>
       <c r="I32">
         <v>363715.65625</v>
@@ -4791,10 +4791,10 @@
         <v>239666.78125</v>
       </c>
       <c r="G33">
+        <v>346133.59375</v>
+      </c>
+      <c r="H33">
         <v>346076.46875</v>
-      </c>
-      <c r="H33">
-        <v>393341.0625</v>
       </c>
       <c r="I33">
         <v>309125.96875</v>
@@ -4844,10 +4844,10 @@
         <v>184892.40625</v>
       </c>
       <c r="G34">
+        <v>346138.46875</v>
+      </c>
+      <c r="H34">
         <v>346173.5625</v>
-      </c>
-      <c r="H34">
-        <v>395597.46875</v>
       </c>
       <c r="I34">
         <v>293895.15625</v>
@@ -5019,236 +5019,236 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B6">
-        <v>13608558877.40806</v>
+        <v>16192795259.67928</v>
       </c>
       <c r="C6">
-        <v>116655.7280094212</v>
+        <v>127250.9145730563</v>
       </c>
       <c r="D6">
-        <v>0.03276688187129719</v>
+        <v>0.03339412350067932</v>
       </c>
       <c r="E6">
-        <v>58254.34505208334</v>
+        <v>58031.86197916666</v>
       </c>
       <c r="F6">
-        <v>0.1225565179367704</v>
+        <v>0.1165998461885215</v>
       </c>
       <c r="G6">
-        <v>24239.71875</v>
+        <v>26374.234375</v>
       </c>
       <c r="H6">
-        <v>0.07990673233970172</v>
+        <v>0.08144630402636388</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>17965548969.52262</v>
+        <v>13608558877.40806</v>
       </c>
       <c r="C7">
-        <v>134035.6257474953</v>
+        <v>116655.7280094212</v>
       </c>
       <c r="D7">
-        <v>0.04133509020382066</v>
+        <v>0.03276688187129719</v>
       </c>
       <c r="E7">
-        <v>67488.34375</v>
+        <v>58254.34505208334</v>
       </c>
       <c r="F7">
-        <v>0.1406291783961377</v>
+        <v>0.1225565179367704</v>
       </c>
       <c r="G7">
-        <v>36233.921875</v>
+        <v>24239.71875</v>
       </c>
       <c r="H7">
-        <v>0.1101121868351106</v>
+        <v>0.07990673233970172</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>16133971311.44751</v>
+        <v>17965548969.52262</v>
       </c>
       <c r="C8">
-        <v>127019.5705844084</v>
+        <v>134035.6257474953</v>
       </c>
       <c r="D8">
-        <v>0.0396399726945661</v>
+        <v>0.04133509020382066</v>
       </c>
       <c r="E8">
-        <v>68697.24739583333</v>
+        <v>67488.34375</v>
       </c>
       <c r="F8">
-        <v>0.1499659553350826</v>
+        <v>0.1406291783961377</v>
       </c>
       <c r="G8">
-        <v>39300.453125</v>
+        <v>36233.921875</v>
       </c>
       <c r="H8">
-        <v>0.1172902657027459</v>
+        <v>0.1101121868351106</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>21876359370.14728</v>
+        <v>16133971311.44751</v>
       </c>
       <c r="C9">
-        <v>147906.5900159532</v>
+        <v>127019.5705844084</v>
       </c>
       <c r="D9">
-        <v>0.1012965074935683</v>
+        <v>0.0396399726945661</v>
       </c>
       <c r="E9">
-        <v>110161.1028645833</v>
+        <v>68697.24739583333</v>
       </c>
       <c r="F9">
-        <v>0.2783440457153226</v>
+        <v>0.1499659553350826</v>
       </c>
       <c r="G9">
-        <v>80922.6015625</v>
+        <v>39300.453125</v>
       </c>
       <c r="H9">
-        <v>0.2444875682348798</v>
+        <v>0.1172902657027459</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>29225901856.13674</v>
+        <v>21876359370.14728</v>
       </c>
       <c r="C10">
-        <v>170955.8476804369</v>
+        <v>147906.5900159532</v>
       </c>
       <c r="D10">
-        <v>0.1116901310690557</v>
+        <v>0.1012965074935683</v>
       </c>
       <c r="E10">
-        <v>126623.4813257758</v>
+        <v>110161.1028645833</v>
       </c>
       <c r="F10">
-        <v>0.315438154459811</v>
+        <v>0.2783440457153226</v>
       </c>
       <c r="G10">
-        <v>89602.19305495163</v>
+        <v>80922.6015625</v>
       </c>
       <c r="H10">
-        <v>0.2807568088809922</v>
+        <v>0.2444875682348798</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>29869502460.62517</v>
+        <v>29225901856.13674</v>
       </c>
       <c r="C11">
-        <v>172827.9562473189</v>
+        <v>170955.8476804369</v>
       </c>
       <c r="D11">
-        <v>0.1130563675262416</v>
+        <v>0.1116901310690557</v>
       </c>
       <c r="E11">
-        <v>127433.7498154411</v>
+        <v>126623.4813257758</v>
       </c>
       <c r="F11">
-        <v>0.3170976413704724</v>
+        <v>0.315438154459811</v>
       </c>
       <c r="G11">
-        <v>91660.50048316388</v>
+        <v>89602.19305495163</v>
       </c>
       <c r="H11">
-        <v>0.2819671818490973</v>
+        <v>0.2807568088809922</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>30289826855.35545</v>
+        <v>29869502460.62517</v>
       </c>
       <c r="C12">
-        <v>174039.7278076343</v>
+        <v>172827.9562473189</v>
       </c>
       <c r="D12">
-        <v>0.1154181925970402</v>
+        <v>0.1130563675262416</v>
       </c>
       <c r="E12">
-        <v>128779.1263020833</v>
+        <v>127433.7498154411</v>
       </c>
       <c r="F12">
-        <v>0.3207549050287484</v>
+        <v>0.3170976413704724</v>
       </c>
       <c r="G12">
-        <v>93658.3828125</v>
+        <v>91660.50048316388</v>
       </c>
       <c r="H12">
-        <v>0.2926346257409405</v>
+        <v>0.2819671818490973</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>30378625626.8037</v>
+        <v>30289826855.35545</v>
       </c>
       <c r="C13">
-        <v>174294.6517446926</v>
+        <v>174039.7278076343</v>
       </c>
       <c r="D13">
-        <v>0.1161443491391933</v>
+        <v>0.1154181925970402</v>
       </c>
       <c r="E13">
-        <v>129247.929977819</v>
+        <v>128779.1263020833</v>
       </c>
       <c r="F13">
-        <v>0.3220774436784985</v>
+        <v>0.3207549050287484</v>
       </c>
       <c r="G13">
-        <v>93620.52974917072</v>
+        <v>93658.3828125</v>
       </c>
       <c r="H13">
-        <v>0.2926043126743852</v>
+        <v>0.2926346257409405</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>33361792172.60736</v>
+        <v>30378625626.8037</v>
       </c>
       <c r="C14">
-        <v>182652.1069481744</v>
+        <v>174294.6517446926</v>
       </c>
       <c r="D14">
-        <v>0.1799504864124754</v>
+        <v>0.1161443491391933</v>
       </c>
       <c r="E14">
-        <v>132501.04296875</v>
+        <v>129247.929977819</v>
       </c>
       <c r="F14">
-        <v>0.3450794674262814</v>
+        <v>0.3220774436784985</v>
       </c>
       <c r="G14">
-        <v>88280.6484375</v>
+        <v>93620.52974917072</v>
       </c>
       <c r="H14">
-        <v>0.277178721025957</v>
+        <v>0.2926043126743852</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -5313,31 +5313,31 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>19</v>
@@ -5366,31 +5366,31 @@
         <v>327124.875</v>
       </c>
       <c r="H2">
+        <v>327115.875</v>
+      </c>
+      <c r="I2">
         <v>275237.28125</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>331841.28125</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>245462.25</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>260958.734375</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>215382.3491335835</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>214188.6755549273</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>214523.15625</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>214514.6294047169</v>
-      </c>
-      <c r="P2">
-        <v>210430.640625</v>
       </c>
       <c r="Q2">
         <v>394213.09375</v>
@@ -5419,31 +5419,31 @@
         <v>327125.71875</v>
       </c>
       <c r="H3">
+        <v>327115.96875</v>
+      </c>
+      <c r="I3">
         <v>373303.15625</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>313247.3125</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>340019.0625</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>361149.46875</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>255582.4786912849</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>247692.2515082695</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>245551.265625</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>245601.1954657663</v>
-      </c>
-      <c r="P3">
-        <v>284321.4375</v>
       </c>
       <c r="Q3">
         <v>266168.03125</v>
@@ -5472,31 +5472,31 @@
         <v>327143.46875</v>
       </c>
       <c r="H4">
+        <v>327116.9375</v>
+      </c>
+      <c r="I4">
         <v>283075.6875</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>310320.40625</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>258252.5</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>275902.8125</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>232419.5567606252</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>234779.5311215729</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>237476.171875</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>237469.1976780728</v>
-      </c>
-      <c r="P4">
-        <v>441955.90625</v>
       </c>
       <c r="Q4">
         <v>-270002.5625</v>
@@ -5525,31 +5525,31 @@
         <v>327139.90625</v>
       </c>
       <c r="H5">
+        <v>327117.6875</v>
+      </c>
+      <c r="I5">
         <v>293235.5625</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>314504.53125</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>283332.40625</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>276384.96875</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>223471.9748003703</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>223259.5449853126</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>224373.4375</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>224373.5672948709</v>
-      </c>
-      <c r="P5">
-        <v>507873.25</v>
       </c>
       <c r="Q5">
         <v>-689488.3125</v>
@@ -5578,31 +5578,31 @@
         <v>327145.8125</v>
       </c>
       <c r="H6">
+        <v>327118.40625</v>
+      </c>
+      <c r="I6">
         <v>345423.40625</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>303904.8125</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>318391.96875</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>306178.125</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>255582.4786912849</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>247692.2515082695</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>245551.265625</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>245601.1954657663</v>
-      </c>
-      <c r="P6">
-        <v>439742.9375</v>
       </c>
       <c r="Q6">
         <v>-416272.78125</v>
@@ -5631,31 +5631,31 @@
         <v>327141.90625</v>
       </c>
       <c r="H7">
+        <v>327119.09375</v>
+      </c>
+      <c r="I7">
         <v>297383.46875</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>297320.5625</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>277685.375</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>236411.5</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>218078.0571294716</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>218280.3446190477</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>211498.53125</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>211525.4272933951</v>
-      </c>
-      <c r="P7">
-        <v>379238.5625</v>
       </c>
       <c r="Q7">
         <v>-86025.0703125</v>
@@ -5684,31 +5684,31 @@
         <v>327235.71875</v>
       </c>
       <c r="H8">
+        <v>327120.75</v>
+      </c>
+      <c r="I8">
         <v>334559.875</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>314776.4375</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>308770.875</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>285244.21875</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>255582.4786912849</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>264873.7475254027</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>260086.609375</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>254287.3304891611</v>
-      </c>
-      <c r="P8">
-        <v>333294.125</v>
       </c>
       <c r="Q8">
         <v>-51622.453125</v>
@@ -5737,31 +5737,31 @@
         <v>327230.5625</v>
       </c>
       <c r="H9">
+        <v>327123.9375</v>
+      </c>
+      <c r="I9">
         <v>330117.78125</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>362533.09375</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>302280.0625</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>245458.578125</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>221477.4084778201</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>220348.8742818095</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>220269.015625</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>220288.3724800288</v>
-      </c>
-      <c r="P9">
-        <v>341620.34375</v>
       </c>
       <c r="Q9">
         <v>609338.25</v>
@@ -5790,31 +5790,31 @@
         <v>327233.8125</v>
       </c>
       <c r="H10">
+        <v>327127.21875</v>
+      </c>
+      <c r="I10">
         <v>283248.28125</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>373408.90625</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>293414.75</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>212529.125</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>218078.0571294716</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>214165.7515869408</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>214204.96875</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>214230.7450358922</v>
-      </c>
-      <c r="P10">
-        <v>488634.375</v>
       </c>
       <c r="Q10">
         <v>52669.921875</v>
@@ -5843,31 +5843,31 @@
         <v>327232.59375</v>
       </c>
       <c r="H11">
+        <v>327130.34375</v>
+      </c>
+      <c r="I11">
         <v>281246.8125</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>299010.65625</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>293638.5625</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>171589.859375</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>255582.4786912849</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>247692.2515082695</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>245551.265625</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>245601.1954657663</v>
-      </c>
-      <c r="P11">
-        <v>571793.1875</v>
       </c>
       <c r="Q11">
         <v>-65316.7734375</v>
@@ -5896,31 +5896,31 @@
         <v>327231.21875</v>
       </c>
       <c r="H12">
+        <v>327133.28125</v>
+      </c>
+      <c r="I12">
         <v>297469.6875</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>298858.875</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>327968.1875</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>188361.4375</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>232419.5567606252</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>242154.1024599568</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>239562.640625</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>239538.3547880178</v>
-      </c>
-      <c r="P12">
-        <v>426898.625</v>
       </c>
       <c r="Q12">
         <v>140434.8125</v>
@@ -5949,31 +5949,31 @@
         <v>327233.09375</v>
       </c>
       <c r="H13">
+        <v>327137.21875</v>
+      </c>
+      <c r="I13">
         <v>231206.984375</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>285233.625</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>244938.03125</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>176418.9375</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>215382.3491335835</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>214188.6755549273</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>214523.15625</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>214514.6294047169</v>
-      </c>
-      <c r="P13">
-        <v>308836.53125</v>
       </c>
       <c r="Q13">
         <v>-198290.375</v>
@@ -6002,31 +6002,31 @@
         <v>327234.25</v>
       </c>
       <c r="H14">
+        <v>327141.5</v>
+      </c>
+      <c r="I14">
         <v>213544.46875</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>276973.15625</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>253516.109375</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>123302.2421875</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>255582.4786912849</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>263948.4768241873</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>260799.0625</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>260739.4373479016</v>
-      </c>
-      <c r="P14">
-        <v>335665.4375</v>
       </c>
       <c r="Q14">
         <v>161212.234375</v>
@@ -6055,31 +6055,31 @@
         <v>327233.90625</v>
       </c>
       <c r="H15">
+        <v>327145.84375</v>
+      </c>
+      <c r="I15">
         <v>263205.25</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>263396.15625</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>319326.375</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>218544.5625</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>255582.4786912849</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>261465.8198638975</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>252333.734375</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>249783.8680517107</v>
-      </c>
-      <c r="P15">
-        <v>365557.625</v>
       </c>
       <c r="Q15">
         <v>-725125.375</v>
@@ -6108,31 +6108,31 @@
         <v>327257.625</v>
       </c>
       <c r="H16">
+        <v>327149</v>
+      </c>
+      <c r="I16">
         <v>228576.265625</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>297400.34375</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>250293.609375</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>187542.40625</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>218078.0571294716</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>214165.7515869408</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>214204.96875</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>214230.7450358922</v>
-      </c>
-      <c r="P16">
-        <v>425059.28125</v>
       </c>
       <c r="Q16">
         <v>-631818.8125</v>
@@ -6161,31 +6161,31 @@
         <v>327260.78125</v>
       </c>
       <c r="H17">
+        <v>327148.6875</v>
+      </c>
+      <c r="I17">
         <v>224739.515625</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>311828.65625</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>286816.78125</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>217714.421875</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>221477.4084778201</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>231168.989551948</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>228131.015625</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>228110.536704896</v>
-      </c>
-      <c r="P17">
-        <v>479227.5625</v>
       </c>
       <c r="Q17">
         <v>-33274.08984375</v>
@@ -6214,31 +6214,31 @@
         <v>327256.78125</v>
       </c>
       <c r="H18">
+        <v>327150</v>
+      </c>
+      <c r="I18">
         <v>233769.375</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>251710.6875</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>272474.125</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>204451.875</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>232419.5567606252</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>234779.5311215729</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>237476.171875</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>237469.1976780728</v>
-      </c>
-      <c r="P18">
-        <v>368173.78125</v>
       </c>
       <c r="Q18">
         <v>421163.8125</v>
@@ -6267,31 +6267,31 @@
         <v>327261.3125</v>
       </c>
       <c r="H19">
+        <v>327151.1875</v>
+      </c>
+      <c r="I19">
         <v>231979.96875</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>268882.84375</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>295830.6875</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>222173.953125</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>232419.5567606252</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>250291.0705</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>266750.25</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>245275.8437042174</v>
-      </c>
-      <c r="P19">
-        <v>257119.609375</v>
       </c>
       <c r="Q19">
         <v>-389351.75</v>
@@ -6320,31 +6320,31 @@
         <v>327257.78125</v>
       </c>
       <c r="H20">
+        <v>327151.40625</v>
+      </c>
+      <c r="I20">
         <v>200952.765625</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>326543.90625</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>254815.546875</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>222901.5625</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>255582.4786912849</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>280896.349</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>280480.9375</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>280466.0854404019</v>
-      </c>
-      <c r="P20">
-        <v>302988.0625</v>
       </c>
       <c r="Q20">
         <v>204605.125</v>
@@ -6373,31 +6373,31 @@
         <v>327257.3125</v>
       </c>
       <c r="H21">
+        <v>327152.625</v>
+      </c>
+      <c r="I21">
         <v>172184.5</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>232344.8125</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>191975.765625</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>176743.015625</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>215382.3491335835</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>214188.6755549273</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>214523.15625</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>214514.6294047169</v>
-      </c>
-      <c r="P21">
-        <v>353919.53125</v>
       </c>
       <c r="Q21">
         <v>494228.03125</v>
@@ -6426,31 +6426,31 @@
         <v>327259.21875</v>
       </c>
       <c r="H22">
+        <v>327154.125</v>
+      </c>
+      <c r="I22">
         <v>228443.390625</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>353310.90625</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>266359.4375</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>209661.078125</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>255582.4786912849</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>263948.4768241873</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>260799.0625</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>260739.4373479016</v>
-      </c>
-      <c r="P22">
-        <v>328142.5625</v>
       </c>
       <c r="Q22">
         <v>139876.421875</v>
@@ -6479,31 +6479,31 @@
         <v>327259.3125</v>
       </c>
       <c r="H23">
+        <v>327155.6875</v>
+      </c>
+      <c r="I23">
         <v>253942.75</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>270804.78125</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>291035.375</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>229970.671875</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>255582.4786912849</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>258178.8825</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>263422.90625</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>263343.3470500244</v>
-      </c>
-      <c r="P23">
-        <v>294430.1875</v>
       </c>
       <c r="Q23">
         <v>-357290.28125</v>
@@ -6532,31 +6532,31 @@
         <v>327258.15625</v>
       </c>
       <c r="H24">
+        <v>327157</v>
+      </c>
+      <c r="I24">
         <v>192990.1875</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>299778.1875</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>188278.9375</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>199990.703125</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>215382.3491335835</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>214188.6755549273</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>214523.15625</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>214514.6294047169</v>
-      </c>
-      <c r="P24">
-        <v>249993.046875</v>
       </c>
       <c r="Q24">
         <v>-2872.349365234375</v>
@@ -6585,31 +6585,31 @@
         <v>327263.65625</v>
       </c>
       <c r="H25">
+        <v>327158.28125</v>
+      </c>
+      <c r="I25">
         <v>195755.359375</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>375258.9375</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>203101.03125</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>218689.671875</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>232419.5567606252</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>234779.5311215729</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>237476.171875</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>237469.1976780728</v>
-      </c>
-      <c r="P25">
-        <v>203569.765625</v>
       </c>
       <c r="Q25">
         <v>-339664.84375</v>
@@ -6638,31 +6638,31 @@
         <v>327257.15625</v>
       </c>
       <c r="H26">
+        <v>327160.21875</v>
+      </c>
+      <c r="I26">
         <v>243601.703125</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>327355.75</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>244203.109375</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>237341.546875</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>221477.4084778201</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>220348.8742818095</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>220269.015625</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>220288.3724800288</v>
-      </c>
-      <c r="P26">
-        <v>280693.5625</v>
       </c>
       <c r="Q26">
         <v>272849.0625</v>
@@ -6691,31 +6691,31 @@
         <v>327254</v>
       </c>
       <c r="H27">
+        <v>327162.375</v>
+      </c>
+      <c r="I27">
         <v>236383.5</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>414368.5</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>226462.859375</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>232591.578125</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>232419.5567606252</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>229058.7313051948</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>266750.25</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>214338.9814397684</v>
-      </c>
-      <c r="P27">
-        <v>392410.5625</v>
       </c>
       <c r="Q27">
         <v>1562039.125</v>
@@ -6744,31 +6744,31 @@
         <v>327265.53125</v>
       </c>
       <c r="H28">
+        <v>327164.0625</v>
+      </c>
+      <c r="I28">
         <v>209529.546875</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>300376.875</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>161123.3125</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>209955.375</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>223471.9748003703</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>223259.5449853126</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>224373.4375</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>224373.5672948709</v>
-      </c>
-      <c r="P28">
-        <v>370418.40625</v>
       </c>
       <c r="Q28">
         <v>1330063.25</v>
@@ -6797,31 +6797,31 @@
         <v>327258.625</v>
       </c>
       <c r="H29">
+        <v>327165.0625</v>
+      </c>
+      <c r="I29">
         <v>241960.53125</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>365478.1875</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>201357.03125</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>263720.9375</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>221477.4084778201</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>231168.989551948</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>228131.015625</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>228110.536704896</v>
-      </c>
-      <c r="P29">
-        <v>296105</v>
       </c>
       <c r="Q29">
         <v>3047780.25</v>
@@ -6850,31 +6850,31 @@
         <v>327267.09375</v>
       </c>
       <c r="H30">
+        <v>327166</v>
+      </c>
+      <c r="I30">
         <v>245514.15625</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>357572.59375</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>170577.40625</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>251538.125</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>215382.3491335835</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>214188.6755549273</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>214523.15625</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>214514.6294047169</v>
-      </c>
-      <c r="P30">
-        <v>286985.6875</v>
       </c>
       <c r="Q30">
         <v>3104006</v>
@@ -6903,31 +6903,31 @@
         <v>327261.625</v>
       </c>
       <c r="H31">
+        <v>327167.0625</v>
+      </c>
+      <c r="I31">
         <v>291809.03125</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>310132.03125</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>203588.9375</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>306661.625</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>221477.4084778201</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>220348.8742818095</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>220269.015625</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>220288.3724800288</v>
-      </c>
-      <c r="P31">
-        <v>312015.75</v>
       </c>
       <c r="Q31">
         <v>4818665.5</v>
@@ -6956,31 +6956,31 @@
         <v>327258.625</v>
       </c>
       <c r="H32">
+        <v>327167.84375</v>
+      </c>
+      <c r="I32">
         <v>259894.78125</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>350776.21875</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>189923.984375</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>254273.34375</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>255582.4786912849</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>238973.9033452381</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>231716.046875</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>236422.0000128433</v>
-      </c>
-      <c r="P32">
-        <v>330616.84375</v>
       </c>
       <c r="Q32">
         <v>8267716</v>
@@ -7009,31 +7009,31 @@
         <v>327263.75</v>
       </c>
       <c r="H33">
+        <v>327167.8125</v>
+      </c>
+      <c r="I33">
         <v>228474.796875</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>276230.3125</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>200929.03125</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>256140.59375</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>215382.3491335835</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>214188.6755549273</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>214523.15625</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>214514.6294047169</v>
-      </c>
-      <c r="P33">
-        <v>344818.84375</v>
       </c>
       <c r="Q33">
         <v>10414168</v>
@@ -7062,31 +7062,31 @@
         <v>327263.1875</v>
       </c>
       <c r="H34">
+        <v>327167.625</v>
+      </c>
+      <c r="I34">
         <v>346005.1875</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>281029.75</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>274796.8125</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>334966.375</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>255582.4786912849</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>247692.2515082695</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>245551.265625</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>245601.1954657663</v>
-      </c>
-      <c r="P34">
-        <v>351475.8125</v>
       </c>
       <c r="Q34">
         <v>13293556</v>
